--- a/metadata/geography.xlsx
+++ b/metadata/geography.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viwong\Desktop\tradestat_formal\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\tradestat_formal\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4999BE7-568C-401C-9B90-6E0EA2046C24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A2B172-AE12-4954-A00C-965AF30099ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1455" windowWidth="21585" windowHeight="14745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="area" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="492">
   <si>
     <t>AREACODE</t>
   </si>
@@ -3255,6 +3255,10 @@
   </si>
   <si>
     <t>POSTAL PACKAGE</t>
+  </si>
+  <si>
+    <t>ADJUST_DATE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3333,7 +3337,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3349,7 +3353,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3676,17 +3680,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3703,7 +3707,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -3720,7 +3724,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>200</v>
       </c>
@@ -3737,7 +3741,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>300</v>
       </c>
@@ -3754,7 +3758,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>400</v>
       </c>
@@ -3771,7 +3775,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>500</v>
       </c>
@@ -3788,7 +3792,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>600</v>
       </c>
@@ -3805,7 +3809,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>700</v>
       </c>
@@ -3822,7 +3826,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>800</v>
       </c>
@@ -3839,7 +3843,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>900</v>
       </c>
@@ -3870,23 +3874,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E215"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E209" sqref="E209"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="2"/>
+    <col min="2" max="3" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3902,8 +3907,11 @@
       <c r="E1" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>111</v>
       </c>
@@ -3920,7 +3928,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>181</v>
       </c>
@@ -3937,7 +3945,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>191</v>
       </c>
@@ -3954,7 +3962,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>199</v>
       </c>
@@ -3971,7 +3979,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>211</v>
       </c>
@@ -3988,7 +3996,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>212</v>
       </c>
@@ -4005,7 +4013,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>213</v>
       </c>
@@ -4022,7 +4030,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>214</v>
       </c>
@@ -4039,7 +4047,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>215</v>
       </c>
@@ -4056,7 +4064,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>216</v>
       </c>
@@ -4073,7 +4081,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>217</v>
       </c>
@@ -4090,7 +4098,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>218</v>
       </c>
@@ -4107,7 +4115,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>219</v>
       </c>
@@ -4124,7 +4132,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>221</v>
       </c>
@@ -4141,7 +4149,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>222</v>
       </c>
@@ -4158,7 +4166,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>223</v>
       </c>
@@ -4175,7 +4183,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>224</v>
       </c>
@@ -4192,7 +4200,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>225</v>
       </c>
@@ -4209,7 +4217,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>226</v>
       </c>
@@ -4226,7 +4234,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>227</v>
       </c>
@@ -4243,7 +4251,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>228</v>
       </c>
@@ -4260,7 +4268,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>229</v>
       </c>
@@ -4277,7 +4285,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>231</v>
       </c>
@@ -4294,7 +4302,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>233</v>
       </c>
@@ -4311,7 +4319,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>234</v>
       </c>
@@ -4328,7 +4336,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>235</v>
       </c>
@@ -4345,7 +4353,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>236</v>
       </c>
@@ -4362,7 +4370,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>241</v>
       </c>
@@ -4379,7 +4387,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>242</v>
       </c>
@@ -4396,7 +4404,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>243</v>
       </c>
@@ -4413,7 +4421,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>244</v>
       </c>
@@ -4430,7 +4438,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>245</v>
       </c>
@@ -4447,7 +4455,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>246</v>
       </c>
@@ -4464,7 +4472,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>247</v>
       </c>
@@ -4481,7 +4489,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>251</v>
       </c>
@@ -4498,7 +4506,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>252</v>
       </c>
@@ -4515,7 +4523,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>253</v>
       </c>
@@ -4532,7 +4540,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>292</v>
       </c>
@@ -4549,7 +4557,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>293</v>
       </c>
@@ -4566,7 +4574,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>294</v>
       </c>
@@ -4583,7 +4591,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>299</v>
       </c>
@@ -4600,7 +4608,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>312</v>
       </c>
@@ -4617,7 +4625,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>313</v>
       </c>
@@ -4634,7 +4642,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>314</v>
       </c>
@@ -4651,7 +4659,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>315</v>
       </c>
@@ -4668,7 +4676,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>316</v>
       </c>
@@ -4685,7 +4693,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>317</v>
       </c>
@@ -4702,7 +4710,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>318</v>
       </c>
@@ -4719,7 +4727,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>321</v>
       </c>
@@ -4736,7 +4744,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>322</v>
       </c>
@@ -4753,7 +4761,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>323</v>
       </c>
@@ -4770,7 +4778,7 @@
         <v>20190313</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>325</v>
       </c>
@@ -4787,7 +4795,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>326</v>
       </c>
@@ -4804,7 +4812,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>327</v>
       </c>
@@ -4821,7 +4829,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>330</v>
       </c>
@@ -4838,7 +4846,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>331</v>
       </c>
@@ -4855,7 +4863,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>332</v>
       </c>
@@ -4872,7 +4880,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>333</v>
       </c>
@@ -4889,7 +4897,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>334</v>
       </c>
@@ -4906,7 +4914,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>335</v>
       </c>
@@ -4923,7 +4931,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>399</v>
       </c>
@@ -4940,7 +4948,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>411</v>
       </c>
@@ -4957,7 +4965,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>412</v>
       </c>
@@ -4974,7 +4982,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>413</v>
       </c>
@@ -4991,7 +4999,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>414</v>
       </c>
@@ -5008,7 +5016,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>415</v>
       </c>
@@ -5025,7 +5033,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>416</v>
       </c>
@@ -5042,7 +5050,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>417</v>
       </c>
@@ -5059,7 +5067,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>418</v>
       </c>
@@ -5076,7 +5084,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>419</v>
       </c>
@@ -5093,7 +5101,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>421</v>
       </c>
@@ -5110,7 +5118,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>423</v>
       </c>
@@ -5127,7 +5135,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>424</v>
       </c>
@@ -5144,7 +5152,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>425</v>
       </c>
@@ -5161,7 +5169,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>426</v>
       </c>
@@ -5178,7 +5186,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>427</v>
       </c>
@@ -5195,7 +5203,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>428</v>
       </c>
@@ -5212,7 +5220,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>429</v>
       </c>
@@ -5229,7 +5237,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>431</v>
       </c>
@@ -5246,7 +5254,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>432</v>
       </c>
@@ -5263,7 +5271,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>433</v>
       </c>
@@ -5280,7 +5288,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>441</v>
       </c>
@@ -5297,7 +5305,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>442</v>
       </c>
@@ -5314,7 +5322,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>443</v>
       </c>
@@ -5331,7 +5339,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>451</v>
       </c>
@@ -5348,7 +5356,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>491</v>
       </c>
@@ -5365,7 +5373,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>492</v>
       </c>
@@ -5382,7 +5390,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>493</v>
       </c>
@@ -5399,7 +5407,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>494</v>
       </c>
@@ -5416,7 +5424,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>495</v>
       </c>
@@ -5433,7 +5441,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>496</v>
       </c>
@@ -5450,7 +5458,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>497</v>
       </c>
@@ -5467,7 +5475,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>498</v>
       </c>
@@ -5484,7 +5492,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>499</v>
       </c>
@@ -5501,7 +5509,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>511</v>
       </c>
@@ -5518,7 +5526,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>513</v>
       </c>
@@ -5535,7 +5543,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>514</v>
       </c>
@@ -5552,7 +5560,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>515</v>
       </c>
@@ -5569,7 +5577,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>516</v>
       </c>
@@ -5586,7 +5594,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>517</v>
       </c>
@@ -5603,7 +5611,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>518</v>
       </c>
@@ -5620,7 +5628,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>519</v>
       </c>
@@ -5637,7 +5645,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>521</v>
       </c>
@@ -5654,7 +5662,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>522</v>
       </c>
@@ -5671,7 +5679,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>523</v>
       </c>
@@ -5688,7 +5696,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>524</v>
       </c>
@@ -5705,7 +5713,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>592</v>
       </c>
@@ -5722,7 +5730,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>599</v>
       </c>
@@ -5739,7 +5747,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>611</v>
       </c>
@@ -5756,7 +5764,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>612</v>
       </c>
@@ -5773,7 +5781,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>613</v>
       </c>
@@ -5790,7 +5798,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>614</v>
       </c>
@@ -5807,7 +5815,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>615</v>
       </c>
@@ -5824,7 +5832,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>616</v>
       </c>
@@ -5841,7 +5849,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>617</v>
       </c>
@@ -5858,7 +5866,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>619</v>
       </c>
@@ -5875,7 +5883,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>621</v>
       </c>
@@ -5892,7 +5900,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>622</v>
       </c>
@@ -5909,7 +5917,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>631</v>
       </c>
@@ -5925,8 +5933,11 @@
       <c r="E120" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="3">
+        <v>20191205</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>632</v>
       </c>
@@ -5943,7 +5954,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>633</v>
       </c>
@@ -5960,7 +5971,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>641</v>
       </c>
@@ -5977,7 +5988,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>642</v>
       </c>
@@ -5994,7 +6005,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>643</v>
       </c>
@@ -6011,7 +6022,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>644</v>
       </c>
@@ -6028,7 +6039,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>645</v>
       </c>
@@ -6045,7 +6056,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>646</v>
       </c>
@@ -6062,7 +6073,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>647</v>
       </c>
@@ -6079,7 +6090,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>689</v>
       </c>
@@ -6096,7 +6107,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>690</v>
       </c>
@@ -6113,7 +6124,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>691</v>
       </c>
@@ -6130,7 +6141,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>692</v>
       </c>
@@ -6147,7 +6158,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>693</v>
       </c>
@@ -6164,7 +6175,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>694</v>
       </c>
@@ -6181,7 +6192,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>697</v>
       </c>
@@ -6198,7 +6209,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>699</v>
       </c>
@@ -6215,7 +6226,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>711</v>
       </c>
@@ -6232,7 +6243,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>712</v>
       </c>
@@ -6249,7 +6260,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>713</v>
       </c>
@@ -6266,7 +6277,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>714</v>
       </c>
@@ -6283,7 +6294,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>715</v>
       </c>
@@ -6300,7 +6311,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>716</v>
       </c>
@@ -6317,7 +6328,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>717</v>
       </c>
@@ -6334,7 +6345,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>718</v>
       </c>
@@ -6351,7 +6362,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>719</v>
       </c>
@@ -6368,7 +6379,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>720</v>
       </c>
@@ -6385,7 +6396,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>721</v>
       </c>
@@ -6402,7 +6413,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>722</v>
       </c>
@@ -6419,7 +6430,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>723</v>
       </c>
@@ -6436,7 +6447,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>724</v>
       </c>
@@ -6453,7 +6464,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>725</v>
       </c>
@@ -6470,7 +6481,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>726</v>
       </c>
@@ -6487,7 +6498,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>727</v>
       </c>
@@ -6504,7 +6515,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>728</v>
       </c>
@@ -6521,7 +6532,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>729</v>
       </c>
@@ -6538,7 +6549,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>730</v>
       </c>
@@ -6555,7 +6566,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>731</v>
       </c>
@@ -6572,7 +6583,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>732</v>
       </c>
@@ -6589,7 +6600,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>733</v>
       </c>
@@ -6606,7 +6617,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>734</v>
       </c>
@@ -6623,7 +6634,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>735</v>
       </c>
@@ -6640,7 +6651,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>736</v>
       </c>
@@ -6657,7 +6668,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>737</v>
       </c>
@@ -6674,7 +6685,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>738</v>
       </c>
@@ -6691,7 +6702,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>739</v>
       </c>
@@ -6708,7 +6719,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>741</v>
       </c>
@@ -6725,7 +6736,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>742</v>
       </c>
@@ -6742,7 +6753,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>743</v>
       </c>
@@ -6759,7 +6770,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>744</v>
       </c>
@@ -6776,7 +6787,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>745</v>
       </c>
@@ -6793,7 +6804,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>747</v>
       </c>
@@ -6810,7 +6821,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>748</v>
       </c>
@@ -6827,7 +6838,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>751</v>
       </c>
@@ -6844,7 +6855,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>752</v>
       </c>
@@ -6861,7 +6872,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>781</v>
       </c>
@@ -6878,7 +6889,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>782</v>
       </c>
@@ -6895,7 +6906,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>783</v>
       </c>
@@ -6912,7 +6923,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>784</v>
       </c>
@@ -6929,7 +6940,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>785</v>
       </c>
@@ -6946,7 +6957,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>786</v>
       </c>
@@ -6963,7 +6974,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>788</v>
       </c>
@@ -6980,7 +6991,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>789</v>
       </c>
@@ -6997,7 +7008,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>790</v>
       </c>
@@ -7014,7 +7025,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>791</v>
       </c>
@@ -7031,7 +7042,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>792</v>
       </c>
@@ -7048,7 +7059,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>793</v>
       </c>
@@ -7065,7 +7076,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>794</v>
       </c>
@@ -7082,7 +7093,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>795</v>
       </c>
@@ -7099,7 +7110,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>796</v>
       </c>
@@ -7116,7 +7127,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>797</v>
       </c>
@@ -7133,7 +7144,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>799</v>
       </c>
@@ -7150,7 +7161,7 @@
         <v>20190227</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>811</v>
       </c>
@@ -7167,7 +7178,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>812</v>
       </c>
@@ -7184,7 +7195,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>816</v>
       </c>
@@ -7201,7 +7212,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>821</v>
       </c>
@@ -7218,7 +7229,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>822</v>
       </c>
@@ -7235,7 +7246,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>823</v>
       </c>
@@ -7252,7 +7263,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>824</v>
       </c>
@@ -7269,7 +7280,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>825</v>
       </c>
@@ -7286,7 +7297,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>881</v>
       </c>
@@ -7303,7 +7314,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>882</v>
       </c>
@@ -7320,7 +7331,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>883</v>
       </c>
@@ -7337,7 +7348,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>884</v>
       </c>
@@ -7354,7 +7365,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>885</v>
       </c>
@@ -7371,7 +7382,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>886</v>
       </c>
@@ -7388,7 +7399,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>889</v>
       </c>
@@ -7405,7 +7416,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>891</v>
       </c>
@@ -7422,7 +7433,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>892</v>
       </c>
@@ -7439,7 +7450,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>894</v>
       </c>
@@ -7456,7 +7467,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>895</v>
       </c>
@@ -7473,7 +7484,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>896</v>
       </c>
@@ -7490,7 +7501,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>897</v>
       </c>
@@ -7507,7 +7518,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>900</v>
       </c>
@@ -7524,7 +7535,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>695</v>
       </c>
@@ -7561,17 +7572,17 @@
       <selection activeCell="B14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>214</v>
       </c>
@@ -7588,7 +7599,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -7605,7 +7616,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>200</v>
       </c>
@@ -7622,7 +7633,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>300</v>
       </c>
@@ -7639,7 +7650,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>400</v>
       </c>
@@ -7656,7 +7667,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>500</v>
       </c>
@@ -7673,7 +7684,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>900</v>
       </c>
@@ -7690,7 +7701,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>950</v>
       </c>
@@ -7707,7 +7718,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>960</v>
       </c>
@@ -7724,7 +7735,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>970</v>
       </c>
@@ -7741,7 +7752,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>980</v>
       </c>
@@ -7758,7 +7769,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>990</v>
       </c>
@@ -7775,7 +7786,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>310</v>
       </c>
@@ -7792,7 +7803,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>240</v>
       </c>
@@ -7809,7 +7820,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>940</v>
       </c>
@@ -7826,7 +7837,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>410</v>
       </c>
@@ -7843,7 +7854,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>998</v>
       </c>
@@ -7882,16 +7893,16 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>224</v>
       </c>
@@ -7905,7 +7916,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -7919,7 +7930,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -7933,7 +7944,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>100</v>
       </c>
@@ -7947,7 +7958,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -7961,7 +7972,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>100</v>
       </c>
@@ -7975,7 +7986,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>100</v>
       </c>
@@ -7989,7 +8000,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>100</v>
       </c>
@@ -8003,7 +8014,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>100</v>
       </c>
@@ -8017,7 +8028,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>100</v>
       </c>
@@ -8031,7 +8042,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>100</v>
       </c>
@@ -8045,7 +8056,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>100</v>
       </c>
@@ -8059,7 +8070,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>100</v>
       </c>
@@ -8073,7 +8084,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>100</v>
       </c>
@@ -8087,7 +8098,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>100</v>
       </c>
@@ -8101,7 +8112,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>200</v>
       </c>
@@ -8115,7 +8126,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>200</v>
       </c>
@@ -8129,7 +8140,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>200</v>
       </c>
@@ -8143,7 +8154,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>200</v>
       </c>
@@ -8157,7 +8168,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>500</v>
       </c>
@@ -8171,7 +8182,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>500</v>
       </c>
@@ -8185,7 +8196,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>500</v>
       </c>
@@ -8199,7 +8210,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>500</v>
       </c>
@@ -8213,7 +8224,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>500</v>
       </c>
@@ -8227,7 +8238,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>500</v>
       </c>
@@ -8241,7 +8252,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>500</v>
       </c>
@@ -8255,7 +8266,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>500</v>
       </c>
@@ -8269,7 +8280,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>500</v>
       </c>
@@ -8283,7 +8294,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>500</v>
       </c>
@@ -8297,7 +8308,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>500</v>
       </c>
@@ -8311,7 +8322,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>500</v>
       </c>
@@ -8325,7 +8336,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>900</v>
       </c>
@@ -8339,7 +8350,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>900</v>
       </c>
@@ -8353,7 +8364,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>900</v>
       </c>
@@ -8367,7 +8378,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>900</v>
       </c>
@@ -8381,7 +8392,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>900</v>
       </c>
@@ -8395,7 +8406,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>900</v>
       </c>
@@ -8409,7 +8420,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>900</v>
       </c>
@@ -8423,7 +8434,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>900</v>
       </c>
@@ -8437,7 +8448,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>900</v>
       </c>
@@ -8451,7 +8462,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>900</v>
       </c>
@@ -8465,7 +8476,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>900</v>
       </c>
@@ -8479,7 +8490,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>900</v>
       </c>
@@ -8493,7 +8504,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>900</v>
       </c>
@@ -8507,7 +8518,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>900</v>
       </c>
@@ -8521,7 +8532,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>900</v>
       </c>
@@ -8535,7 +8546,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>900</v>
       </c>
@@ -8549,7 +8560,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>900</v>
       </c>
@@ -8563,7 +8574,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>900</v>
       </c>
@@ -8577,7 +8588,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>900</v>
       </c>
@@ -8591,7 +8602,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>900</v>
       </c>
@@ -8605,7 +8616,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>900</v>
       </c>
@@ -8619,7 +8630,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>900</v>
       </c>
@@ -8633,7 +8644,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>900</v>
       </c>
@@ -8647,7 +8658,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>900</v>
       </c>
@@ -8661,7 +8672,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>900</v>
       </c>
@@ -8675,7 +8686,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>900</v>
       </c>
@@ -8689,7 +8700,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>900</v>
       </c>
@@ -8703,7 +8714,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>900</v>
       </c>
@@ -8717,7 +8728,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>900</v>
       </c>
@@ -8731,7 +8742,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>900</v>
       </c>
@@ -8745,7 +8756,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>900</v>
       </c>
@@ -8759,7 +8770,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>900</v>
       </c>
@@ -8773,7 +8784,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>900</v>
       </c>
@@ -8787,7 +8798,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>900</v>
       </c>
@@ -8801,7 +8812,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>900</v>
       </c>
@@ -8815,7 +8826,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>900</v>
       </c>
@@ -8829,7 +8840,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>900</v>
       </c>
@@ -8843,7 +8854,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>900</v>
       </c>
@@ -8857,7 +8868,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>900</v>
       </c>
@@ -8871,7 +8882,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>900</v>
       </c>
@@ -8885,7 +8896,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>300</v>
       </c>
@@ -8899,7 +8910,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>300</v>
       </c>
@@ -8913,7 +8924,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>300</v>
       </c>
@@ -8927,7 +8938,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>300</v>
       </c>
@@ -8941,7 +8952,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>300</v>
       </c>
@@ -8955,7 +8966,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>300</v>
       </c>
@@ -8969,7 +8980,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>300</v>
       </c>
@@ -8983,7 +8994,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>300</v>
       </c>
@@ -8997,7 +9008,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>300</v>
       </c>
@@ -9011,7 +9022,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>950</v>
       </c>
@@ -9025,7 +9036,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>950</v>
       </c>
@@ -9039,7 +9050,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>950</v>
       </c>
@@ -9053,7 +9064,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>950</v>
       </c>
@@ -9067,7 +9078,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>950</v>
       </c>
@@ -9081,7 +9092,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>950</v>
       </c>
@@ -9095,7 +9106,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>400</v>
       </c>
@@ -9109,7 +9120,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>400</v>
       </c>
@@ -9123,7 +9134,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>400</v>
       </c>
@@ -9137,7 +9148,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>400</v>
       </c>
@@ -9151,7 +9162,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>400</v>
       </c>
@@ -9165,7 +9176,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>400</v>
       </c>
@@ -9179,7 +9190,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>400</v>
       </c>
@@ -9193,7 +9204,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>400</v>
       </c>
@@ -9207,7 +9218,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>400</v>
       </c>
@@ -9221,7 +9232,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>400</v>
       </c>
@@ -9235,7 +9246,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>400</v>
       </c>
@@ -9249,7 +9260,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>400</v>
       </c>
@@ -9263,7 +9274,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>400</v>
       </c>
@@ -9277,7 +9288,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>400</v>
       </c>
@@ -9291,7 +9302,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>400</v>
       </c>
@@ -9305,7 +9316,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>400</v>
       </c>
@@ -9319,7 +9330,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>400</v>
       </c>
@@ -9333,7 +9344,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>400</v>
       </c>
@@ -9347,7 +9358,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>400</v>
       </c>
@@ -9361,7 +9372,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>400</v>
       </c>
@@ -9375,7 +9386,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>400</v>
       </c>
@@ -9389,7 +9400,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>400</v>
       </c>
@@ -9403,7 +9414,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>400</v>
       </c>
@@ -9417,7 +9428,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>300</v>
       </c>
@@ -9431,7 +9442,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>960</v>
       </c>
@@ -9445,7 +9456,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>960</v>
       </c>
@@ -9459,7 +9470,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>960</v>
       </c>
@@ -9473,7 +9484,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>960</v>
       </c>
@@ -9487,7 +9498,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>960</v>
       </c>
@@ -9501,7 +9512,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>960</v>
       </c>
@@ -9515,7 +9526,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>960</v>
       </c>
@@ -9529,7 +9540,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>960</v>
       </c>
@@ -9543,7 +9554,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>960</v>
       </c>
@@ -9557,7 +9568,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>960</v>
       </c>
@@ -9571,7 +9582,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>960</v>
       </c>
@@ -9585,7 +9596,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>100</v>
       </c>
@@ -9599,7 +9610,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>970</v>
       </c>
@@ -9613,7 +9624,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>970</v>
       </c>
@@ -9627,7 +9638,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>970</v>
       </c>
@@ -9641,7 +9652,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>970</v>
       </c>
@@ -9655,7 +9666,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>970</v>
       </c>
@@ -9669,7 +9680,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>970</v>
       </c>
@@ -9683,7 +9694,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>970</v>
       </c>
@@ -9697,7 +9708,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>970</v>
       </c>
@@ -9711,7 +9722,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>970</v>
       </c>
@@ -9725,7 +9736,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>970</v>
       </c>
@@ -9739,7 +9750,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>970</v>
       </c>
@@ -9753,7 +9764,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>970</v>
       </c>
@@ -9767,7 +9778,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>970</v>
       </c>
@@ -9781,7 +9792,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>970</v>
       </c>
@@ -9795,7 +9806,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>970</v>
       </c>
@@ -9809,7 +9820,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>100</v>
       </c>
@@ -9823,7 +9834,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>100</v>
       </c>
@@ -9837,7 +9848,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>100</v>
       </c>
@@ -9851,7 +9862,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>100</v>
       </c>
@@ -9865,7 +9876,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>100</v>
       </c>
@@ -9879,7 +9890,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>100</v>
       </c>
@@ -9893,7 +9904,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>100</v>
       </c>
@@ -9907,7 +9918,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>100</v>
       </c>
@@ -9921,7 +9932,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>100</v>
       </c>
@@ -9935,7 +9946,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>100</v>
       </c>
@@ -9949,7 +9960,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>100</v>
       </c>
@@ -9963,7 +9974,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>100</v>
       </c>
@@ -9977,7 +9988,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>980</v>
       </c>
@@ -9991,7 +10002,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>980</v>
       </c>
@@ -10005,7 +10016,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>980</v>
       </c>
@@ -10019,7 +10030,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>980</v>
       </c>
@@ -10033,7 +10044,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>980</v>
       </c>
@@ -10047,7 +10058,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>980</v>
       </c>
@@ -10061,7 +10072,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>980</v>
       </c>
@@ -10075,7 +10086,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>980</v>
       </c>
@@ -10089,7 +10100,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>980</v>
       </c>
@@ -10103,7 +10114,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>980</v>
       </c>
@@ -10117,7 +10128,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>980</v>
       </c>
@@ -10131,7 +10142,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>980</v>
       </c>
@@ -10145,7 +10156,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>980</v>
       </c>
@@ -10159,7 +10170,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>980</v>
       </c>
@@ -10173,7 +10184,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>980</v>
       </c>
@@ -10187,7 +10198,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>980</v>
       </c>
@@ -10201,7 +10212,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>980</v>
       </c>
@@ -10215,7 +10226,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>980</v>
       </c>
@@ -10229,7 +10240,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>980</v>
       </c>
@@ -10243,7 +10254,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>980</v>
       </c>
@@ -10257,7 +10268,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>980</v>
       </c>
@@ -10271,7 +10282,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>980</v>
       </c>
@@ -10285,7 +10296,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>980</v>
       </c>
@@ -10299,7 +10310,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>980</v>
       </c>
@@ -10313,7 +10324,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>980</v>
       </c>
@@ -10327,7 +10338,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>960</v>
       </c>
@@ -10341,7 +10352,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>960</v>
       </c>
@@ -10355,7 +10366,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>960</v>
       </c>
@@ -10369,7 +10380,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>960</v>
       </c>
@@ -10383,7 +10394,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>960</v>
       </c>
@@ -10397,7 +10408,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>960</v>
       </c>
@@ -10411,7 +10422,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>100</v>
       </c>
@@ -10425,7 +10436,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>990</v>
       </c>
@@ -10439,7 +10450,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>990</v>
       </c>
@@ -10453,7 +10464,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>990</v>
       </c>
@@ -10467,7 +10478,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>990</v>
       </c>
@@ -10481,7 +10492,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>990</v>
       </c>
@@ -10495,7 +10506,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>990</v>
       </c>
@@ -10509,7 +10520,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>990</v>
       </c>
@@ -10523,7 +10534,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>990</v>
       </c>
@@ -10537,7 +10548,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>990</v>
       </c>
@@ -10551,7 +10562,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>990</v>
       </c>
@@ -10565,7 +10576,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>990</v>
       </c>
@@ -10579,7 +10590,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>990</v>
       </c>
@@ -10593,7 +10604,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>990</v>
       </c>
@@ -10607,7 +10618,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>990</v>
       </c>
@@ -10621,7 +10632,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>990</v>
       </c>
@@ -10635,7 +10646,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>990</v>
       </c>
@@ -10649,7 +10660,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>990</v>
       </c>
@@ -10663,7 +10674,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>990</v>
       </c>
@@ -10677,7 +10688,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>990</v>
       </c>
@@ -10691,7 +10702,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>990</v>
       </c>
@@ -10705,7 +10716,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>990</v>
       </c>
@@ -10719,7 +10730,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>990</v>
       </c>
@@ -10733,7 +10744,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>990</v>
       </c>
@@ -10747,7 +10758,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>990</v>
       </c>
@@ -10761,7 +10772,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>990</v>
       </c>
@@ -10775,7 +10786,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>990</v>
       </c>
@@ -10789,7 +10800,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>990</v>
       </c>
@@ -10803,7 +10814,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>960</v>
       </c>
@@ -10817,7 +10828,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>960</v>
       </c>
@@ -10831,7 +10842,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>310</v>
       </c>
@@ -10845,7 +10856,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>310</v>
       </c>
@@ -10859,7 +10870,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>310</v>
       </c>
@@ -10873,7 +10884,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>310</v>
       </c>
@@ -10887,7 +10898,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>310</v>
       </c>
@@ -10901,7 +10912,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>310</v>
       </c>
@@ -10915,7 +10926,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>310</v>
       </c>
@@ -10929,7 +10940,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>310</v>
       </c>
@@ -10943,7 +10954,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>310</v>
       </c>
@@ -10957,7 +10968,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>310</v>
       </c>
@@ -10971,7 +10982,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>310</v>
       </c>
@@ -10985,7 +10996,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>310</v>
       </c>
@@ -10999,7 +11010,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>310</v>
       </c>
@@ -11013,7 +11024,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>310</v>
       </c>
@@ -11027,7 +11038,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>310</v>
       </c>
@@ -11041,7 +11052,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>310</v>
       </c>
@@ -11055,7 +11066,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>310</v>
       </c>
@@ -11069,7 +11080,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>310</v>
       </c>
@@ -11083,7 +11094,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>310</v>
       </c>
@@ -11097,7 +11108,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>310</v>
       </c>
@@ -11111,7 +11122,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>310</v>
       </c>
@@ -11125,7 +11136,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>310</v>
       </c>
@@ -11139,7 +11150,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>310</v>
       </c>
@@ -11153,7 +11164,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>310</v>
       </c>
@@ -11167,7 +11178,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>310</v>
       </c>
@@ -11181,7 +11192,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>310</v>
       </c>
@@ -11195,7 +11206,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>310</v>
       </c>
@@ -11209,7 +11220,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>310</v>
       </c>
@@ -11223,7 +11234,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>310</v>
       </c>
@@ -11237,7 +11248,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>310</v>
       </c>
@@ -11251,7 +11262,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>310</v>
       </c>
@@ -11265,7 +11276,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>310</v>
       </c>
@@ -11279,7 +11290,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>310</v>
       </c>
@@ -11293,7 +11304,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>310</v>
       </c>
@@ -11307,7 +11318,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>310</v>
       </c>
@@ -11321,7 +11332,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>310</v>
       </c>
@@ -11335,7 +11346,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>310</v>
       </c>
@@ -11349,7 +11360,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>310</v>
       </c>
@@ -11363,7 +11374,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>310</v>
       </c>
@@ -11377,7 +11388,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>310</v>
       </c>
@@ -11391,7 +11402,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>310</v>
       </c>
@@ -11405,7 +11416,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>310</v>
       </c>
@@ -11419,7 +11430,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>310</v>
       </c>
@@ -11433,7 +11444,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>310</v>
       </c>
@@ -11447,7 +11458,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>310</v>
       </c>
@@ -11461,7 +11472,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>310</v>
       </c>
@@ -11475,7 +11486,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>310</v>
       </c>
@@ -11489,7 +11500,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>310</v>
       </c>
@@ -11503,7 +11514,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>310</v>
       </c>
@@ -11517,7 +11528,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>310</v>
       </c>
@@ -11531,7 +11542,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>310</v>
       </c>
@@ -11545,7 +11556,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>310</v>
       </c>
@@ -11559,7 +11570,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>310</v>
       </c>
@@ -11573,7 +11584,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>310</v>
       </c>
@@ -11587,7 +11598,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>310</v>
       </c>
@@ -11601,7 +11612,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>310</v>
       </c>
@@ -11615,7 +11626,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>310</v>
       </c>
@@ -11629,7 +11640,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>310</v>
       </c>
@@ -11643,7 +11654,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>310</v>
       </c>
@@ -11657,7 +11668,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>310</v>
       </c>
@@ -11671,7 +11682,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>310</v>
       </c>
@@ -11685,7 +11696,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>310</v>
       </c>
@@ -11699,7 +11710,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>240</v>
       </c>
@@ -11713,7 +11724,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>240</v>
       </c>
@@ -11727,7 +11738,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>240</v>
       </c>
@@ -11741,7 +11752,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>240</v>
       </c>
@@ -11755,7 +11766,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>240</v>
       </c>
@@ -11769,7 +11780,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>940</v>
       </c>
@@ -11783,7 +11794,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>940</v>
       </c>
@@ -11797,7 +11808,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>940</v>
       </c>
@@ -11811,7 +11822,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>940</v>
       </c>
@@ -11825,7 +11836,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>940</v>
       </c>
@@ -11839,7 +11850,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>410</v>
       </c>
@@ -11853,7 +11864,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>410</v>
       </c>
@@ -11867,7 +11878,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>410</v>
       </c>
@@ -11881,7 +11892,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>410</v>
       </c>
@@ -11895,7 +11906,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>410</v>
       </c>
@@ -11909,7 +11920,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>410</v>
       </c>
@@ -11923,7 +11934,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>410</v>
       </c>
@@ -11937,7 +11948,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>410</v>
       </c>
@@ -11951,7 +11962,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>999</v>
       </c>
@@ -11965,7 +11976,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>999</v>
       </c>
@@ -11979,7 +11990,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>999</v>
       </c>
@@ -11993,7 +12004,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>999</v>
       </c>
@@ -12007,7 +12018,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>999</v>
       </c>
@@ -12021,7 +12032,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>999</v>
       </c>
@@ -12035,7 +12046,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>999</v>
       </c>
@@ -12049,7 +12060,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>999</v>
       </c>
@@ -12063,7 +12074,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>999</v>
       </c>
@@ -12077,7 +12088,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>999</v>
       </c>
@@ -12091,7 +12102,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>999</v>
       </c>
@@ -12105,7 +12116,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>999</v>
       </c>
@@ -12119,7 +12130,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>999</v>
       </c>
@@ -12133,7 +12144,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>999</v>
       </c>
@@ -12147,7 +12158,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>999</v>
       </c>
@@ -12161,7 +12172,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>999</v>
       </c>
@@ -12175,7 +12186,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>999</v>
       </c>
@@ -12189,7 +12200,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>999</v>
       </c>
@@ -12203,7 +12214,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>999</v>
       </c>
@@ -12217,7 +12228,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>999</v>
       </c>
@@ -12231,7 +12242,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>999</v>
       </c>
@@ -12245,7 +12256,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>999</v>
       </c>
@@ -12259,7 +12270,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>999</v>
       </c>
@@ -12273,7 +12284,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>999</v>
       </c>
@@ -12287,7 +12298,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>999</v>
       </c>
@@ -12301,7 +12312,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>999</v>
       </c>
@@ -12315,7 +12326,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>999</v>
       </c>
@@ -12329,7 +12340,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>999</v>
       </c>
@@ -12343,7 +12354,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>999</v>
       </c>
@@ -12357,7 +12368,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>999</v>
       </c>
@@ -12371,7 +12382,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>999</v>
       </c>
@@ -12385,7 +12396,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>999</v>
       </c>
@@ -12399,7 +12410,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>999</v>
       </c>
@@ -12413,7 +12424,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>999</v>
       </c>
@@ -12427,7 +12438,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>999</v>
       </c>
@@ -12441,7 +12452,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>999</v>
       </c>
@@ -12455,7 +12466,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>999</v>
       </c>
@@ -12469,7 +12480,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>999</v>
       </c>
@@ -12483,7 +12494,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>999</v>
       </c>
@@ -12497,7 +12508,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>999</v>
       </c>
@@ -12511,7 +12522,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>999</v>
       </c>
@@ -12525,7 +12536,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>999</v>
       </c>
@@ -12539,7 +12550,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>999</v>
       </c>
@@ -12553,7 +12564,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>999</v>
       </c>
@@ -12567,7 +12578,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>999</v>
       </c>
@@ -12581,7 +12592,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>999</v>
       </c>
@@ -12595,7 +12606,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>999</v>
       </c>
@@ -12609,7 +12620,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>999</v>
       </c>
@@ -12623,7 +12634,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>999</v>
       </c>
@@ -12637,7 +12648,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>999</v>
       </c>
@@ -12651,7 +12662,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>999</v>
       </c>
@@ -12665,7 +12676,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>999</v>
       </c>
@@ -12679,7 +12690,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>999</v>
       </c>
@@ -12693,7 +12704,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>999</v>
       </c>
@@ -12707,7 +12718,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>999</v>
       </c>
@@ -12721,7 +12732,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>400</v>
       </c>
@@ -12735,7 +12746,7 @@
         <v>20190702</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>900</v>
       </c>
@@ -12749,7 +12760,7 @@
         <v>20190702</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>998</v>
       </c>
@@ -12763,7 +12774,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>998</v>
       </c>
@@ -12777,7 +12788,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>998</v>
       </c>
@@ -12791,7 +12802,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>998</v>
       </c>
@@ -12805,7 +12816,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>998</v>
       </c>
@@ -12819,7 +12830,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>998</v>
       </c>
@@ -12833,7 +12844,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>998</v>
       </c>
@@ -12847,7 +12858,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>998</v>
       </c>
@@ -12861,7 +12872,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>998</v>
       </c>
@@ -12875,7 +12886,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>998</v>
       </c>
@@ -12889,7 +12900,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>998</v>
       </c>
@@ -12903,7 +12914,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>998</v>
       </c>
@@ -12917,7 +12928,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>998</v>
       </c>
@@ -12948,15 +12959,15 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>226</v>
       </c>
@@ -12970,7 +12981,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -12984,7 +12995,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -12998,7 +13009,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>200</v>
       </c>
@@ -13012,7 +13023,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>200</v>
       </c>
@@ -13026,7 +13037,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>200</v>
       </c>
@@ -13040,7 +13051,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>200</v>
       </c>
@@ -13054,7 +13065,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>200</v>
       </c>
@@ -13068,7 +13079,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>200</v>
       </c>
@@ -13082,7 +13093,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>200</v>
       </c>
@@ -13096,7 +13107,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>200</v>
       </c>
@@ -13110,7 +13121,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>200</v>
       </c>
@@ -13124,7 +13135,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>200</v>
       </c>
@@ -13138,7 +13149,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>200</v>
       </c>
@@ -13152,7 +13163,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>200</v>
       </c>
@@ -13166,7 +13177,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>200</v>
       </c>
@@ -13180,7 +13191,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>200</v>
       </c>
@@ -13194,7 +13205,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>200</v>
       </c>
@@ -13208,7 +13219,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>200</v>
       </c>
@@ -13222,7 +13233,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>200</v>
       </c>
@@ -13236,7 +13247,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>200</v>
       </c>
@@ -13250,7 +13261,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>200</v>
       </c>
@@ -13264,7 +13275,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>200</v>
       </c>
@@ -13278,7 +13289,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>300</v>
       </c>
@@ -13292,7 +13303,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>300</v>
       </c>
@@ -13306,7 +13317,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>300</v>
       </c>
@@ -13320,7 +13331,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>300</v>
       </c>
@@ -13334,7 +13345,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>300</v>
       </c>
@@ -13348,7 +13359,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>300</v>
       </c>
@@ -13362,7 +13373,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>300</v>
       </c>
@@ -13376,7 +13387,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>300</v>
       </c>
@@ -13390,7 +13401,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>300</v>
       </c>
@@ -13404,7 +13415,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>300</v>
       </c>
@@ -13418,7 +13429,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>300</v>
       </c>
@@ -13432,7 +13443,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>300</v>
       </c>
@@ -13446,7 +13457,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>300</v>
       </c>
@@ -13460,7 +13471,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>300</v>
       </c>
@@ -13474,7 +13485,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>300</v>
       </c>
@@ -13488,7 +13499,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>300</v>
       </c>
@@ -13502,7 +13513,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>300</v>
       </c>
@@ -13516,7 +13527,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>300</v>
       </c>
@@ -13530,7 +13541,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>300</v>
       </c>
@@ -13544,7 +13555,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>600</v>
       </c>
@@ -13558,7 +13569,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>600</v>
       </c>
@@ -13572,7 +13583,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>300</v>
       </c>
@@ -13586,7 +13597,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>300</v>
       </c>
@@ -13600,7 +13611,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>600</v>
       </c>
@@ -13614,7 +13625,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>600</v>
       </c>
@@ -13628,7 +13639,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>300</v>
       </c>
@@ -13642,7 +13653,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>600</v>
       </c>
@@ -13656,7 +13667,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>400</v>
       </c>
@@ -13670,7 +13681,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>400</v>
       </c>
@@ -13684,7 +13695,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>400</v>
       </c>
@@ -13698,7 +13709,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>400</v>
       </c>
@@ -13712,7 +13723,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>400</v>
       </c>
@@ -13726,7 +13737,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>400</v>
       </c>
@@ -13740,7 +13751,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>400</v>
       </c>
@@ -13754,7 +13765,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>400</v>
       </c>
@@ -13768,7 +13779,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>400</v>
       </c>
@@ -13782,7 +13793,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>400</v>
       </c>
@@ -13796,7 +13807,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>400</v>
       </c>
@@ -13810,7 +13821,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>400</v>
       </c>
@@ -13824,7 +13835,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>400</v>
       </c>
@@ -13838,7 +13849,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>400</v>
       </c>
@@ -13852,7 +13863,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>400</v>
       </c>
@@ -13866,7 +13877,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>400</v>
       </c>
@@ -13880,7 +13891,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>400</v>
       </c>
@@ -13894,7 +13905,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>400</v>
       </c>
@@ -13908,7 +13919,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>400</v>
       </c>
@@ -13922,7 +13933,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>400</v>
       </c>
@@ -13936,7 +13947,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>400</v>
       </c>
@@ -13950,7 +13961,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>400</v>
       </c>
@@ -13964,7 +13975,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>400</v>
       </c>
@@ -13978,7 +13989,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>400</v>
       </c>
@@ -13992,7 +14003,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>400</v>
       </c>
@@ -14006,7 +14017,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>400</v>
       </c>
@@ -14020,7 +14031,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>400</v>
       </c>
@@ -14034,7 +14045,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>400</v>
       </c>
@@ -14048,7 +14059,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>400</v>
       </c>
@@ -14062,7 +14073,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>400</v>
       </c>
@@ -14076,7 +14087,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>400</v>
       </c>
@@ -14090,7 +14101,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>400</v>
       </c>
@@ -14104,7 +14115,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>500</v>
       </c>
@@ -14118,7 +14129,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>500</v>
       </c>
@@ -14132,7 +14143,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>500</v>
       </c>
@@ -14146,7 +14157,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>500</v>
       </c>
@@ -14160,7 +14171,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>500</v>
       </c>
@@ -14174,7 +14185,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>500</v>
       </c>
@@ -14188,7 +14199,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>500</v>
       </c>
@@ -14202,7 +14213,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>500</v>
       </c>
@@ -14216,7 +14227,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>500</v>
       </c>
@@ -14230,7 +14241,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>500</v>
       </c>
@@ -14244,7 +14255,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>500</v>
       </c>
@@ -14258,7 +14269,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>500</v>
       </c>
@@ -14272,7 +14283,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>500</v>
       </c>
@@ -14286,7 +14297,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>600</v>
       </c>
@@ -14300,7 +14311,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>600</v>
       </c>
@@ -14314,7 +14325,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>600</v>
       </c>
@@ -14328,7 +14339,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>600</v>
       </c>
@@ -14342,7 +14353,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>600</v>
       </c>
@@ -14356,7 +14367,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>600</v>
       </c>
@@ -14370,7 +14381,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>600</v>
       </c>
@@ -14384,7 +14395,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>600</v>
       </c>
@@ -14398,7 +14409,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>600</v>
       </c>
@@ -14412,7 +14423,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>600</v>
       </c>
@@ -14426,7 +14437,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>600</v>
       </c>
@@ -14440,7 +14451,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>600</v>
       </c>
@@ -14454,7 +14465,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>600</v>
       </c>
@@ -14468,7 +14479,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>600</v>
       </c>
@@ -14482,7 +14493,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>600</v>
       </c>
@@ -14496,7 +14507,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>600</v>
       </c>
@@ -14510,7 +14521,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>600</v>
       </c>
@@ -14524,7 +14535,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>600</v>
       </c>
@@ -14538,7 +14549,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>600</v>
       </c>
@@ -14552,7 +14563,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>600</v>
       </c>
@@ -14566,7 +14577,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>600</v>
       </c>
@@ -14580,7 +14591,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>600</v>
       </c>
@@ -14594,7 +14605,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>600</v>
       </c>
@@ -14608,7 +14619,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>600</v>
       </c>
@@ -14622,7 +14633,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>700</v>
       </c>
@@ -14636,7 +14647,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>700</v>
       </c>
@@ -14650,7 +14661,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>700</v>
       </c>
@@ -14664,7 +14675,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>700</v>
       </c>
@@ -14678,7 +14689,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>700</v>
       </c>
@@ -14692,7 +14703,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>700</v>
       </c>
@@ -14706,7 +14717,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>700</v>
       </c>
@@ -14720,7 +14731,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>700</v>
       </c>
@@ -14734,7 +14745,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>700</v>
       </c>
@@ -14748,7 +14759,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>700</v>
       </c>
@@ -14762,7 +14773,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>700</v>
       </c>
@@ -14776,7 +14787,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>700</v>
       </c>
@@ -14790,7 +14801,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>700</v>
       </c>
@@ -14804,7 +14815,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>700</v>
       </c>
@@ -14818,7 +14829,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>700</v>
       </c>
@@ -14832,7 +14843,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>700</v>
       </c>
@@ -14846,7 +14857,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>700</v>
       </c>
@@ -14860,7 +14871,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>700</v>
       </c>
@@ -14874,7 +14885,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>700</v>
       </c>
@@ -14888,7 +14899,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>700</v>
       </c>
@@ -14902,7 +14913,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>700</v>
       </c>
@@ -14916,7 +14927,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>700</v>
       </c>
@@ -14930,7 +14941,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>700</v>
       </c>
@@ -14944,7 +14955,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>700</v>
       </c>
@@ -14958,7 +14969,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>700</v>
       </c>
@@ -14972,7 +14983,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>700</v>
       </c>
@@ -14986,7 +14997,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>700</v>
       </c>
@@ -15000,7 +15011,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>700</v>
       </c>
@@ -15014,7 +15025,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>700</v>
       </c>
@@ -15028,7 +15039,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>700</v>
       </c>
@@ -15042,7 +15053,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>700</v>
       </c>
@@ -15056,7 +15067,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>700</v>
       </c>
@@ -15070,7 +15081,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>700</v>
       </c>
@@ -15084,7 +15095,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>700</v>
       </c>
@@ -15098,7 +15109,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>700</v>
       </c>
@@ -15112,7 +15123,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>700</v>
       </c>
@@ -15126,7 +15137,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>700</v>
       </c>
@@ -15140,7 +15151,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>700</v>
       </c>
@@ -15154,7 +15165,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>700</v>
       </c>
@@ -15168,7 +15179,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>700</v>
       </c>
@@ -15182,7 +15193,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>700</v>
       </c>
@@ -15196,7 +15207,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>700</v>
       </c>
@@ -15210,7 +15221,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>700</v>
       </c>
@@ -15224,7 +15235,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>700</v>
       </c>
@@ -15238,7 +15249,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>700</v>
       </c>
@@ -15252,7 +15263,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>700</v>
       </c>
@@ -15266,7 +15277,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>700</v>
       </c>
@@ -15280,7 +15291,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>700</v>
       </c>
@@ -15294,7 +15305,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>700</v>
       </c>
@@ -15308,7 +15319,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>700</v>
       </c>
@@ -15322,7 +15333,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>700</v>
       </c>
@@ -15336,7 +15347,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>600</v>
       </c>
@@ -15350,7 +15361,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>800</v>
       </c>
@@ -15364,7 +15375,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>800</v>
       </c>
@@ -15378,7 +15389,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>800</v>
       </c>
@@ -15392,7 +15403,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>800</v>
       </c>
@@ -15406,7 +15417,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>800</v>
       </c>
@@ -15420,7 +15431,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>800</v>
       </c>
@@ -15434,7 +15445,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>800</v>
       </c>
@@ -15448,7 +15459,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>800</v>
       </c>
@@ -15462,7 +15473,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>800</v>
       </c>
@@ -15476,7 +15487,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>800</v>
       </c>
@@ -15490,7 +15501,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>800</v>
       </c>
@@ -15504,7 +15515,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>800</v>
       </c>
@@ -15518,7 +15529,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>800</v>
       </c>
@@ -15532,7 +15543,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>800</v>
       </c>
@@ -15546,7 +15557,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>800</v>
       </c>
@@ -15560,7 +15571,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>600</v>
       </c>
@@ -15574,7 +15585,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>200</v>
       </c>
@@ -15588,7 +15599,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>700</v>
       </c>
@@ -15602,7 +15613,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>100</v>
       </c>
@@ -15616,7 +15627,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>300</v>
       </c>
@@ -15630,7 +15641,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>200</v>
       </c>
@@ -15644,7 +15655,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>500</v>
       </c>
@@ -15658,7 +15669,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>600</v>
       </c>
@@ -15672,7 +15683,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>800</v>
       </c>
@@ -15686,7 +15697,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>800</v>
       </c>
@@ -15700,7 +15711,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>800</v>
       </c>
@@ -15714,7 +15725,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>800</v>
       </c>
@@ -15728,7 +15739,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>800</v>
       </c>
@@ -15742,7 +15753,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>200</v>
       </c>
@@ -15756,7 +15767,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -15770,7 +15781,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>200</v>
       </c>
@@ -15784,7 +15795,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>700</v>
       </c>
@@ -15798,7 +15809,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>700</v>
       </c>
@@ -15812,7 +15823,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>100</v>
       </c>
@@ -15826,7 +15837,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>200</v>
       </c>
@@ -15840,7 +15851,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>200</v>
       </c>
@@ -15854,7 +15865,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>400</v>
       </c>
@@ -15868,7 +15879,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>800</v>
       </c>
@@ -15882,7 +15893,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>200</v>
       </c>
@@ -15896,7 +15907,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>300</v>
       </c>
@@ -15910,7 +15921,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>300</v>
       </c>
@@ -15924,7 +15935,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>700</v>
       </c>
@@ -15938,7 +15949,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>900</v>
       </c>
@@ -15952,7 +15963,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>900</v>
       </c>
@@ -15966,7 +15977,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>900</v>
       </c>
@@ -15980,7 +15991,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>900</v>
       </c>
@@ -15994,7 +16005,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>900</v>
       </c>
@@ -16008,7 +16019,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>900</v>
       </c>
@@ -16022,7 +16033,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>900</v>
       </c>
@@ -16036,7 +16047,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>900</v>
       </c>
@@ -16050,7 +16061,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>900</v>
       </c>
@@ -16064,7 +16075,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>900</v>
       </c>
@@ -16078,7 +16089,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>900</v>
       </c>
@@ -16092,7 +16103,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>900</v>
       </c>
@@ -16106,7 +16117,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>900</v>
       </c>
@@ -16120,7 +16131,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>900</v>
       </c>
@@ -16134,7 +16145,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>900</v>
       </c>
@@ -16148,7 +16159,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>900</v>
       </c>
@@ -16162,7 +16173,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>900</v>
       </c>
@@ -16176,7 +16187,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>900</v>
       </c>
@@ -16190,7 +16201,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>900</v>
       </c>
@@ -16204,7 +16215,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>900</v>
       </c>
@@ -16218,7 +16229,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>900</v>
       </c>
@@ -16232,7 +16243,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>900</v>
       </c>
@@ -16246,7 +16257,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>900</v>
       </c>
@@ -16260,7 +16271,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>900</v>
       </c>
@@ -16274,7 +16285,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>900</v>
       </c>
@@ -16288,7 +16299,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>900</v>
       </c>
@@ -16302,7 +16313,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>900</v>
       </c>
@@ -16316,7 +16327,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>900</v>
       </c>
@@ -16330,7 +16341,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>900</v>
       </c>
@@ -16344,7 +16355,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>900</v>
       </c>
@@ -16358,7 +16369,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>900</v>
       </c>
@@ -16372,7 +16383,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>900</v>
       </c>
@@ -16386,7 +16397,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>900</v>
       </c>
@@ -16400,7 +16411,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>900</v>
       </c>
@@ -16414,7 +16425,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>900</v>
       </c>
@@ -16428,7 +16439,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>900</v>
       </c>
@@ -16442,7 +16453,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>900</v>
       </c>
@@ -16456,7 +16467,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>900</v>
       </c>
@@ -16470,7 +16481,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>900</v>
       </c>
@@ -16484,7 +16495,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>900</v>
       </c>
@@ -16498,7 +16509,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>900</v>
       </c>
@@ -16512,7 +16523,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>900</v>
       </c>
@@ -16526,7 +16537,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>900</v>
       </c>
@@ -16540,7 +16551,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>900</v>
       </c>
@@ -16554,7 +16565,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>900</v>
       </c>
@@ -16568,7 +16579,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>900</v>
       </c>
@@ -16582,7 +16593,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>900</v>
       </c>
@@ -16596,7 +16607,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>900</v>
       </c>
@@ -16610,7 +16621,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>900</v>
       </c>
@@ -16624,7 +16635,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>900</v>
       </c>
@@ -16638,7 +16649,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>900</v>
       </c>
@@ -16652,7 +16663,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>900</v>
       </c>
@@ -16666,7 +16677,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>900</v>
       </c>
@@ -16680,7 +16691,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>600</v>
       </c>

--- a/metadata/geography.xlsx
+++ b/metadata/geography.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\tradestat_formal\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A2B172-AE12-4954-A00C-965AF30099ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4F3380-9306-467D-BDF0-F791B600B480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1455" windowWidth="21585" windowHeight="14745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="855" windowWidth="21585" windowHeight="14745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="area" sheetId="1" r:id="rId1"/>
@@ -3248,9 +3248,6 @@
     </r>
   </si>
   <si>
-    <t>MAINLAND CHINA</t>
-  </si>
-  <si>
     <t>中國內地</t>
   </si>
   <si>
@@ -3258,6 +3255,10 @@
   </si>
   <si>
     <t>ADJUST_DATE</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHINESE MAINLAND (MAINLAND CHINA)</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -3877,14 +3878,15 @@
   <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F120" sqref="F120"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F216" sqref="F216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -3908,7 +3910,7 @@
         <v>248</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5922,10 +5924,10 @@
         <v>631</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>488</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>489</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>222</v>
@@ -7433,7 +7435,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>892</v>
       </c>
@@ -7450,7 +7452,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>894</v>
       </c>
@@ -7467,7 +7469,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>895</v>
       </c>
@@ -7484,7 +7486,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>896</v>
       </c>
@@ -7501,7 +7503,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>897</v>
       </c>
@@ -7518,12 +7520,12 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>900</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>470</v>
@@ -7534,8 +7536,11 @@
       <c r="E214" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F214" s="3">
+        <v>20191205</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>695</v>
       </c>

--- a/metadata/geography.xlsx
+++ b/metadata/geography.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\tradestat_formal\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viwong\Desktop\tradestat_formal\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4F3380-9306-467D-BDF0-F791B600B480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC61425D-7114-48A1-9917-0F2FB26F9E1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="855" windowWidth="21585" windowHeight="14745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="1305" windowWidth="21675" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="area" sheetId="1" r:id="rId1"/>
@@ -133,9 +133,6 @@
     <t>SERBIA/MONTENEGRO</t>
   </si>
   <si>
-    <t>MACEDONIA</t>
-  </si>
-  <si>
     <t>ESTONIA</t>
   </si>
   <si>
@@ -1194,16 +1191,6 @@
         <family val="2"/>
       </rPr>
       <t>塞爾維亞和黑山</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="MS Sans Serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>馬其頓</t>
     </r>
   </si>
   <si>
@@ -3260,6 +3247,12 @@
   <si>
     <t>CHINESE MAINLAND (MAINLAND CHINA)</t>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORTH MACEDONIA</t>
+  </si>
+  <si>
+    <t>北馬其頓</t>
   </si>
 </sst>
 </file>
@@ -3296,7 +3289,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3306,6 +3299,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3322,7 +3321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3336,9 +3335,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3354,7 +3356,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3677,8 +3679,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3692,20 +3694,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3716,10 +3718,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E2" s="3">
         <v>20190101</v>
@@ -3733,10 +3735,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" s="3">
         <v>20190101</v>
@@ -3747,13 +3749,13 @@
         <v>300</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E4" s="3">
         <v>20190101</v>
@@ -3767,10 +3769,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E5" s="3">
         <v>20190101</v>
@@ -3784,10 +3786,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E6" s="3">
         <v>20190101</v>
@@ -3801,10 +3803,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E7" s="3">
         <v>20190101</v>
@@ -3818,10 +3820,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="3">
         <v>20190101</v>
@@ -3835,10 +3837,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E9" s="3">
         <v>20190101</v>
@@ -3849,13 +3851,13 @@
         <v>900</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E10" s="3">
         <v>20190101</v>
@@ -3877,9 +3879,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F216" sqref="F216"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3894,23 +3896,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3918,13 +3920,13 @@
         <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E2" s="3">
         <v>20190101</v>
@@ -3935,13 +3937,13 @@
         <v>181</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" s="3">
         <v>20190101</v>
@@ -3955,10 +3957,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E4" s="3">
         <v>20190101</v>
@@ -3969,13 +3971,13 @@
         <v>199</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E5" s="3">
         <v>20190101</v>
@@ -3989,10 +3991,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E6" s="3">
         <v>20190101</v>
@@ -4006,10 +4008,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E7" s="3">
         <v>20190101</v>
@@ -4023,10 +4025,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="3">
         <v>20190101</v>
@@ -4040,10 +4042,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E9" s="3">
         <v>20190101</v>
@@ -4057,10 +4059,10 @@
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E10" s="3">
         <v>20190101</v>
@@ -4074,10 +4076,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E11" s="3">
         <v>20190101</v>
@@ -4091,10 +4093,10 @@
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E12" s="3">
         <v>20190101</v>
@@ -4105,13 +4107,13 @@
         <v>218</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" s="3">
         <v>20190101</v>
@@ -4122,13 +4124,13 @@
         <v>219</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E14" s="3">
         <v>20190101</v>
@@ -4142,10 +4144,10 @@
         <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E15" s="3">
         <v>20190101</v>
@@ -4159,10 +4161,10 @@
         <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E16" s="3">
         <v>20190101</v>
@@ -4176,10 +4178,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E17" s="3">
         <v>20190101</v>
@@ -4193,10 +4195,10 @@
         <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E18" s="3">
         <v>20190101</v>
@@ -4210,10 +4212,10 @@
         <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E19" s="3">
         <v>20190101</v>
@@ -4224,13 +4226,13 @@
         <v>226</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E20" s="3">
         <v>20190101</v>
@@ -4241,13 +4243,13 @@
         <v>227</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E21" s="3">
         <v>20190101</v>
@@ -4258,13 +4260,13 @@
         <v>228</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E22" s="3">
         <v>20190101</v>
@@ -4275,13 +4277,13 @@
         <v>229</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E23" s="3">
         <v>20190101</v>
@@ -4295,10 +4297,10 @@
         <v>24</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E24" s="3">
         <v>20190101</v>
@@ -4312,10 +4314,10 @@
         <v>25</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E25" s="3">
         <v>20190101</v>
@@ -4329,10 +4331,10 @@
         <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E26" s="3">
         <v>20190101</v>
@@ -4346,10 +4348,10 @@
         <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E27" s="3">
         <v>20190101</v>
@@ -4363,10 +4365,10 @@
         <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E28" s="3">
         <v>20190101</v>
@@ -4380,10 +4382,10 @@
         <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E29" s="3">
         <v>20190101</v>
@@ -4397,10 +4399,10 @@
         <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E30" s="3">
         <v>20190101</v>
@@ -4414,10 +4416,10 @@
         <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E31" s="3">
         <v>20190101</v>
@@ -4431,10 +4433,10 @@
         <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E32" s="3">
         <v>20190101</v>
@@ -4445,16 +4447,16 @@
         <v>245</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>290</v>
+        <v>490</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E33" s="3">
-        <v>20190101</v>
+        <v>20200221</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
@@ -4462,13 +4464,13 @@
         <v>246</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E34" s="3">
         <v>20190101</v>
@@ -4479,13 +4481,13 @@
         <v>247</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E35" s="3">
         <v>20190101</v>
@@ -4496,13 +4498,13 @@
         <v>251</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E36" s="3">
         <v>20190101</v>
@@ -4513,13 +4515,13 @@
         <v>252</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E37" s="3">
         <v>20190101</v>
@@ -4530,13 +4532,13 @@
         <v>253</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E38" s="3">
         <v>20190101</v>
@@ -4547,13 +4549,13 @@
         <v>292</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E39" s="3">
         <v>20190101</v>
@@ -4564,13 +4566,13 @@
         <v>293</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E40" s="3">
         <v>20190101</v>
@@ -4581,13 +4583,13 @@
         <v>294</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E41" s="3">
         <v>20190101</v>
@@ -4598,13 +4600,13 @@
         <v>299</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E42" s="3">
         <v>20190101</v>
@@ -4615,13 +4617,13 @@
         <v>312</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E43" s="3">
         <v>20190101</v>
@@ -4632,13 +4634,13 @@
         <v>313</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E44" s="3">
         <v>20190101</v>
@@ -4649,13 +4651,13 @@
         <v>314</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E45" s="3">
         <v>20190101</v>
@@ -4666,13 +4668,13 @@
         <v>315</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E46" s="3">
         <v>20190101</v>
@@ -4683,13 +4685,13 @@
         <v>316</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E47" s="3">
         <v>20190101</v>
@@ -4700,13 +4702,13 @@
         <v>317</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E48" s="3">
         <v>20190101</v>
@@ -4717,13 +4719,13 @@
         <v>318</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E49" s="3">
         <v>20190101</v>
@@ -4734,13 +4736,13 @@
         <v>321</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E50" s="3">
         <v>20190101</v>
@@ -4751,13 +4753,13 @@
         <v>322</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E51" s="3">
         <v>20190101</v>
@@ -4768,13 +4770,13 @@
         <v>323</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E52" s="2">
         <v>20190313</v>
@@ -4785,13 +4787,13 @@
         <v>325</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E53" s="3">
         <v>20190101</v>
@@ -4802,13 +4804,13 @@
         <v>326</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E54" s="3">
         <v>20190101</v>
@@ -4819,13 +4821,13 @@
         <v>327</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E55" s="3">
         <v>20190101</v>
@@ -4836,13 +4838,13 @@
         <v>330</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E56" s="3">
         <v>20190101</v>
@@ -4853,13 +4855,13 @@
         <v>331</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E57" s="3">
         <v>20190101</v>
@@ -4870,13 +4872,13 @@
         <v>332</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E58" s="3">
         <v>20190101</v>
@@ -4887,13 +4889,13 @@
         <v>333</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E59" s="3">
         <v>20190101</v>
@@ -4904,13 +4906,13 @@
         <v>334</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E60" s="3">
         <v>20190101</v>
@@ -4921,13 +4923,13 @@
         <v>335</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E61" s="3">
         <v>20190101</v>
@@ -4938,13 +4940,13 @@
         <v>399</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E62" s="3">
         <v>20190101</v>
@@ -4955,13 +4957,13 @@
         <v>411</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E63" s="3">
         <v>20190101</v>
@@ -4972,13 +4974,13 @@
         <v>412</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E64" s="3">
         <v>20190101</v>
@@ -4989,13 +4991,13 @@
         <v>413</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E65" s="3">
         <v>20190101</v>
@@ -5006,13 +5008,13 @@
         <v>414</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E66" s="3">
         <v>20190101</v>
@@ -5023,13 +5025,13 @@
         <v>415</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E67" s="3">
         <v>20190101</v>
@@ -5040,13 +5042,13 @@
         <v>416</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E68" s="3">
         <v>20190101</v>
@@ -5057,13 +5059,13 @@
         <v>417</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E69" s="3">
         <v>20190101</v>
@@ -5074,13 +5076,13 @@
         <v>418</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E70" s="3">
         <v>20190101</v>
@@ -5091,13 +5093,13 @@
         <v>419</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E71" s="3">
         <v>20190101</v>
@@ -5108,13 +5110,13 @@
         <v>421</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E72" s="3">
         <v>20190101</v>
@@ -5125,13 +5127,13 @@
         <v>423</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E73" s="3">
         <v>20190101</v>
@@ -5142,13 +5144,13 @@
         <v>424</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E74" s="3">
         <v>20190101</v>
@@ -5159,13 +5161,13 @@
         <v>425</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E75" s="3">
         <v>20190101</v>
@@ -5176,13 +5178,13 @@
         <v>426</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E76" s="3">
         <v>20190101</v>
@@ -5193,13 +5195,13 @@
         <v>427</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E77" s="3">
         <v>20190101</v>
@@ -5210,13 +5212,13 @@
         <v>428</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E78" s="3">
         <v>20190101</v>
@@ -5227,13 +5229,13 @@
         <v>429</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E79" s="3">
         <v>20190101</v>
@@ -5244,13 +5246,13 @@
         <v>431</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E80" s="3">
         <v>20190101</v>
@@ -5261,13 +5263,13 @@
         <v>432</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E81" s="3">
         <v>20190101</v>
@@ -5278,13 +5280,13 @@
         <v>433</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E82" s="3">
         <v>20190101</v>
@@ -5295,13 +5297,13 @@
         <v>441</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E83" s="3">
         <v>20190101</v>
@@ -5312,13 +5314,13 @@
         <v>442</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E84" s="3">
         <v>20190101</v>
@@ -5329,13 +5331,13 @@
         <v>443</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E85" s="3">
         <v>20190101</v>
@@ -5346,13 +5348,13 @@
         <v>451</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E86" s="3">
         <v>20190101</v>
@@ -5363,13 +5365,13 @@
         <v>491</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E87" s="3">
         <v>20190101</v>
@@ -5380,13 +5382,13 @@
         <v>492</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E88" s="3">
         <v>20190101</v>
@@ -5397,13 +5399,13 @@
         <v>493</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E89" s="3">
         <v>20190101</v>
@@ -5414,13 +5416,13 @@
         <v>494</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E90" s="3">
         <v>20190101</v>
@@ -5431,13 +5433,13 @@
         <v>495</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E91" s="3">
         <v>20190101</v>
@@ -5448,13 +5450,13 @@
         <v>496</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E92" s="3">
         <v>20190101</v>
@@ -5465,13 +5467,13 @@
         <v>497</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E93" s="3">
         <v>20190101</v>
@@ -5482,13 +5484,13 @@
         <v>498</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E94" s="3">
         <v>20190101</v>
@@ -5499,13 +5501,13 @@
         <v>499</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E95" s="3">
         <v>20190101</v>
@@ -5516,13 +5518,13 @@
         <v>511</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E96" s="3">
         <v>20190101</v>
@@ -5533,13 +5535,13 @@
         <v>513</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E97" s="3">
         <v>20190101</v>
@@ -5550,13 +5552,13 @@
         <v>514</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E98" s="3">
         <v>20190101</v>
@@ -5567,13 +5569,13 @@
         <v>515</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E99" s="3">
         <v>20190101</v>
@@ -5584,13 +5586,13 @@
         <v>516</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E100" s="3">
         <v>20190101</v>
@@ -5601,13 +5603,13 @@
         <v>517</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E101" s="3">
         <v>20190101</v>
@@ -5618,13 +5620,13 @@
         <v>518</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E102" s="3">
         <v>20190101</v>
@@ -5635,13 +5637,13 @@
         <v>519</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E103" s="3">
         <v>20190101</v>
@@ -5652,13 +5654,13 @@
         <v>521</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E104" s="3">
         <v>20190101</v>
@@ -5669,13 +5671,13 @@
         <v>522</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E105" s="3">
         <v>20190101</v>
@@ -5686,13 +5688,13 @@
         <v>523</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E106" s="3">
         <v>20190101</v>
@@ -5703,13 +5705,13 @@
         <v>524</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E107" s="3">
         <v>20190101</v>
@@ -5720,13 +5722,13 @@
         <v>592</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E108" s="3">
         <v>20190101</v>
@@ -5737,13 +5739,13 @@
         <v>599</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E109" s="3">
         <v>20190101</v>
@@ -5754,13 +5756,13 @@
         <v>611</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E110" s="3">
         <v>20190101</v>
@@ -5771,13 +5773,13 @@
         <v>612</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E111" s="3">
         <v>20190101</v>
@@ -5788,13 +5790,13 @@
         <v>613</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E112" s="3">
         <v>20190101</v>
@@ -5805,13 +5807,13 @@
         <v>614</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E113" s="3">
         <v>20190101</v>
@@ -5822,13 +5824,13 @@
         <v>615</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E114" s="3">
         <v>20190101</v>
@@ -5839,13 +5841,13 @@
         <v>616</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E115" s="3">
         <v>20190101</v>
@@ -5856,13 +5858,13 @@
         <v>617</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E116" s="3">
         <v>20190101</v>
@@ -5873,13 +5875,13 @@
         <v>619</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E117" s="3">
         <v>20190101</v>
@@ -5890,13 +5892,13 @@
         <v>621</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E118" s="3">
         <v>20190101</v>
@@ -5907,13 +5909,13 @@
         <v>622</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E119" s="3">
         <v>20190101</v>
@@ -5924,13 +5926,13 @@
         <v>631</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E120" s="3">
         <v>20190101</v>
@@ -5944,13 +5946,13 @@
         <v>632</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E121" s="3">
         <v>20190101</v>
@@ -5961,13 +5963,13 @@
         <v>633</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E122" s="3">
         <v>20190101</v>
@@ -5978,13 +5980,13 @@
         <v>641</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E123" s="3">
         <v>20190101</v>
@@ -5995,13 +5997,13 @@
         <v>642</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E124" s="3">
         <v>20190101</v>
@@ -6012,13 +6014,13 @@
         <v>643</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E125" s="3">
         <v>20190101</v>
@@ -6029,13 +6031,13 @@
         <v>644</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E126" s="3">
         <v>20190101</v>
@@ -6046,13 +6048,13 @@
         <v>645</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E127" s="3">
         <v>20190101</v>
@@ -6063,13 +6065,13 @@
         <v>646</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E128" s="3">
         <v>20190101</v>
@@ -6080,13 +6082,13 @@
         <v>647</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E129" s="3">
         <v>20190101</v>
@@ -6097,13 +6099,13 @@
         <v>689</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E130" s="3">
         <v>20190101</v>
@@ -6114,13 +6116,13 @@
         <v>690</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E131" s="3">
         <v>20190101</v>
@@ -6131,13 +6133,13 @@
         <v>691</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E132" s="3">
         <v>20190101</v>
@@ -6148,13 +6150,13 @@
         <v>692</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E133" s="3">
         <v>20190101</v>
@@ -6165,13 +6167,13 @@
         <v>693</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E134" s="3">
         <v>20190101</v>
@@ -6182,13 +6184,13 @@
         <v>694</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E135" s="3">
         <v>20190101</v>
@@ -6199,13 +6201,13 @@
         <v>697</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E136" s="3">
         <v>20190101</v>
@@ -6216,13 +6218,13 @@
         <v>699</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E137" s="3">
         <v>20190101</v>
@@ -6233,13 +6235,13 @@
         <v>711</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E138" s="3">
         <v>20190101</v>
@@ -6250,13 +6252,13 @@
         <v>712</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E139" s="3">
         <v>20190101</v>
@@ -6267,13 +6269,13 @@
         <v>713</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E140" s="3">
         <v>20190101</v>
@@ -6284,13 +6286,13 @@
         <v>714</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E141" s="3">
         <v>20190101</v>
@@ -6301,13 +6303,13 @@
         <v>715</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E142" s="3">
         <v>20190101</v>
@@ -6318,13 +6320,13 @@
         <v>716</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E143" s="3">
         <v>20190101</v>
@@ -6335,13 +6337,13 @@
         <v>717</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E144" s="3">
         <v>20190101</v>
@@ -6352,13 +6354,13 @@
         <v>718</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E145" s="3">
         <v>20190101</v>
@@ -6369,13 +6371,13 @@
         <v>719</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E146" s="3">
         <v>20190101</v>
@@ -6386,13 +6388,13 @@
         <v>720</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E147" s="3">
         <v>20190101</v>
@@ -6403,13 +6405,13 @@
         <v>721</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E148" s="3">
         <v>20190101</v>
@@ -6420,13 +6422,13 @@
         <v>722</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E149" s="3">
         <v>20190101</v>
@@ -6437,13 +6439,13 @@
         <v>723</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E150" s="3">
         <v>20190101</v>
@@ -6454,13 +6456,13 @@
         <v>724</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E151" s="3">
         <v>20190101</v>
@@ -6471,13 +6473,13 @@
         <v>725</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E152" s="3">
         <v>20190101</v>
@@ -6488,13 +6490,13 @@
         <v>726</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E153" s="3">
         <v>20190101</v>
@@ -6505,13 +6507,13 @@
         <v>727</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E154" s="3">
         <v>20190101</v>
@@ -6522,13 +6524,13 @@
         <v>728</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E155" s="3">
         <v>20190101</v>
@@ -6539,13 +6541,13 @@
         <v>729</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E156" s="3">
         <v>20190101</v>
@@ -6556,13 +6558,13 @@
         <v>730</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E157" s="3">
         <v>20190101</v>
@@ -6573,13 +6575,13 @@
         <v>731</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E158" s="3">
         <v>20190101</v>
@@ -6590,13 +6592,13 @@
         <v>732</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E159" s="3">
         <v>20190101</v>
@@ -6607,13 +6609,13 @@
         <v>733</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E160" s="3">
         <v>20190101</v>
@@ -6624,13 +6626,13 @@
         <v>734</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E161" s="3">
         <v>20190101</v>
@@ -6641,13 +6643,13 @@
         <v>735</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E162" s="3">
         <v>20190101</v>
@@ -6658,13 +6660,13 @@
         <v>736</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E163" s="3">
         <v>20190101</v>
@@ -6675,13 +6677,13 @@
         <v>737</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E164" s="3">
         <v>20190101</v>
@@ -6692,13 +6694,13 @@
         <v>738</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E165" s="3">
         <v>20190101</v>
@@ -6709,13 +6711,13 @@
         <v>739</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E166" s="3">
         <v>20190101</v>
@@ -6726,13 +6728,13 @@
         <v>741</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E167" s="3">
         <v>20190101</v>
@@ -6743,13 +6745,13 @@
         <v>742</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E168" s="3">
         <v>20190101</v>
@@ -6760,13 +6762,13 @@
         <v>743</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E169" s="3">
         <v>20190101</v>
@@ -6777,13 +6779,13 @@
         <v>744</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E170" s="3">
         <v>20190101</v>
@@ -6794,13 +6796,13 @@
         <v>745</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E171" s="3">
         <v>20190101</v>
@@ -6811,13 +6813,13 @@
         <v>747</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E172" s="3">
         <v>20190101</v>
@@ -6828,13 +6830,13 @@
         <v>748</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E173" s="3">
         <v>20190101</v>
@@ -6845,13 +6847,13 @@
         <v>751</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E174" s="3">
         <v>20190101</v>
@@ -6862,13 +6864,13 @@
         <v>752</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E175" s="3">
         <v>20190101</v>
@@ -6879,13 +6881,13 @@
         <v>781</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E176" s="3">
         <v>20190101</v>
@@ -6896,13 +6898,13 @@
         <v>782</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E177" s="3">
         <v>20190101</v>
@@ -6913,13 +6915,13 @@
         <v>783</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E178" s="3">
         <v>20190101</v>
@@ -6930,13 +6932,13 @@
         <v>784</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E179" s="3">
         <v>20190101</v>
@@ -6947,13 +6949,13 @@
         <v>785</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E180" s="3">
         <v>20190101</v>
@@ -6964,13 +6966,13 @@
         <v>786</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E181" s="3">
         <v>20190101</v>
@@ -6981,13 +6983,13 @@
         <v>788</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E182" s="3">
         <v>20190101</v>
@@ -6998,13 +7000,13 @@
         <v>789</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E183" s="3">
         <v>20190101</v>
@@ -7015,13 +7017,13 @@
         <v>790</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E184" s="3">
         <v>20190101</v>
@@ -7032,13 +7034,13 @@
         <v>791</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E185" s="3">
         <v>20190101</v>
@@ -7049,13 +7051,13 @@
         <v>792</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E186" s="3">
         <v>20190101</v>
@@ -7066,13 +7068,13 @@
         <v>793</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E187" s="3">
         <v>20190101</v>
@@ -7083,13 +7085,13 @@
         <v>794</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E188" s="3">
         <v>20190101</v>
@@ -7100,13 +7102,13 @@
         <v>795</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E189" s="3">
         <v>20190101</v>
@@ -7117,13 +7119,13 @@
         <v>796</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E190" s="3">
         <v>20190101</v>
@@ -7134,13 +7136,13 @@
         <v>797</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E191" s="3">
         <v>20190101</v>
@@ -7151,13 +7153,13 @@
         <v>799</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E192" s="2">
         <v>20190227</v>
@@ -7168,13 +7170,13 @@
         <v>811</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E193" s="3">
         <v>20190101</v>
@@ -7185,13 +7187,13 @@
         <v>812</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E194" s="3">
         <v>20190101</v>
@@ -7202,13 +7204,13 @@
         <v>816</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E195" s="3">
         <v>20190101</v>
@@ -7219,13 +7221,13 @@
         <v>821</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E196" s="3">
         <v>20190101</v>
@@ -7236,13 +7238,13 @@
         <v>822</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E197" s="3">
         <v>20190101</v>
@@ -7253,13 +7255,13 @@
         <v>823</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E198" s="3">
         <v>20190101</v>
@@ -7270,13 +7272,13 @@
         <v>824</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E199" s="3">
         <v>20190101</v>
@@ -7287,13 +7289,13 @@
         <v>825</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E200" s="3">
         <v>20190101</v>
@@ -7304,13 +7306,13 @@
         <v>881</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E201" s="3">
         <v>20190101</v>
@@ -7321,13 +7323,13 @@
         <v>882</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E202" s="3">
         <v>20190101</v>
@@ -7338,13 +7340,13 @@
         <v>883</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E203" s="3">
         <v>20190101</v>
@@ -7355,13 +7357,13 @@
         <v>884</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E204" s="3">
         <v>20190101</v>
@@ -7372,13 +7374,13 @@
         <v>885</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E205" s="3">
         <v>20190101</v>
@@ -7389,13 +7391,13 @@
         <v>886</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E206" s="3">
         <v>20190101</v>
@@ -7406,13 +7408,13 @@
         <v>889</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E207" s="3">
         <v>20190101</v>
@@ -7423,13 +7425,13 @@
         <v>891</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E208" s="3">
         <v>20190101</v>
@@ -7440,13 +7442,13 @@
         <v>892</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E209" s="3">
         <v>20190101</v>
@@ -7457,13 +7459,13 @@
         <v>894</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E210" s="3">
         <v>20190101</v>
@@ -7474,13 +7476,13 @@
         <v>895</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E211" s="3">
         <v>20190101</v>
@@ -7491,13 +7493,13 @@
         <v>896</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E212" s="3">
         <v>20190101</v>
@@ -7508,13 +7510,13 @@
         <v>897</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E213" s="3">
         <v>20190101</v>
@@ -7525,13 +7527,13 @@
         <v>900</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E214" s="3">
         <v>20190101</v>
@@ -7545,13 +7547,13 @@
         <v>695</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E215" s="2">
         <v>20190227</v>
@@ -7574,7 +7576,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7588,20 +7590,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -7609,13 +7611,13 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E2" s="3">
         <v>20190101</v>
@@ -7626,13 +7628,13 @@
         <v>200</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" s="3">
         <v>20190101</v>
@@ -7643,13 +7645,13 @@
         <v>300</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E4" s="3">
         <v>20190101</v>
@@ -7660,13 +7662,13 @@
         <v>400</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E5" s="3">
         <v>20190101</v>
@@ -7677,13 +7679,13 @@
         <v>500</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E6" s="3">
         <v>20190101</v>
@@ -7694,13 +7696,13 @@
         <v>900</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E7" s="3">
         <v>20190101</v>
@@ -7711,13 +7713,13 @@
         <v>950</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="3">
         <v>20190101</v>
@@ -7728,13 +7730,13 @@
         <v>960</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E9" s="3">
         <v>20190101</v>
@@ -7745,13 +7747,13 @@
         <v>970</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E10" s="3">
         <v>20190101</v>
@@ -7762,13 +7764,13 @@
         <v>980</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E11" s="3">
         <v>20190101</v>
@@ -7779,13 +7781,13 @@
         <v>990</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E12" s="3">
         <v>20190101</v>
@@ -7796,13 +7798,13 @@
         <v>310</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" s="3">
         <v>20190101</v>
@@ -7813,13 +7815,13 @@
         <v>240</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E14" s="3">
         <v>20190101</v>
@@ -7830,13 +7832,13 @@
         <v>940</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E15" s="3">
         <v>20190101</v>
@@ -7847,13 +7849,13 @@
         <v>410</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E16" s="3">
         <v>20190101</v>
@@ -7864,13 +7866,13 @@
         <v>998</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E17" s="3">
         <v>20190809</v>
@@ -7895,7 +7897,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B14" sqref="B14"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7908,17 +7910,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7929,7 +7931,7 @@
         <v>211</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D2" s="3">
         <v>20190101</v>
@@ -7943,7 +7945,7 @@
         <v>212</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D3" s="3">
         <v>20190101</v>
@@ -7957,7 +7959,7 @@
         <v>214</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D4" s="3">
         <v>20190101</v>
@@ -7971,7 +7973,7 @@
         <v>216</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D5" s="3">
         <v>20190101</v>
@@ -7985,7 +7987,7 @@
         <v>217</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D6" s="3">
         <v>20190101</v>
@@ -7999,7 +8001,7 @@
         <v>221</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D7" s="3">
         <v>20190101</v>
@@ -8013,7 +8015,7 @@
         <v>222</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D8" s="3">
         <v>20190101</v>
@@ -8027,7 +8029,7 @@
         <v>223</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D9" s="3">
         <v>20190101</v>
@@ -8041,7 +8043,7 @@
         <v>224</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D10" s="3">
         <v>20190101</v>
@@ -8055,7 +8057,7 @@
         <v>225</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D11" s="3">
         <v>20190101</v>
@@ -8069,7 +8071,7 @@
         <v>231</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D12" s="3">
         <v>20190101</v>
@@ -8083,7 +8085,7 @@
         <v>233</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D13" s="3">
         <v>20190101</v>
@@ -8097,7 +8099,7 @@
         <v>236</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D14" s="3">
         <v>20190101</v>
@@ -8111,7 +8113,7 @@
         <v>294</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D15" s="3">
         <v>20190101</v>
@@ -8125,7 +8127,7 @@
         <v>211</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D16" s="3">
         <v>20190101</v>
@@ -8139,7 +8141,7 @@
         <v>212</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D17" s="3">
         <v>20190101</v>
@@ -8153,7 +8155,7 @@
         <v>213</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D18" s="3">
         <v>20190101</v>
@@ -8167,7 +8169,7 @@
         <v>214</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D19" s="3">
         <v>20190101</v>
@@ -8181,7 +8183,7 @@
         <v>321</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D20" s="3">
         <v>20190101</v>
@@ -8195,7 +8197,7 @@
         <v>322</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D21" s="3">
         <v>20190101</v>
@@ -8209,7 +8211,7 @@
         <v>323</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D22" s="3">
         <v>20190101</v>
@@ -8223,7 +8225,7 @@
         <v>325</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D23" s="3">
         <v>20190101</v>
@@ -8237,7 +8239,7 @@
         <v>326</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D24" s="3">
         <v>20190101</v>
@@ -8251,7 +8253,7 @@
         <v>327</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D25" s="3">
         <v>20190101</v>
@@ -8265,7 +8267,7 @@
         <v>330</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D26" s="3">
         <v>20190101</v>
@@ -8279,7 +8281,7 @@
         <v>331</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D27" s="3">
         <v>20190101</v>
@@ -8293,7 +8295,7 @@
         <v>332</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D28" s="3">
         <v>20190101</v>
@@ -8307,7 +8309,7 @@
         <v>333</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D29" s="3">
         <v>20190101</v>
@@ -8321,7 +8323,7 @@
         <v>334</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D30" s="3">
         <v>20190101</v>
@@ -8335,7 +8337,7 @@
         <v>335</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D31" s="3">
         <v>20190101</v>
@@ -8349,7 +8351,7 @@
         <v>897</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D32" s="3">
         <v>20190101</v>
@@ -8363,7 +8365,7 @@
         <v>896</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D33" s="3">
         <v>20190101</v>
@@ -8377,7 +8379,7 @@
         <v>895</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D34" s="3">
         <v>20190101</v>
@@ -8391,7 +8393,7 @@
         <v>894</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D35" s="3">
         <v>20190101</v>
@@ -8405,7 +8407,7 @@
         <v>892</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D36" s="3">
         <v>20190101</v>
@@ -8419,7 +8421,7 @@
         <v>891</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D37" s="3">
         <v>20190101</v>
@@ -8433,7 +8435,7 @@
         <v>889</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D38" s="3">
         <v>20190101</v>
@@ -8447,7 +8449,7 @@
         <v>886</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D39" s="3">
         <v>20190101</v>
@@ -8461,7 +8463,7 @@
         <v>885</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D40" s="3">
         <v>20190101</v>
@@ -8475,7 +8477,7 @@
         <v>884</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D41" s="3">
         <v>20190101</v>
@@ -8489,7 +8491,7 @@
         <v>883</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D42" s="3">
         <v>20190101</v>
@@ -8503,7 +8505,7 @@
         <v>882</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D43" s="3">
         <v>20190101</v>
@@ -8517,7 +8519,7 @@
         <v>881</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D44" s="3">
         <v>20190101</v>
@@ -8531,7 +8533,7 @@
         <v>812</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D45" s="3">
         <v>20190101</v>
@@ -8545,7 +8547,7 @@
         <v>811</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D46" s="3">
         <v>20190101</v>
@@ -8559,7 +8561,7 @@
         <v>699</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D47" s="3">
         <v>20190101</v>
@@ -8573,7 +8575,7 @@
         <v>697</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D48" s="3">
         <v>20190101</v>
@@ -8587,7 +8589,7 @@
         <v>694</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D49" s="3">
         <v>20190101</v>
@@ -8601,7 +8603,7 @@
         <v>693</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D50" s="3">
         <v>20190101</v>
@@ -8615,7 +8617,7 @@
         <v>692</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D51" s="3">
         <v>20190101</v>
@@ -8629,7 +8631,7 @@
         <v>691</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D52" s="3">
         <v>20190101</v>
@@ -8643,7 +8645,7 @@
         <v>647</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D53" s="3">
         <v>20190101</v>
@@ -8657,7 +8659,7 @@
         <v>646</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D54" s="3">
         <v>20190101</v>
@@ -8671,7 +8673,7 @@
         <v>645</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D55" s="3">
         <v>20190101</v>
@@ -8685,7 +8687,7 @@
         <v>643</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D56" s="3">
         <v>20190101</v>
@@ -8699,7 +8701,7 @@
         <v>642</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D57" s="3">
         <v>20190101</v>
@@ -8713,7 +8715,7 @@
         <v>641</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D58" s="3">
         <v>20190101</v>
@@ -8727,7 +8729,7 @@
         <v>633</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D59" s="3">
         <v>20190101</v>
@@ -8741,7 +8743,7 @@
         <v>632</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D60" s="3">
         <v>20190101</v>
@@ -8755,7 +8757,7 @@
         <v>631</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D61" s="3">
         <v>20190101</v>
@@ -8769,7 +8771,7 @@
         <v>622</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D62" s="3">
         <v>20190101</v>
@@ -8783,7 +8785,7 @@
         <v>621</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D63" s="3">
         <v>20190101</v>
@@ -8797,7 +8799,7 @@
         <v>619</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D64" s="3">
         <v>20190101</v>
@@ -8811,7 +8813,7 @@
         <v>617</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D65" s="3">
         <v>20190101</v>
@@ -8825,7 +8827,7 @@
         <v>616</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D66" s="3">
         <v>20190101</v>
@@ -8839,7 +8841,7 @@
         <v>615</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D67" s="3">
         <v>20190101</v>
@@ -8853,7 +8855,7 @@
         <v>614</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D68" s="3">
         <v>20190101</v>
@@ -8867,7 +8869,7 @@
         <v>613</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D69" s="3">
         <v>20190101</v>
@@ -8881,7 +8883,7 @@
         <v>612</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D70" s="3">
         <v>20190101</v>
@@ -8895,7 +8897,7 @@
         <v>611</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D71" s="3">
         <v>20190101</v>
@@ -8909,7 +8911,7 @@
         <v>611</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D72" s="3">
         <v>20190101</v>
@@ -8923,7 +8925,7 @@
         <v>613</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D73" s="3">
         <v>20190101</v>
@@ -8937,7 +8939,7 @@
         <v>614</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" s="3">
         <v>20190101</v>
@@ -8951,7 +8953,7 @@
         <v>616</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="3">
         <v>20190101</v>
@@ -8965,7 +8967,7 @@
         <v>619</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="3">
         <v>20190101</v>
@@ -8979,7 +8981,7 @@
         <v>622</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="3">
         <v>20190101</v>
@@ -8993,7 +8995,7 @@
         <v>633</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="3">
         <v>20190101</v>
@@ -9007,7 +9009,7 @@
         <v>691</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D79" s="3">
         <v>20190101</v>
@@ -9021,7 +9023,7 @@
         <v>694</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D80" s="3">
         <v>20190101</v>
@@ -9035,7 +9037,7 @@
         <v>642</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D81" s="3">
         <v>20190101</v>
@@ -9049,7 +9051,7 @@
         <v>643</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D82" s="3">
         <v>20190101</v>
@@ -9063,7 +9065,7 @@
         <v>646</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D83" s="3">
         <v>20190101</v>
@@ -9077,7 +9079,7 @@
         <v>692</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D84" s="3">
         <v>20190101</v>
@@ -9091,7 +9093,7 @@
         <v>693</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D85" s="3">
         <v>20190101</v>
@@ -9105,7 +9107,7 @@
         <v>699</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D86" s="3">
         <v>20190101</v>
@@ -9119,7 +9121,7 @@
         <v>611</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D87" s="3">
         <v>20190101</v>
@@ -9133,7 +9135,7 @@
         <v>612</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D88" s="3">
         <v>20190101</v>
@@ -9147,7 +9149,7 @@
         <v>613</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D89" s="3">
         <v>20190101</v>
@@ -9161,7 +9163,7 @@
         <v>614</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D90" s="3">
         <v>20190101</v>
@@ -9175,7 +9177,7 @@
         <v>615</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D91" s="3">
         <v>20190101</v>
@@ -9189,7 +9191,7 @@
         <v>616</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D92" s="3">
         <v>20190101</v>
@@ -9203,7 +9205,7 @@
         <v>617</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D93" s="3">
         <v>20190101</v>
@@ -9217,7 +9219,7 @@
         <v>619</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D94" s="3">
         <v>20190101</v>
@@ -9231,7 +9233,7 @@
         <v>622</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D95" s="3">
         <v>20190101</v>
@@ -9245,7 +9247,7 @@
         <v>632</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D96" s="3">
         <v>20190101</v>
@@ -9259,7 +9261,7 @@
         <v>633</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D97" s="3">
         <v>20190101</v>
@@ -9273,7 +9275,7 @@
         <v>641</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D98" s="3">
         <v>20190101</v>
@@ -9287,7 +9289,7 @@
         <v>642</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D99" s="3">
         <v>20190101</v>
@@ -9301,7 +9303,7 @@
         <v>643</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D100" s="3">
         <v>20190101</v>
@@ -9315,7 +9317,7 @@
         <v>645</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D101" s="3">
         <v>20190101</v>
@@ -9329,7 +9331,7 @@
         <v>646</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D102" s="3">
         <v>20190101</v>
@@ -9343,7 +9345,7 @@
         <v>647</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D103" s="3">
         <v>20190101</v>
@@ -9357,7 +9359,7 @@
         <v>691</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D104" s="3">
         <v>20190101</v>
@@ -9371,7 +9373,7 @@
         <v>692</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D105" s="3">
         <v>20190101</v>
@@ -9385,7 +9387,7 @@
         <v>693</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D106" s="3">
         <v>20190101</v>
@@ -9399,7 +9401,7 @@
         <v>694</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D107" s="3">
         <v>20190101</v>
@@ -9413,7 +9415,7 @@
         <v>697</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D108" s="3">
         <v>20190101</v>
@@ -9427,7 +9429,7 @@
         <v>699</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D109" s="3">
         <v>20190101</v>
@@ -9441,7 +9443,7 @@
         <v>697</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D110" s="3">
         <v>20190101</v>
@@ -9455,7 +9457,7 @@
         <v>211</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D111" s="3">
         <v>20190101</v>
@@ -9469,7 +9471,7 @@
         <v>216</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D112" s="3">
         <v>20190101</v>
@@ -9483,7 +9485,7 @@
         <v>217</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D113" s="3">
         <v>20190101</v>
@@ -9497,7 +9499,7 @@
         <v>221</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D114" s="3">
         <v>20190101</v>
@@ -9511,7 +9513,7 @@
         <v>222</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D115" s="3">
         <v>20190101</v>
@@ -9525,7 +9527,7 @@
         <v>223</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D116" s="3">
         <v>20190101</v>
@@ -9539,7 +9541,7 @@
         <v>224</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D117" s="3">
         <v>20190101</v>
@@ -9553,7 +9555,7 @@
         <v>225</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D118" s="3">
         <v>20190101</v>
@@ -9567,7 +9569,7 @@
         <v>231</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D119" s="3">
         <v>20190101</v>
@@ -9581,7 +9583,7 @@
         <v>233</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D120" s="3">
         <v>20190101</v>
@@ -9595,7 +9597,7 @@
         <v>236</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D121" s="3">
         <v>20190101</v>
@@ -9609,7 +9611,7 @@
         <v>219</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D122" s="3">
         <v>20190101</v>
@@ -9623,7 +9625,7 @@
         <v>211</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D123" s="3">
         <v>20190101</v>
@@ -9637,7 +9639,7 @@
         <v>212</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D124" s="3">
         <v>20190101</v>
@@ -9651,7 +9653,7 @@
         <v>214</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D125" s="3">
         <v>20190101</v>
@@ -9665,7 +9667,7 @@
         <v>216</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D126" s="3">
         <v>20190101</v>
@@ -9679,7 +9681,7 @@
         <v>217</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D127" s="3">
         <v>20190101</v>
@@ -9693,7 +9695,7 @@
         <v>221</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D128" s="3">
         <v>20190101</v>
@@ -9707,7 +9709,7 @@
         <v>222</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D129" s="3">
         <v>20190101</v>
@@ -9721,7 +9723,7 @@
         <v>223</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D130" s="3">
         <v>20190101</v>
@@ -9735,7 +9737,7 @@
         <v>224</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D131" s="3">
         <v>20190101</v>
@@ -9749,7 +9751,7 @@
         <v>225</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D132" s="3">
         <v>20190101</v>
@@ -9763,7 +9765,7 @@
         <v>231</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D133" s="3">
         <v>20190101</v>
@@ -9777,7 +9779,7 @@
         <v>233</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D134" s="3">
         <v>20190101</v>
@@ -9791,7 +9793,7 @@
         <v>236</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D135" s="3">
         <v>20190101</v>
@@ -9805,7 +9807,7 @@
         <v>294</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D136" s="3">
         <v>20190101</v>
@@ -9819,7 +9821,7 @@
         <v>219</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D137" s="3">
         <v>20190101</v>
@@ -9833,7 +9835,7 @@
         <v>243</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D138" s="3">
         <v>20190101</v>
@@ -9847,7 +9849,7 @@
         <v>251</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D139" s="3">
         <v>20190101</v>
@@ -9861,7 +9863,7 @@
         <v>252</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D140" s="3">
         <v>20190101</v>
@@ -9875,7 +9877,7 @@
         <v>253</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D141" s="3">
         <v>20190101</v>
@@ -9889,7 +9891,7 @@
         <v>293</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D142" s="3">
         <v>20190101</v>
@@ -9903,7 +9905,7 @@
         <v>314</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D143" s="3">
         <v>20190101</v>
@@ -9917,7 +9919,7 @@
         <v>315</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D144" s="3">
         <v>20190101</v>
@@ -9931,7 +9933,7 @@
         <v>316</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D145" s="3">
         <v>20190101</v>
@@ -9945,7 +9947,7 @@
         <v>317</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D146" s="3">
         <v>20190101</v>
@@ -9959,7 +9961,7 @@
         <v>592</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D147" s="3">
         <v>20190101</v>
@@ -9973,7 +9975,7 @@
         <v>313</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D148" s="3">
         <v>20190101</v>
@@ -9987,7 +9989,7 @@
         <v>318</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D149" s="3">
         <v>20190101</v>
@@ -10001,7 +10003,7 @@
         <v>221</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D150" s="3">
         <v>20190101</v>
@@ -10015,7 +10017,7 @@
         <v>294</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D151" s="3">
         <v>20190101</v>
@@ -10029,7 +10031,7 @@
         <v>222</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D152" s="3">
         <v>20190101</v>
@@ -10043,7 +10045,7 @@
         <v>224</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D153" s="3">
         <v>20190101</v>
@@ -10057,7 +10059,7 @@
         <v>225</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D154" s="3">
         <v>20190101</v>
@@ -10071,7 +10073,7 @@
         <v>231</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D155" s="3">
         <v>20190101</v>
@@ -10085,7 +10087,7 @@
         <v>223</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D156" s="3">
         <v>20190101</v>
@@ -10099,7 +10101,7 @@
         <v>211</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D157" s="3">
         <v>20190101</v>
@@ -10113,7 +10115,7 @@
         <v>316</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D158" s="3">
         <v>20190101</v>
@@ -10127,7 +10129,7 @@
         <v>212</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D159" s="3">
         <v>20190101</v>
@@ -10141,7 +10143,7 @@
         <v>214</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D160" s="3">
         <v>20190101</v>
@@ -10155,7 +10157,7 @@
         <v>314</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D161" s="3">
         <v>20190101</v>
@@ -10169,7 +10171,7 @@
         <v>217</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D162" s="3">
         <v>20190101</v>
@@ -10183,7 +10185,7 @@
         <v>317</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D163" s="3">
         <v>20190101</v>
@@ -10197,7 +10199,7 @@
         <v>236</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D164" s="3">
         <v>20190101</v>
@@ -10211,7 +10213,7 @@
         <v>233</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D165" s="3">
         <v>20190101</v>
@@ -10225,7 +10227,7 @@
         <v>216</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D166" s="3">
         <v>20190101</v>
@@ -10239,7 +10241,7 @@
         <v>251</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D167" s="3">
         <v>20190101</v>
@@ -10253,7 +10255,7 @@
         <v>219</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D168" s="3">
         <v>20190101</v>
@@ -10267,7 +10269,7 @@
         <v>315</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D169" s="3">
         <v>20190101</v>
@@ -10281,7 +10283,7 @@
         <v>243</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D170" s="3">
         <v>20190101</v>
@@ -10295,7 +10297,7 @@
         <v>252</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D171" s="3">
         <v>20190101</v>
@@ -10309,7 +10311,7 @@
         <v>592</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D172" s="3">
         <v>20190101</v>
@@ -10323,7 +10325,7 @@
         <v>253</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D173" s="3">
         <v>20190101</v>
@@ -10337,7 +10339,7 @@
         <v>293</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D174" s="3">
         <v>20190101</v>
@@ -10351,7 +10353,7 @@
         <v>219</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D175" s="3">
         <v>20190101</v>
@@ -10365,7 +10367,7 @@
         <v>293</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D176" s="3">
         <v>20190101</v>
@@ -10379,7 +10381,7 @@
         <v>315</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D177" s="3">
         <v>20190101</v>
@@ -10393,7 +10395,7 @@
         <v>592</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D178" s="3">
         <v>20190101</v>
@@ -10407,7 +10409,7 @@
         <v>243</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D179" s="3">
         <v>20190101</v>
@@ -10421,7 +10423,7 @@
         <v>251</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D180" s="3">
         <v>20190101</v>
@@ -10435,7 +10437,7 @@
         <v>242</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D181" s="3">
         <v>20190101</v>
@@ -10449,7 +10451,7 @@
         <v>211</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D182" s="3">
         <v>20190101</v>
@@ -10463,7 +10465,7 @@
         <v>212</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D183" s="3">
         <v>20190101</v>
@@ -10477,7 +10479,7 @@
         <v>214</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D184" s="3">
         <v>20190101</v>
@@ -10491,7 +10493,7 @@
         <v>216</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D185" s="3">
         <v>20190101</v>
@@ -10505,7 +10507,7 @@
         <v>217</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D186" s="3">
         <v>20190101</v>
@@ -10519,7 +10521,7 @@
         <v>221</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D187" s="3">
         <v>20190101</v>
@@ -10533,7 +10535,7 @@
         <v>222</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D188" s="3">
         <v>20190101</v>
@@ -10547,7 +10549,7 @@
         <v>223</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D189" s="3">
         <v>20190101</v>
@@ -10561,7 +10563,7 @@
         <v>224</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D190" s="3">
         <v>20190101</v>
@@ -10575,7 +10577,7 @@
         <v>225</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D191" s="3">
         <v>20190101</v>
@@ -10589,7 +10591,7 @@
         <v>231</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D192" s="3">
         <v>20190101</v>
@@ -10603,7 +10605,7 @@
         <v>233</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D193" s="3">
         <v>20190101</v>
@@ -10617,7 +10619,7 @@
         <v>236</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D194" s="3">
         <v>20190101</v>
@@ -10631,7 +10633,7 @@
         <v>294</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D195" s="3">
         <v>20190101</v>
@@ -10645,7 +10647,7 @@
         <v>219</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D196" s="3">
         <v>20190101</v>
@@ -10659,7 +10661,7 @@
         <v>243</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D197" s="3">
         <v>20190101</v>
@@ -10673,7 +10675,7 @@
         <v>251</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D198" s="3">
         <v>20190101</v>
@@ -10687,7 +10689,7 @@
         <v>252</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D199" s="3">
         <v>20190101</v>
@@ -10701,7 +10703,7 @@
         <v>253</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D200" s="3">
         <v>20190101</v>
@@ -10715,7 +10717,7 @@
         <v>293</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D201" s="3">
         <v>20190101</v>
@@ -10729,7 +10731,7 @@
         <v>314</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D202" s="3">
         <v>20190101</v>
@@ -10743,7 +10745,7 @@
         <v>315</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D203" s="3">
         <v>20190101</v>
@@ -10757,7 +10759,7 @@
         <v>316</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D204" s="3">
         <v>20190101</v>
@@ -10771,7 +10773,7 @@
         <v>317</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D205" s="3">
         <v>20190101</v>
@@ -10785,7 +10787,7 @@
         <v>592</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D206" s="3">
         <v>20190101</v>
@@ -10799,7 +10801,7 @@
         <v>313</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D207" s="3">
         <v>20190101</v>
@@ -10813,7 +10815,7 @@
         <v>318</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D208" s="3">
         <v>20190101</v>
@@ -10827,7 +10829,7 @@
         <v>252</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D209" s="3">
         <v>20190101</v>
@@ -10841,7 +10843,7 @@
         <v>253</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D210" s="3">
         <v>20190101</v>
@@ -10855,7 +10857,7 @@
         <v>691</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D211" s="3">
         <v>20190101</v>
@@ -10869,7 +10871,7 @@
         <v>614</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D212" s="3">
         <v>20190101</v>
@@ -10883,7 +10885,7 @@
         <v>616</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D213" s="3">
         <v>20190101</v>
@@ -10897,7 +10899,7 @@
         <v>611</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D214" s="3">
         <v>20190101</v>
@@ -10911,7 +10913,7 @@
         <v>694</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D215" s="3">
         <v>20190101</v>
@@ -10925,7 +10927,7 @@
         <v>697</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D216" s="3">
         <v>20190101</v>
@@ -10939,7 +10941,7 @@
         <v>633</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D217" s="3">
         <v>20190101</v>
@@ -10953,7 +10955,7 @@
         <v>613</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D218" s="3">
         <v>20190101</v>
@@ -10967,7 +10969,7 @@
         <v>622</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D219" s="3">
         <v>20190101</v>
@@ -10981,7 +10983,7 @@
         <v>619</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D220" s="3">
         <v>20190101</v>
@@ -10995,7 +10997,7 @@
         <v>641</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D221" s="3">
         <v>20190101</v>
@@ -11009,7 +11011,7 @@
         <v>693</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D222" s="3">
         <v>20190101</v>
@@ -11023,7 +11025,7 @@
         <v>643</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D223" s="3">
         <v>20190101</v>
@@ -11037,7 +11039,7 @@
         <v>699</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D224" s="3">
         <v>20190101</v>
@@ -11051,7 +11053,7 @@
         <v>646</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D225" s="3">
         <v>20190101</v>
@@ -11065,7 +11067,7 @@
         <v>692</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D226" s="3">
         <v>20190101</v>
@@ -11079,7 +11081,7 @@
         <v>645</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D227" s="3">
         <v>20190101</v>
@@ -11093,7 +11095,7 @@
         <v>642</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D228" s="3">
         <v>20190101</v>
@@ -11107,7 +11109,7 @@
         <v>326</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D229" s="3">
         <v>20190101</v>
@@ -11121,7 +11123,7 @@
         <v>333</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D230" s="3">
         <v>20190101</v>
@@ -11135,7 +11137,7 @@
         <v>327</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D231" s="3">
         <v>20190101</v>
@@ -11149,7 +11151,7 @@
         <v>335</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D232" s="3">
         <v>20190101</v>
@@ -11163,7 +11165,7 @@
         <v>332</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D233" s="3">
         <v>20190101</v>
@@ -11177,7 +11179,7 @@
         <v>321</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D234" s="3">
         <v>20190101</v>
@@ -11191,7 +11193,7 @@
         <v>325</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D235" s="3">
         <v>20190101</v>
@@ -11205,7 +11207,7 @@
         <v>514</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D236" s="3">
         <v>20190101</v>
@@ -11219,7 +11221,7 @@
         <v>517</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D237" s="3">
         <v>20190101</v>
@@ -11233,7 +11235,7 @@
         <v>519</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D238" s="3">
         <v>20190101</v>
@@ -11247,7 +11249,7 @@
         <v>234</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D239" s="3">
         <v>20190101</v>
@@ -11261,7 +11263,7 @@
         <v>322</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D240" s="3">
         <v>20190101</v>
@@ -11275,7 +11277,7 @@
         <v>644</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D241" s="3">
         <v>20190101</v>
@@ -11289,7 +11291,7 @@
         <v>515</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D242" s="3">
         <v>20190101</v>
@@ -11303,7 +11305,7 @@
         <v>518</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D243" s="3">
         <v>20190101</v>
@@ -11317,7 +11319,7 @@
         <v>521</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D244" s="3">
         <v>20190101</v>
@@ -11331,7 +11333,7 @@
         <v>523</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D245" s="3">
         <v>20190101</v>
@@ -11345,7 +11347,7 @@
         <v>511</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D246" s="3">
         <v>20190101</v>
@@ -11359,7 +11361,7 @@
         <v>513</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D247" s="3">
         <v>20190101</v>
@@ -11373,7 +11375,7 @@
         <v>516</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D248" s="3">
         <v>20190101</v>
@@ -11387,7 +11389,7 @@
         <v>522</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D249" s="3">
         <v>20190101</v>
@@ -11401,7 +11403,7 @@
         <v>524</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D250" s="3">
         <v>20190101</v>
@@ -11415,7 +11417,7 @@
         <v>312</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D251" s="3">
         <v>20190101</v>
@@ -11429,7 +11431,7 @@
         <v>242</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D252" s="3">
         <v>20190101</v>
@@ -11443,7 +11445,7 @@
         <v>316</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D253" s="3">
         <v>20190101</v>
@@ -11457,7 +11459,7 @@
         <v>245</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D254" s="3">
         <v>20190101</v>
@@ -11471,7 +11473,7 @@
         <v>318</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D255" s="3">
         <v>20190101</v>
@@ -11485,7 +11487,7 @@
         <v>243</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D256" s="3">
         <v>20190101</v>
@@ -11499,7 +11501,7 @@
         <v>241</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D257" s="3">
         <v>20190101</v>
@@ -11513,7 +11515,7 @@
         <v>314</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D258" s="3">
         <v>20190101</v>
@@ -11527,7 +11529,7 @@
         <v>252</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D259" s="3">
         <v>20190101</v>
@@ -11541,7 +11543,7 @@
         <v>246</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D260" s="3">
         <v>20190101</v>
@@ -11555,7 +11557,7 @@
         <v>247</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D261" s="3">
         <v>20190101</v>
@@ -11569,7 +11571,7 @@
         <v>313</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D262" s="3">
         <v>20190101</v>
@@ -11583,7 +11585,7 @@
         <v>251</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D263" s="3">
         <v>20190101</v>
@@ -11597,7 +11599,7 @@
         <v>253</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D264" s="3">
         <v>20190101</v>
@@ -11611,7 +11613,7 @@
         <v>317</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D265" s="3">
         <v>20190101</v>
@@ -11625,7 +11627,7 @@
         <v>315</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D266" s="3">
         <v>20190101</v>
@@ -11639,7 +11641,7 @@
         <v>323</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D267" s="3">
         <v>20190101</v>
@@ -11653,7 +11655,7 @@
         <v>334</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D268" s="3">
         <v>20190101</v>
@@ -11667,7 +11669,7 @@
         <v>330</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D269" s="3">
         <v>20190101</v>
@@ -11681,7 +11683,7 @@
         <v>331</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D270" s="3">
         <v>20190101</v>
@@ -11695,7 +11697,7 @@
         <v>715</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D271" s="3">
         <v>20190101</v>
@@ -11709,7 +11711,7 @@
         <v>647</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D272" s="3">
         <v>20190101</v>
@@ -11723,7 +11725,7 @@
         <v>312</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D273" s="3">
         <v>20190101</v>
@@ -11737,7 +11739,7 @@
         <v>241</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D274" s="3">
         <v>20190101</v>
@@ -11751,7 +11753,7 @@
         <v>245</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D275" s="3">
         <v>20190101</v>
@@ -11765,7 +11767,7 @@
         <v>246</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D276" s="3">
         <v>20190101</v>
@@ -11779,7 +11781,7 @@
         <v>247</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D277" s="3">
         <v>20190101</v>
@@ -11793,7 +11795,7 @@
         <v>326</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D278" s="3">
         <v>20190101</v>
@@ -11807,7 +11809,7 @@
         <v>327</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D279" s="3">
         <v>20190101</v>
@@ -11821,7 +11823,7 @@
         <v>332</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D280" s="3">
         <v>20190101</v>
@@ -11835,7 +11837,7 @@
         <v>333</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D281" s="3">
         <v>20190101</v>
@@ -11849,7 +11851,7 @@
         <v>335</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D282" s="3">
         <v>20190101</v>
@@ -11863,7 +11865,7 @@
         <v>631</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D283" s="3">
         <v>20190101</v>
@@ -11877,7 +11879,7 @@
         <v>331</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D284" s="3">
         <v>20190101</v>
@@ -11891,7 +11893,7 @@
         <v>326</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D285" s="3">
         <v>20190101</v>
@@ -11905,7 +11907,7 @@
         <v>335</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D286" s="3">
         <v>20190101</v>
@@ -11919,7 +11921,7 @@
         <v>327</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D287" s="3">
         <v>20190101</v>
@@ -11933,7 +11935,7 @@
         <v>332</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D288" s="3">
         <v>20190101</v>
@@ -11947,7 +11949,7 @@
         <v>693</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D289" s="3">
         <v>20190101</v>
@@ -11961,7 +11963,7 @@
         <v>643</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D290" s="3">
         <v>20190101</v>
@@ -11975,7 +11977,7 @@
         <v>181</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D291" s="2">
         <v>20190527</v>
@@ -11989,7 +11991,7 @@
         <v>211</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D292" s="2">
         <v>20190527</v>
@@ -12003,7 +12005,7 @@
         <v>212</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D293" s="2">
         <v>20190527</v>
@@ -12017,7 +12019,7 @@
         <v>213</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D294" s="2">
         <v>20190527</v>
@@ -12031,7 +12033,7 @@
         <v>214</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D295" s="2">
         <v>20190527</v>
@@ -12045,7 +12047,7 @@
         <v>215</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D296" s="2">
         <v>20190527</v>
@@ -12059,7 +12061,7 @@
         <v>216</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D297" s="2">
         <v>20190527</v>
@@ -12073,7 +12075,7 @@
         <v>217</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D298" s="2">
         <v>20190527</v>
@@ -12087,7 +12089,7 @@
         <v>218</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D299" s="2">
         <v>20190527</v>
@@ -12101,7 +12103,7 @@
         <v>219</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D300" s="2">
         <v>20190527</v>
@@ -12115,7 +12117,7 @@
         <v>221</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D301" s="2">
         <v>20190527</v>
@@ -12129,7 +12131,7 @@
         <v>222</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D302" s="2">
         <v>20190527</v>
@@ -12143,7 +12145,7 @@
         <v>223</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D303" s="2">
         <v>20190527</v>
@@ -12157,7 +12159,7 @@
         <v>224</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D304" s="2">
         <v>20190527</v>
@@ -12171,7 +12173,7 @@
         <v>225</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D305" s="2">
         <v>20190527</v>
@@ -12185,7 +12187,7 @@
         <v>228</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D306" s="2">
         <v>20190527</v>
@@ -12199,7 +12201,7 @@
         <v>229</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D307" s="2">
         <v>20190527</v>
@@ -12213,7 +12215,7 @@
         <v>231</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D308" s="2">
         <v>20190527</v>
@@ -12227,7 +12229,7 @@
         <v>233</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D309" s="2">
         <v>20190527</v>
@@ -12241,7 +12243,7 @@
         <v>234</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D310" s="2">
         <v>20190527</v>
@@ -12255,7 +12257,7 @@
         <v>235</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D311" s="2">
         <v>20190527</v>
@@ -12269,7 +12271,7 @@
         <v>236</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D312" s="2">
         <v>20190527</v>
@@ -12283,7 +12285,7 @@
         <v>241</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D313" s="2">
         <v>20190527</v>
@@ -12297,7 +12299,7 @@
         <v>242</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D314" s="2">
         <v>20190527</v>
@@ -12311,7 +12313,7 @@
         <v>243</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D315" s="2">
         <v>20190527</v>
@@ -12325,7 +12327,7 @@
         <v>245</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D316" s="2">
         <v>20190527</v>
@@ -12339,7 +12341,7 @@
         <v>246</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D317" s="2">
         <v>20190527</v>
@@ -12353,7 +12355,7 @@
         <v>247</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D318" s="2">
         <v>20190527</v>
@@ -12367,7 +12369,7 @@
         <v>251</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D319" s="2">
         <v>20190527</v>
@@ -12381,7 +12383,7 @@
         <v>252</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D320" s="2">
         <v>20190527</v>
@@ -12395,7 +12397,7 @@
         <v>253</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D321" s="2">
         <v>20190527</v>
@@ -12409,7 +12411,7 @@
         <v>292</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D322" s="2">
         <v>20190527</v>
@@ -12423,7 +12425,7 @@
         <v>293</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D323" s="2">
         <v>20190527</v>
@@ -12437,7 +12439,7 @@
         <v>294</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D324" s="2">
         <v>20190527</v>
@@ -12451,7 +12453,7 @@
         <v>312</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D325" s="2">
         <v>20190527</v>
@@ -12465,7 +12467,7 @@
         <v>313</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D326" s="2">
         <v>20190527</v>
@@ -12479,7 +12481,7 @@
         <v>314</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D327" s="2">
         <v>20190527</v>
@@ -12493,7 +12495,7 @@
         <v>315</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D328" s="2">
         <v>20190527</v>
@@ -12507,7 +12509,7 @@
         <v>316</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D329" s="2">
         <v>20190527</v>
@@ -12521,7 +12523,7 @@
         <v>317</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D330" s="2">
         <v>20190527</v>
@@ -12535,7 +12537,7 @@
         <v>318</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D331" s="2">
         <v>20190527</v>
@@ -12549,7 +12551,7 @@
         <v>321</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D332" s="2">
         <v>20190527</v>
@@ -12563,7 +12565,7 @@
         <v>322</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D333" s="2">
         <v>20190527</v>
@@ -12577,7 +12579,7 @@
         <v>323</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D334" s="2">
         <v>20190527</v>
@@ -12591,7 +12593,7 @@
         <v>325</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D335" s="2">
         <v>20190527</v>
@@ -12605,7 +12607,7 @@
         <v>326</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D336" s="2">
         <v>20190527</v>
@@ -12619,7 +12621,7 @@
         <v>327</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D337" s="2">
         <v>20190527</v>
@@ -12633,7 +12635,7 @@
         <v>330</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D338" s="2">
         <v>20190527</v>
@@ -12647,7 +12649,7 @@
         <v>331</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D339" s="2">
         <v>20190527</v>
@@ -12661,7 +12663,7 @@
         <v>332</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D340" s="2">
         <v>20190527</v>
@@ -12675,7 +12677,7 @@
         <v>333</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D341" s="2">
         <v>20190527</v>
@@ -12689,7 +12691,7 @@
         <v>334</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D342" s="2">
         <v>20190527</v>
@@ -12703,7 +12705,7 @@
         <v>335</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D343" s="2">
         <v>20190527</v>
@@ -12717,7 +12719,7 @@
         <v>514</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D344" s="2">
         <v>20190527</v>
@@ -12731,7 +12733,7 @@
         <v>592</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D345" s="2">
         <v>20190527</v>
@@ -12745,7 +12747,7 @@
         <v>695</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D346" s="2">
         <v>20190702</v>
@@ -12759,7 +12761,7 @@
         <v>695</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D347" s="2">
         <v>20190702</v>
@@ -12773,7 +12775,7 @@
         <v>720</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D348" s="2">
         <v>20190809</v>
@@ -12787,7 +12789,7 @@
         <v>718</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D349" s="2">
         <v>20190809</v>
@@ -12801,7 +12803,7 @@
         <v>717</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D350" s="2">
         <v>20190809</v>
@@ -12815,7 +12817,7 @@
         <v>791</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D351" s="2">
         <v>20190809</v>
@@ -12829,7 +12831,7 @@
         <v>722</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D352" s="2">
         <v>20190809</v>
@@ -12843,7 +12845,7 @@
         <v>792</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D353" s="2">
         <v>20190809</v>
@@ -12857,7 +12859,7 @@
         <v>745</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D354" s="2">
         <v>20190809</v>
@@ -12871,7 +12873,7 @@
         <v>786</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D355" s="2">
         <v>20190809</v>
@@ -12885,7 +12887,7 @@
         <v>719</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D356" s="2">
         <v>20190809</v>
@@ -12899,7 +12901,7 @@
         <v>730</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D357" s="2">
         <v>20190809</v>
@@ -12913,7 +12915,7 @@
         <v>716</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D358" s="2">
         <v>20190809</v>
@@ -12927,7 +12929,7 @@
         <v>796</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D359" s="2">
         <v>20190809</v>
@@ -12941,7 +12943,7 @@
         <v>797</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D360" s="2">
         <v>20190809</v>
@@ -12961,7 +12963,7 @@
   <dimension ref="A1:D267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12973,17 +12975,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>225</v>
       </c>
+      <c r="B1" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -12994,7 +12996,7 @@
         <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D2" s="3">
         <v>20190101</v>
@@ -13008,7 +13010,7 @@
         <v>191</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D3" s="3">
         <v>20190101</v>
@@ -13022,7 +13024,7 @@
         <v>211</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D4" s="3">
         <v>20190101</v>
@@ -13036,7 +13038,7 @@
         <v>212</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D5" s="3">
         <v>20190101</v>
@@ -13050,7 +13052,7 @@
         <v>213</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D6" s="3">
         <v>20190101</v>
@@ -13064,7 +13066,7 @@
         <v>214</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D7" s="3">
         <v>20190101</v>
@@ -13078,7 +13080,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D8" s="3">
         <v>20190101</v>
@@ -13092,7 +13094,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D9" s="3">
         <v>20190101</v>
@@ -13106,7 +13108,7 @@
         <v>217</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D10" s="3">
         <v>20190101</v>
@@ -13120,7 +13122,7 @@
         <v>221</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D11" s="3">
         <v>20190101</v>
@@ -13134,7 +13136,7 @@
         <v>222</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D12" s="3">
         <v>20190101</v>
@@ -13148,7 +13150,7 @@
         <v>223</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D13" s="3">
         <v>20190101</v>
@@ -13162,7 +13164,7 @@
         <v>224</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D14" s="3">
         <v>20190101</v>
@@ -13176,7 +13178,7 @@
         <v>225</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D15" s="3">
         <v>20190101</v>
@@ -13190,7 +13192,7 @@
         <v>231</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D16" s="3">
         <v>20190101</v>
@@ -13204,7 +13206,7 @@
         <v>233</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D17" s="3">
         <v>20190101</v>
@@ -13218,7 +13220,7 @@
         <v>234</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D18" s="3">
         <v>20190101</v>
@@ -13232,7 +13234,7 @@
         <v>235</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D19" s="3">
         <v>20190101</v>
@@ -13246,7 +13248,7 @@
         <v>236</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D20" s="3">
         <v>20190101</v>
@@ -13260,7 +13262,7 @@
         <v>292</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D21" s="3">
         <v>20190101</v>
@@ -13274,7 +13276,7 @@
         <v>293</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D22" s="3">
         <v>20190101</v>
@@ -13288,7 +13290,7 @@
         <v>294</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D23" s="3">
         <v>20190101</v>
@@ -13302,7 +13304,7 @@
         <v>241</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D24" s="3">
         <v>20190101</v>
@@ -13316,7 +13318,7 @@
         <v>242</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D25" s="3">
         <v>20190101</v>
@@ -13330,7 +13332,7 @@
         <v>243</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D26" s="3">
         <v>20190101</v>
@@ -13344,7 +13346,7 @@
         <v>244</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D27" s="3">
         <v>20190101</v>
@@ -13358,7 +13360,7 @@
         <v>245</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D28" s="3">
         <v>20190101</v>
@@ -13372,7 +13374,7 @@
         <v>251</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D29" s="3">
         <v>20190101</v>
@@ -13386,7 +13388,7 @@
         <v>252</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D30" s="3">
         <v>20190101</v>
@@ -13400,7 +13402,7 @@
         <v>253</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D31" s="3">
         <v>20190101</v>
@@ -13414,7 +13416,7 @@
         <v>312</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D32" s="3">
         <v>20190101</v>
@@ -13428,7 +13430,7 @@
         <v>313</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D33" s="3">
         <v>20190101</v>
@@ -13442,7 +13444,7 @@
         <v>314</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D34" s="3">
         <v>20190101</v>
@@ -13456,7 +13458,7 @@
         <v>315</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D35" s="3">
         <v>20190101</v>
@@ -13470,7 +13472,7 @@
         <v>316</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D36" s="3">
         <v>20190101</v>
@@ -13484,7 +13486,7 @@
         <v>317</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D37" s="3">
         <v>20190101</v>
@@ -13498,7 +13500,7 @@
         <v>318</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D38" s="3">
         <v>20190101</v>
@@ -13512,7 +13514,7 @@
         <v>321</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D39" s="3">
         <v>20190101</v>
@@ -13526,7 +13528,7 @@
         <v>322</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D40" s="3">
         <v>20190101</v>
@@ -13540,7 +13542,7 @@
         <v>323</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D41" s="3">
         <v>20190101</v>
@@ -13554,7 +13556,7 @@
         <v>325</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D42" s="3">
         <v>20190101</v>
@@ -13568,7 +13570,7 @@
         <v>326</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D43" s="3">
         <v>20190101</v>
@@ -13582,7 +13584,7 @@
         <v>327</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D44" s="3">
         <v>20190101</v>
@@ -13596,7 +13598,7 @@
         <v>330</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D45" s="3">
         <v>20190101</v>
@@ -13610,7 +13612,7 @@
         <v>331</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D46" s="3">
         <v>20190101</v>
@@ -13624,7 +13626,7 @@
         <v>332</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D47" s="3">
         <v>20190101</v>
@@ -13638,7 +13640,7 @@
         <v>333</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D48" s="3">
         <v>20190101</v>
@@ -13652,7 +13654,7 @@
         <v>334</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D49" s="3">
         <v>20190101</v>
@@ -13666,7 +13668,7 @@
         <v>335</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D50" s="3">
         <v>20190101</v>
@@ -13680,7 +13682,7 @@
         <v>411</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D51" s="3">
         <v>20190101</v>
@@ -13694,7 +13696,7 @@
         <v>412</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D52" s="3">
         <v>20190101</v>
@@ -13708,7 +13710,7 @@
         <v>413</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D53" s="3">
         <v>20190101</v>
@@ -13722,7 +13724,7 @@
         <v>414</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D54" s="3">
         <v>20190101</v>
@@ -13736,7 +13738,7 @@
         <v>415</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D55" s="3">
         <v>20190101</v>
@@ -13750,7 +13752,7 @@
         <v>416</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D56" s="3">
         <v>20190101</v>
@@ -13764,7 +13766,7 @@
         <v>417</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D57" s="3">
         <v>20190101</v>
@@ -13778,7 +13780,7 @@
         <v>418</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D58" s="3">
         <v>20190101</v>
@@ -13792,7 +13794,7 @@
         <v>419</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D59" s="3">
         <v>20190101</v>
@@ -13806,7 +13808,7 @@
         <v>421</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D60" s="3">
         <v>20190101</v>
@@ -13820,7 +13822,7 @@
         <v>423</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D61" s="3">
         <v>20190101</v>
@@ -13834,7 +13836,7 @@
         <v>424</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D62" s="3">
         <v>20190101</v>
@@ -13848,7 +13850,7 @@
         <v>425</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D63" s="3">
         <v>20190101</v>
@@ -13862,7 +13864,7 @@
         <v>426</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D64" s="3">
         <v>20190101</v>
@@ -13876,7 +13878,7 @@
         <v>427</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D65" s="3">
         <v>20190101</v>
@@ -13890,7 +13892,7 @@
         <v>428</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D66" s="3">
         <v>20190101</v>
@@ -13904,7 +13906,7 @@
         <v>429</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D67" s="3">
         <v>20190101</v>
@@ -13918,7 +13920,7 @@
         <v>431</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D68" s="3">
         <v>20190101</v>
@@ -13932,7 +13934,7 @@
         <v>432</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D69" s="3">
         <v>20190101</v>
@@ -13946,7 +13948,7 @@
         <v>433</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D70" s="3">
         <v>20190101</v>
@@ -13960,7 +13962,7 @@
         <v>441</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D71" s="3">
         <v>20190101</v>
@@ -13974,7 +13976,7 @@
         <v>442</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D72" s="3">
         <v>20190101</v>
@@ -13988,7 +13990,7 @@
         <v>443</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D73" s="3">
         <v>20190101</v>
@@ -14002,7 +14004,7 @@
         <v>451</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D74" s="3">
         <v>20190101</v>
@@ -14016,7 +14018,7 @@
         <v>491</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D75" s="3">
         <v>20190101</v>
@@ -14030,7 +14032,7 @@
         <v>492</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="3">
         <v>20190101</v>
@@ -14044,7 +14046,7 @@
         <v>493</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="3">
         <v>20190101</v>
@@ -14058,7 +14060,7 @@
         <v>494</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="3">
         <v>20190101</v>
@@ -14072,7 +14074,7 @@
         <v>495</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="3">
         <v>20190101</v>
@@ -14086,7 +14088,7 @@
         <v>496</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D80" s="3">
         <v>20190101</v>
@@ -14100,7 +14102,7 @@
         <v>497</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" s="3">
         <v>20190101</v>
@@ -14114,7 +14116,7 @@
         <v>499</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D82" s="3">
         <v>20190101</v>
@@ -14128,7 +14130,7 @@
         <v>511</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D83" s="3">
         <v>20190101</v>
@@ -14142,7 +14144,7 @@
         <v>513</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D84" s="3">
         <v>20190101</v>
@@ -14156,7 +14158,7 @@
         <v>514</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D85" s="3">
         <v>20190101</v>
@@ -14170,7 +14172,7 @@
         <v>515</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D86" s="3">
         <v>20190101</v>
@@ -14184,7 +14186,7 @@
         <v>516</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D87" s="3">
         <v>20190101</v>
@@ -14198,7 +14200,7 @@
         <v>517</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D88" s="3">
         <v>20190101</v>
@@ -14212,7 +14214,7 @@
         <v>518</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D89" s="3">
         <v>20190101</v>
@@ -14226,7 +14228,7 @@
         <v>519</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D90" s="3">
         <v>20190101</v>
@@ -14240,7 +14242,7 @@
         <v>521</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D91" s="3">
         <v>20190101</v>
@@ -14254,7 +14256,7 @@
         <v>522</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D92" s="3">
         <v>20190101</v>
@@ -14268,7 +14270,7 @@
         <v>523</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D93" s="3">
         <v>20190101</v>
@@ -14282,7 +14284,7 @@
         <v>524</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D94" s="3">
         <v>20190101</v>
@@ -14296,7 +14298,7 @@
         <v>644</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D95" s="3">
         <v>20190101</v>
@@ -14310,7 +14312,7 @@
         <v>611</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D96" s="3">
         <v>20190101</v>
@@ -14324,7 +14326,7 @@
         <v>612</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D97" s="3">
         <v>20190101</v>
@@ -14338,7 +14340,7 @@
         <v>613</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D98" s="3">
         <v>20190101</v>
@@ -14352,7 +14354,7 @@
         <v>614</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D99" s="3">
         <v>20190101</v>
@@ -14366,7 +14368,7 @@
         <v>615</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D100" s="3">
         <v>20190101</v>
@@ -14380,7 +14382,7 @@
         <v>617</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D101" s="3">
         <v>20190101</v>
@@ -14394,7 +14396,7 @@
         <v>619</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D102" s="3">
         <v>20190101</v>
@@ -14408,7 +14410,7 @@
         <v>621</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D103" s="3">
         <v>20190101</v>
@@ -14422,7 +14424,7 @@
         <v>622</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D104" s="3">
         <v>20190101</v>
@@ -14436,7 +14438,7 @@
         <v>631</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D105" s="3">
         <v>20190101</v>
@@ -14450,7 +14452,7 @@
         <v>632</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D106" s="3">
         <v>20190101</v>
@@ -14464,7 +14466,7 @@
         <v>633</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D107" s="3">
         <v>20190101</v>
@@ -14478,7 +14480,7 @@
         <v>641</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D108" s="3">
         <v>20190101</v>
@@ -14492,7 +14494,7 @@
         <v>642</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D109" s="3">
         <v>20190101</v>
@@ -14506,7 +14508,7 @@
         <v>643</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D110" s="3">
         <v>20190101</v>
@@ -14520,7 +14522,7 @@
         <v>645</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D111" s="3">
         <v>20190101</v>
@@ -14534,7 +14536,7 @@
         <v>646</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D112" s="3">
         <v>20190101</v>
@@ -14548,7 +14550,7 @@
         <v>647</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D113" s="3">
         <v>20190101</v>
@@ -14562,7 +14564,7 @@
         <v>691</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D114" s="3">
         <v>20190101</v>
@@ -14576,7 +14578,7 @@
         <v>692</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D115" s="3">
         <v>20190101</v>
@@ -14590,7 +14592,7 @@
         <v>693</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D116" s="3">
         <v>20190101</v>
@@ -14604,7 +14606,7 @@
         <v>694</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D117" s="3">
         <v>20190101</v>
@@ -14618,7 +14620,7 @@
         <v>697</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D118" s="3">
         <v>20190101</v>
@@ -14632,7 +14634,7 @@
         <v>699</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D119" s="3">
         <v>20190101</v>
@@ -14646,7 +14648,7 @@
         <v>711</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D120" s="3">
         <v>20190101</v>
@@ -14660,7 +14662,7 @@
         <v>712</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D121" s="3">
         <v>20190101</v>
@@ -14674,7 +14676,7 @@
         <v>713</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D122" s="3">
         <v>20190101</v>
@@ -14688,7 +14690,7 @@
         <v>714</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D123" s="3">
         <v>20190101</v>
@@ -14702,7 +14704,7 @@
         <v>715</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D124" s="3">
         <v>20190101</v>
@@ -14716,7 +14718,7 @@
         <v>716</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D125" s="3">
         <v>20190101</v>
@@ -14730,7 +14732,7 @@
         <v>717</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D126" s="3">
         <v>20190101</v>
@@ -14744,7 +14746,7 @@
         <v>718</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D127" s="3">
         <v>20190101</v>
@@ -14758,7 +14760,7 @@
         <v>719</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D128" s="3">
         <v>20190101</v>
@@ -14772,7 +14774,7 @@
         <v>721</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D129" s="3">
         <v>20190101</v>
@@ -14786,7 +14788,7 @@
         <v>722</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D130" s="3">
         <v>20190101</v>
@@ -14800,7 +14802,7 @@
         <v>723</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D131" s="3">
         <v>20190101</v>
@@ -14814,7 +14816,7 @@
         <v>724</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D132" s="3">
         <v>20190101</v>
@@ -14828,7 +14830,7 @@
         <v>725</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D133" s="3">
         <v>20190101</v>
@@ -14842,7 +14844,7 @@
         <v>726</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D134" s="3">
         <v>20190101</v>
@@ -14856,7 +14858,7 @@
         <v>727</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D135" s="3">
         <v>20190101</v>
@@ -14870,7 +14872,7 @@
         <v>728</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D136" s="3">
         <v>20190101</v>
@@ -14884,7 +14886,7 @@
         <v>729</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D137" s="3">
         <v>20190101</v>
@@ -14898,7 +14900,7 @@
         <v>731</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D138" s="3">
         <v>20190101</v>
@@ -14912,7 +14914,7 @@
         <v>732</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D139" s="3">
         <v>20190101</v>
@@ -14926,7 +14928,7 @@
         <v>733</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D140" s="3">
         <v>20190101</v>
@@ -14940,7 +14942,7 @@
         <v>734</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D141" s="3">
         <v>20190101</v>
@@ -14954,7 +14956,7 @@
         <v>735</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D142" s="3">
         <v>20190101</v>
@@ -14968,7 +14970,7 @@
         <v>736</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D143" s="3">
         <v>20190101</v>
@@ -14982,7 +14984,7 @@
         <v>737</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D144" s="3">
         <v>20190101</v>
@@ -14996,7 +14998,7 @@
         <v>738</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D145" s="3">
         <v>20190101</v>
@@ -15010,7 +15012,7 @@
         <v>739</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D146" s="3">
         <v>20190101</v>
@@ -15024,7 +15026,7 @@
         <v>741</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D147" s="3">
         <v>20190101</v>
@@ -15038,7 +15040,7 @@
         <v>742</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D148" s="3">
         <v>20190101</v>
@@ -15052,7 +15054,7 @@
         <v>743</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D149" s="3">
         <v>20190101</v>
@@ -15066,7 +15068,7 @@
         <v>744</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D150" s="3">
         <v>20190101</v>
@@ -15080,7 +15082,7 @@
         <v>745</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D151" s="3">
         <v>20190101</v>
@@ -15094,7 +15096,7 @@
         <v>747</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D152" s="3">
         <v>20190101</v>
@@ -15108,7 +15110,7 @@
         <v>748</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D153" s="3">
         <v>20190101</v>
@@ -15122,7 +15124,7 @@
         <v>781</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D154" s="3">
         <v>20190101</v>
@@ -15136,7 +15138,7 @@
         <v>782</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D155" s="3">
         <v>20190101</v>
@@ -15150,7 +15152,7 @@
         <v>783</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D156" s="3">
         <v>20190101</v>
@@ -15164,7 +15166,7 @@
         <v>784</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D157" s="3">
         <v>20190101</v>
@@ -15178,7 +15180,7 @@
         <v>785</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D158" s="3">
         <v>20190101</v>
@@ -15192,7 +15194,7 @@
         <v>786</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D159" s="3">
         <v>20190101</v>
@@ -15206,7 +15208,7 @@
         <v>788</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D160" s="3">
         <v>20190101</v>
@@ -15220,7 +15222,7 @@
         <v>789</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D161" s="3">
         <v>20190101</v>
@@ -15234,7 +15236,7 @@
         <v>790</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D162" s="3">
         <v>20190101</v>
@@ -15248,7 +15250,7 @@
         <v>791</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D163" s="3">
         <v>20190101</v>
@@ -15262,7 +15264,7 @@
         <v>792</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D164" s="3">
         <v>20190101</v>
@@ -15276,7 +15278,7 @@
         <v>793</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D165" s="3">
         <v>20190101</v>
@@ -15290,7 +15292,7 @@
         <v>794</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D166" s="3">
         <v>20190101</v>
@@ -15304,7 +15306,7 @@
         <v>795</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D167" s="3">
         <v>20190101</v>
@@ -15318,7 +15320,7 @@
         <v>796</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D168" s="3">
         <v>20190101</v>
@@ -15332,7 +15334,7 @@
         <v>797</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D169" s="3">
         <v>20190101</v>
@@ -15346,7 +15348,7 @@
         <v>799</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D170" s="3">
         <v>20190101</v>
@@ -15360,7 +15362,7 @@
         <v>616</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D171" s="3">
         <v>20190101</v>
@@ -15374,7 +15376,7 @@
         <v>811</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D172" s="3">
         <v>20190101</v>
@@ -15388,7 +15390,7 @@
         <v>812</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D173" s="3">
         <v>20190101</v>
@@ -15402,7 +15404,7 @@
         <v>881</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D174" s="3">
         <v>20190101</v>
@@ -15416,7 +15418,7 @@
         <v>882</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D175" s="3">
         <v>20190101</v>
@@ -15430,7 +15432,7 @@
         <v>883</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D176" s="3">
         <v>20190101</v>
@@ -15444,7 +15446,7 @@
         <v>884</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D177" s="3">
         <v>20190101</v>
@@ -15458,7 +15460,7 @@
         <v>885</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D178" s="3">
         <v>20190101</v>
@@ -15472,7 +15474,7 @@
         <v>886</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D179" s="3">
         <v>20190101</v>
@@ -15486,7 +15488,7 @@
         <v>889</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D180" s="3">
         <v>20190101</v>
@@ -15500,7 +15502,7 @@
         <v>891</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D181" s="3">
         <v>20190101</v>
@@ -15514,7 +15516,7 @@
         <v>892</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D182" s="3">
         <v>20190101</v>
@@ -15528,7 +15530,7 @@
         <v>894</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D183" s="3">
         <v>20190101</v>
@@ -15542,7 +15544,7 @@
         <v>895</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D184" s="3">
         <v>20190101</v>
@@ -15556,7 +15558,7 @@
         <v>896</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D185" s="3">
         <v>20190101</v>
@@ -15570,7 +15572,7 @@
         <v>897</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D186" s="3">
         <v>20190101</v>
@@ -15584,7 +15586,7 @@
         <v>690</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D187" s="3">
         <v>20190101</v>
@@ -15598,7 +15600,7 @@
         <v>226</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D188" s="3">
         <v>20190101</v>
@@ -15612,7 +15614,7 @@
         <v>720</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D189" s="3">
         <v>20190101</v>
@@ -15626,7 +15628,7 @@
         <v>199</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D190" s="3">
         <v>20190101</v>
@@ -15640,7 +15642,7 @@
         <v>399</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D191" s="3">
         <v>20190101</v>
@@ -15654,7 +15656,7 @@
         <v>299</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D192" s="3">
         <v>20190101</v>
@@ -15668,7 +15670,7 @@
         <v>599</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D193" s="3">
         <v>20190101</v>
@@ -15682,7 +15684,7 @@
         <v>689</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D194" s="3">
         <v>20190101</v>
@@ -15696,7 +15698,7 @@
         <v>821</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D195" s="3">
         <v>20190101</v>
@@ -15710,7 +15712,7 @@
         <v>822</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D196" s="3">
         <v>20190101</v>
@@ -15724,7 +15726,7 @@
         <v>823</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D197" s="3">
         <v>20190101</v>
@@ -15738,7 +15740,7 @@
         <v>824</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D198" s="3">
         <v>20190101</v>
@@ -15752,7 +15754,7 @@
         <v>825</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D199" s="3">
         <v>20190101</v>
@@ -15766,7 +15768,7 @@
         <v>218</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D200" s="3">
         <v>20190101</v>
@@ -15780,7 +15782,7 @@
         <v>219</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D201" s="3">
         <v>20190101</v>
@@ -15794,7 +15796,7 @@
         <v>229</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D202" s="3">
         <v>20190101</v>
@@ -15808,7 +15810,7 @@
         <v>751</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D203" s="3">
         <v>20190101</v>
@@ -15822,7 +15824,7 @@
         <v>752</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D204" s="3">
         <v>20190101</v>
@@ -15836,7 +15838,7 @@
         <v>181</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D205" s="3">
         <v>20190101</v>
@@ -15850,7 +15852,7 @@
         <v>227</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D206" s="3">
         <v>20190101</v>
@@ -15864,7 +15866,7 @@
         <v>228</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D207" s="3">
         <v>20190101</v>
@@ -15878,7 +15880,7 @@
         <v>498</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D208" s="3">
         <v>20190101</v>
@@ -15892,7 +15894,7 @@
         <v>816</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D209" s="3">
         <v>20190101</v>
@@ -15906,7 +15908,7 @@
         <v>592</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D210" s="3">
         <v>20190101</v>
@@ -15920,7 +15922,7 @@
         <v>246</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D211" s="3">
         <v>20190101</v>
@@ -15934,7 +15936,7 @@
         <v>247</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D212" s="3">
         <v>20190101</v>
@@ -15948,7 +15950,7 @@
         <v>730</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D213" s="3">
         <v>20190101</v>
@@ -15962,7 +15964,7 @@
         <v>211</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D214" s="3">
         <v>20190101</v>
@@ -15976,7 +15978,7 @@
         <v>212</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D215" s="3">
         <v>20190101</v>
@@ -15990,7 +15992,7 @@
         <v>213</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D216" s="3">
         <v>20190101</v>
@@ -16004,7 +16006,7 @@
         <v>214</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D217" s="3">
         <v>20190101</v>
@@ -16018,7 +16020,7 @@
         <v>215</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D218" s="3">
         <v>20190101</v>
@@ -16032,7 +16034,7 @@
         <v>216</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D219" s="3">
         <v>20190101</v>
@@ -16046,7 +16048,7 @@
         <v>217</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D220" s="3">
         <v>20190101</v>
@@ -16060,7 +16062,7 @@
         <v>221</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D221" s="3">
         <v>20190101</v>
@@ -16074,7 +16076,7 @@
         <v>222</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D222" s="3">
         <v>20190101</v>
@@ -16088,7 +16090,7 @@
         <v>223</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D223" s="3">
         <v>20190101</v>
@@ -16102,7 +16104,7 @@
         <v>224</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D224" s="3">
         <v>20190101</v>
@@ -16116,7 +16118,7 @@
         <v>225</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D225" s="3">
         <v>20190101</v>
@@ -16130,7 +16132,7 @@
         <v>231</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D226" s="3">
         <v>20190101</v>
@@ -16144,7 +16146,7 @@
         <v>233</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D227" s="3">
         <v>20190101</v>
@@ -16158,7 +16160,7 @@
         <v>234</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D228" s="3">
         <v>20190101</v>
@@ -16172,7 +16174,7 @@
         <v>235</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D229" s="3">
         <v>20190101</v>
@@ -16186,7 +16188,7 @@
         <v>236</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D230" s="3">
         <v>20190101</v>
@@ -16200,7 +16202,7 @@
         <v>292</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D231" s="3">
         <v>20190101</v>
@@ -16214,7 +16216,7 @@
         <v>293</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D232" s="3">
         <v>20190101</v>
@@ -16228,7 +16230,7 @@
         <v>294</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D233" s="3">
         <v>20190101</v>
@@ -16242,7 +16244,7 @@
         <v>241</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D234" s="3">
         <v>20190101</v>
@@ -16256,7 +16258,7 @@
         <v>242</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D235" s="3">
         <v>20190101</v>
@@ -16270,7 +16272,7 @@
         <v>243</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D236" s="3">
         <v>20190101</v>
@@ -16284,7 +16286,7 @@
         <v>244</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D237" s="3">
         <v>20190101</v>
@@ -16298,7 +16300,7 @@
         <v>245</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D238" s="3">
         <v>20190101</v>
@@ -16312,7 +16314,7 @@
         <v>251</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D239" s="3">
         <v>20190101</v>
@@ -16326,7 +16328,7 @@
         <v>252</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D240" s="3">
         <v>20190101</v>
@@ -16340,7 +16342,7 @@
         <v>253</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D241" s="3">
         <v>20190101</v>
@@ -16354,7 +16356,7 @@
         <v>312</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D242" s="3">
         <v>20190101</v>
@@ -16368,7 +16370,7 @@
         <v>313</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D243" s="3">
         <v>20190101</v>
@@ -16382,7 +16384,7 @@
         <v>314</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D244" s="3">
         <v>20190101</v>
@@ -16396,7 +16398,7 @@
         <v>315</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D245" s="3">
         <v>20190101</v>
@@ -16410,7 +16412,7 @@
         <v>316</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D246" s="3">
         <v>20190101</v>
@@ -16424,7 +16426,7 @@
         <v>317</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D247" s="3">
         <v>20190101</v>
@@ -16438,7 +16440,7 @@
         <v>318</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D248" s="3">
         <v>20190101</v>
@@ -16452,7 +16454,7 @@
         <v>321</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D249" s="3">
         <v>20190101</v>
@@ -16466,7 +16468,7 @@
         <v>322</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D250" s="3">
         <v>20190101</v>
@@ -16480,7 +16482,7 @@
         <v>323</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D251" s="3">
         <v>20190101</v>
@@ -16494,7 +16496,7 @@
         <v>325</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D252" s="3">
         <v>20190101</v>
@@ -16508,7 +16510,7 @@
         <v>330</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D253" s="3">
         <v>20190101</v>
@@ -16522,7 +16524,7 @@
         <v>331</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D254" s="3">
         <v>20190101</v>
@@ -16536,7 +16538,7 @@
         <v>334</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D255" s="3">
         <v>20190101</v>
@@ -16550,7 +16552,7 @@
         <v>226</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D256" s="3">
         <v>20190101</v>
@@ -16564,7 +16566,7 @@
         <v>399</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D257" s="3">
         <v>20190101</v>
@@ -16578,7 +16580,7 @@
         <v>299</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D258" s="3">
         <v>20190101</v>
@@ -16592,7 +16594,7 @@
         <v>218</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D259" s="3">
         <v>20190101</v>
@@ -16606,7 +16608,7 @@
         <v>219</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D260" s="3">
         <v>20190101</v>
@@ -16620,7 +16622,7 @@
         <v>229</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D261" s="3">
         <v>20190101</v>
@@ -16634,7 +16636,7 @@
         <v>227</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D262" s="3">
         <v>20190101</v>
@@ -16648,7 +16650,7 @@
         <v>228</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D263" s="3">
         <v>20190101</v>
@@ -16662,7 +16664,7 @@
         <v>592</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D264" s="3">
         <v>20190101</v>
@@ -16676,7 +16678,7 @@
         <v>246</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D265" s="3">
         <v>20190101</v>
@@ -16690,7 +16692,7 @@
         <v>247</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D266" s="3">
         <v>20190101</v>
@@ -16704,7 +16706,7 @@
         <v>695</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D267" s="2">
         <v>20190702</v>

--- a/metadata/geography.xlsx
+++ b/metadata/geography.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viwong\Desktop\tradestat_formal\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC61425D-7114-48A1-9917-0F2FB26F9E1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B754CA-7DFA-45EC-BF09-52DE9C5C0B54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="1305" windowWidth="21675" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="390" windowWidth="21690" windowHeight="13530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="area" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">areacnty!$A$2:$C$266</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">country!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">regcnty!$A$2:$D$345</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">regcnty!$A$1:$D$360</definedName>
     <definedName name="area" localSheetId="1">country!$A$1:$C$9</definedName>
     <definedName name="area" localSheetId="2">region!$A$1:$C$9</definedName>
     <definedName name="area">area!$A$1:$C$9</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="494">
   <si>
     <t>AREACODE</t>
   </si>
@@ -3238,9 +3246,6 @@
     <t>中國內地</t>
   </si>
   <si>
-    <t>POSTAL PACKAGE</t>
-  </si>
-  <si>
     <t>ADJUST_DATE</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -3253,6 +3258,15 @@
   </si>
   <si>
     <t>北馬其頓</t>
+  </si>
+  <si>
+    <t>COUNTRY UNKNOWN</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>E.U.(EXCL UK after Brexit)</t>
   </si>
 </sst>
 </file>
@@ -3679,7 +3693,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -3880,8 +3894,8 @@
   <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3912,7 +3926,7 @@
         <v>247</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4447,10 +4461,10 @@
         <v>245</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>491</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>221</v>
@@ -5926,7 +5940,7 @@
         <v>631</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>486</v>
@@ -7527,7 +7541,7 @@
         <v>900</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>468</v>
@@ -7539,7 +7553,7 @@
         <v>20190101</v>
       </c>
       <c r="F214" s="3">
-        <v>20191205</v>
+        <v>20200225</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -7573,10 +7587,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7878,6 +7892,23 @@
         <v>20190809</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>110</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E18" s="2">
+        <v>20200226</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7892,12 +7923,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:D360"/>
+  <dimension ref="A1:D387"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B14" sqref="B14"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12947,6 +12978,384 @@
       </c>
       <c r="D360" s="2">
         <v>20190809</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" s="2">
+        <v>110</v>
+      </c>
+      <c r="B361" s="2">
+        <v>211</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D361" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" s="2">
+        <v>110</v>
+      </c>
+      <c r="B362" s="2">
+        <v>212</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D362" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" s="2">
+        <v>110</v>
+      </c>
+      <c r="B363" s="2">
+        <v>214</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D363" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" s="2">
+        <v>110</v>
+      </c>
+      <c r="B364" s="2">
+        <v>216</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D364" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" s="2">
+        <v>110</v>
+      </c>
+      <c r="B365" s="2">
+        <v>217</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D365" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" s="2">
+        <v>110</v>
+      </c>
+      <c r="B366" s="2">
+        <v>221</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D366" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" s="2">
+        <v>110</v>
+      </c>
+      <c r="B367" s="2">
+        <v>222</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D367" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" s="2">
+        <v>110</v>
+      </c>
+      <c r="B368" s="2">
+        <v>223</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D368" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" s="2">
+        <v>110</v>
+      </c>
+      <c r="B369" s="2">
+        <v>224</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D369" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" s="2">
+        <v>110</v>
+      </c>
+      <c r="B370" s="2">
+        <v>225</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D370" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" s="2">
+        <v>110</v>
+      </c>
+      <c r="B371" s="2">
+        <v>231</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D371" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" s="2">
+        <v>110</v>
+      </c>
+      <c r="B372" s="2">
+        <v>233</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D372" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" s="2">
+        <v>110</v>
+      </c>
+      <c r="B373" s="2">
+        <v>236</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D373" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" s="2">
+        <v>110</v>
+      </c>
+      <c r="B374" s="2">
+        <v>219</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D374" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375" s="2">
+        <v>110</v>
+      </c>
+      <c r="B375" s="2">
+        <v>243</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D375" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" s="2">
+        <v>110</v>
+      </c>
+      <c r="B376" s="2">
+        <v>251</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D376" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377" s="2">
+        <v>110</v>
+      </c>
+      <c r="B377" s="2">
+        <v>252</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D377" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378" s="2">
+        <v>110</v>
+      </c>
+      <c r="B378" s="2">
+        <v>253</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D378" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379" s="2">
+        <v>110</v>
+      </c>
+      <c r="B379" s="2">
+        <v>293</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D379" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" s="2">
+        <v>110</v>
+      </c>
+      <c r="B380" s="2">
+        <v>314</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D380" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381" s="2">
+        <v>110</v>
+      </c>
+      <c r="B381" s="2">
+        <v>315</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D381" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382" s="2">
+        <v>110</v>
+      </c>
+      <c r="B382" s="2">
+        <v>316</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D382" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383" s="2">
+        <v>110</v>
+      </c>
+      <c r="B383" s="2">
+        <v>317</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D383" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384" s="2">
+        <v>110</v>
+      </c>
+      <c r="B384" s="2">
+        <v>592</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D384" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385" s="2">
+        <v>110</v>
+      </c>
+      <c r="B385" s="2">
+        <v>313</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D385" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386" s="2">
+        <v>110</v>
+      </c>
+      <c r="B386" s="2">
+        <v>318</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D386" s="2">
+        <v>20190226</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387" s="2">
+        <v>110</v>
+      </c>
+      <c r="B387" s="2">
+        <v>242</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D387" s="2">
+        <v>20190226</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/geography.xlsx
+++ b/metadata/geography.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viwong\Desktop\tradestat_formal\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F57A165-C495-4758-8F19-DE9156ABA0F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70D201B-F129-47BC-AF55-98D732D3D23C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="690" windowWidth="19770" windowHeight="13530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="700" windowWidth="18080" windowHeight="9380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="area" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="areacnty" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">areacnty!$A$2:$C$266</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">areacnty!$A$1:$D$267</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">country!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">regcnty!$A$1:$D$387</definedName>
     <definedName name="area" localSheetId="1">country!$A$1:$C$9</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="497">
   <si>
     <t>AREACODE</t>
   </si>
@@ -3093,6 +3093,12 @@
   </si>
   <si>
     <t>歐盟（２８）</t>
+  </si>
+  <si>
+    <t>EMERGING EUROPE</t>
+  </si>
+  <si>
+    <t>歐洲新興市場</t>
   </si>
 </sst>
 </file>
@@ -3520,23 +3526,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3553,7 +3559,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -3570,7 +3576,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>200</v>
       </c>
@@ -3587,7 +3593,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>300</v>
       </c>
@@ -3604,7 +3610,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>400</v>
       </c>
@@ -3621,7 +3627,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>500</v>
       </c>
@@ -3638,7 +3644,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>600</v>
       </c>
@@ -3655,7 +3661,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>700</v>
       </c>
@@ -3672,7 +3678,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>800</v>
       </c>
@@ -3689,7 +3695,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>900</v>
       </c>
@@ -3704,6 +3710,23 @@
       </c>
       <c r="E10" s="3">
         <v>20190101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>910</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20201028</v>
       </c>
     </row>
   </sheetData>
@@ -3723,22 +3746,22 @@
   <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="40.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3758,7 +3781,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>111</v>
       </c>
@@ -3775,7 +3798,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>181</v>
       </c>
@@ -3792,7 +3815,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>191</v>
       </c>
@@ -3809,7 +3832,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>199</v>
       </c>
@@ -3826,7 +3849,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>211</v>
       </c>
@@ -3843,7 +3866,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>212</v>
       </c>
@@ -3860,7 +3883,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>213</v>
       </c>
@@ -3877,7 +3900,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>214</v>
       </c>
@@ -3894,7 +3917,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>215</v>
       </c>
@@ -3911,7 +3934,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>216</v>
       </c>
@@ -3928,7 +3951,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>217</v>
       </c>
@@ -3945,7 +3968,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>218</v>
       </c>
@@ -3962,7 +3985,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>219</v>
       </c>
@@ -3979,7 +4002,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>221</v>
       </c>
@@ -3996,7 +4019,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>222</v>
       </c>
@@ -4013,7 +4036,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>223</v>
       </c>
@@ -4030,7 +4053,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>224</v>
       </c>
@@ -4047,7 +4070,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>225</v>
       </c>
@@ -4064,7 +4087,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>226</v>
       </c>
@@ -4081,7 +4104,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>227</v>
       </c>
@@ -4098,7 +4121,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>228</v>
       </c>
@@ -4115,7 +4138,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>229</v>
       </c>
@@ -4132,7 +4155,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>231</v>
       </c>
@@ -4149,7 +4172,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>233</v>
       </c>
@@ -4166,7 +4189,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>234</v>
       </c>
@@ -4183,7 +4206,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>235</v>
       </c>
@@ -4200,7 +4223,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>236</v>
       </c>
@@ -4217,7 +4240,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>241</v>
       </c>
@@ -4234,7 +4257,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>242</v>
       </c>
@@ -4251,7 +4274,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>243</v>
       </c>
@@ -4268,7 +4291,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>244</v>
       </c>
@@ -4285,7 +4308,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>245</v>
       </c>
@@ -4305,7 +4328,7 @@
         <v>20200221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>246</v>
       </c>
@@ -4322,7 +4345,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>247</v>
       </c>
@@ -4339,7 +4362,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>251</v>
       </c>
@@ -4356,7 +4379,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>252</v>
       </c>
@@ -4373,7 +4396,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>253</v>
       </c>
@@ -4390,7 +4413,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>292</v>
       </c>
@@ -4407,7 +4430,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>293</v>
       </c>
@@ -4424,7 +4447,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>294</v>
       </c>
@@ -4441,7 +4464,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>299</v>
       </c>
@@ -4458,7 +4481,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>312</v>
       </c>
@@ -4475,7 +4498,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>313</v>
       </c>
@@ -4492,7 +4515,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>314</v>
       </c>
@@ -4509,7 +4532,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>315</v>
       </c>
@@ -4526,7 +4549,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>316</v>
       </c>
@@ -4543,7 +4566,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>317</v>
       </c>
@@ -4560,7 +4583,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>318</v>
       </c>
@@ -4577,7 +4600,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>321</v>
       </c>
@@ -4594,7 +4617,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>322</v>
       </c>
@@ -4611,7 +4634,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>323</v>
       </c>
@@ -4628,7 +4651,7 @@
         <v>20190313</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>325</v>
       </c>
@@ -4645,7 +4668,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>326</v>
       </c>
@@ -4662,7 +4685,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>327</v>
       </c>
@@ -4679,7 +4702,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>330</v>
       </c>
@@ -4696,7 +4719,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>331</v>
       </c>
@@ -4713,7 +4736,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>332</v>
       </c>
@@ -4730,7 +4753,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>333</v>
       </c>
@@ -4747,7 +4770,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>334</v>
       </c>
@@ -4764,7 +4787,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>335</v>
       </c>
@@ -4781,7 +4804,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>399</v>
       </c>
@@ -4798,7 +4821,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>411</v>
       </c>
@@ -4815,7 +4838,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>412</v>
       </c>
@@ -4832,7 +4855,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>413</v>
       </c>
@@ -4849,7 +4872,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>414</v>
       </c>
@@ -4866,7 +4889,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>415</v>
       </c>
@@ -4883,7 +4906,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>416</v>
       </c>
@@ -4900,7 +4923,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>417</v>
       </c>
@@ -4917,7 +4940,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>418</v>
       </c>
@@ -4934,7 +4957,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>419</v>
       </c>
@@ -4951,7 +4974,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>421</v>
       </c>
@@ -4968,7 +4991,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>423</v>
       </c>
@@ -4985,7 +5008,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>424</v>
       </c>
@@ -5002,7 +5025,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>425</v>
       </c>
@@ -5019,7 +5042,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>426</v>
       </c>
@@ -5036,7 +5059,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>427</v>
       </c>
@@ -5053,7 +5076,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>428</v>
       </c>
@@ -5070,7 +5093,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>429</v>
       </c>
@@ -5087,7 +5110,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>431</v>
       </c>
@@ -5104,7 +5127,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>432</v>
       </c>
@@ -5121,7 +5144,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>433</v>
       </c>
@@ -5138,7 +5161,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>441</v>
       </c>
@@ -5155,7 +5178,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>442</v>
       </c>
@@ -5172,7 +5195,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>443</v>
       </c>
@@ -5189,7 +5212,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>451</v>
       </c>
@@ -5206,7 +5229,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>491</v>
       </c>
@@ -5223,7 +5246,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>492</v>
       </c>
@@ -5240,7 +5263,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>493</v>
       </c>
@@ -5257,7 +5280,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>494</v>
       </c>
@@ -5274,7 +5297,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>495</v>
       </c>
@@ -5291,7 +5314,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>496</v>
       </c>
@@ -5308,7 +5331,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>497</v>
       </c>
@@ -5325,7 +5348,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>498</v>
       </c>
@@ -5342,7 +5365,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>499</v>
       </c>
@@ -5359,7 +5382,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>511</v>
       </c>
@@ -5376,7 +5399,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>513</v>
       </c>
@@ -5393,7 +5416,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>514</v>
       </c>
@@ -5410,7 +5433,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>515</v>
       </c>
@@ -5427,7 +5450,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>516</v>
       </c>
@@ -5444,7 +5467,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>517</v>
       </c>
@@ -5461,7 +5484,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>518</v>
       </c>
@@ -5478,7 +5501,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>519</v>
       </c>
@@ -5495,7 +5518,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>521</v>
       </c>
@@ -5512,7 +5535,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>522</v>
       </c>
@@ -5529,7 +5552,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>523</v>
       </c>
@@ -5546,7 +5569,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>524</v>
       </c>
@@ -5563,7 +5586,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>592</v>
       </c>
@@ -5580,7 +5603,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>599</v>
       </c>
@@ -5597,7 +5620,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>611</v>
       </c>
@@ -5614,7 +5637,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>612</v>
       </c>
@@ -5631,7 +5654,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>613</v>
       </c>
@@ -5648,7 +5671,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>614</v>
       </c>
@@ -5665,7 +5688,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>615</v>
       </c>
@@ -5682,7 +5705,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>616</v>
       </c>
@@ -5699,7 +5722,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>617</v>
       </c>
@@ -5716,7 +5739,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>619</v>
       </c>
@@ -5733,7 +5756,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>621</v>
       </c>
@@ -5750,7 +5773,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>622</v>
       </c>
@@ -5767,7 +5790,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>631</v>
       </c>
@@ -5787,7 +5810,7 @@
         <v>20191205</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>632</v>
       </c>
@@ -5804,7 +5827,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>633</v>
       </c>
@@ -5821,7 +5844,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>641</v>
       </c>
@@ -5838,7 +5861,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>642</v>
       </c>
@@ -5855,7 +5878,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>643</v>
       </c>
@@ -5872,7 +5895,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>644</v>
       </c>
@@ -5889,7 +5912,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>645</v>
       </c>
@@ -5906,7 +5929,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>646</v>
       </c>
@@ -5923,7 +5946,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>647</v>
       </c>
@@ -5940,7 +5963,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>689</v>
       </c>
@@ -5957,7 +5980,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>690</v>
       </c>
@@ -5974,7 +5997,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>691</v>
       </c>
@@ -5991,7 +6014,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>692</v>
       </c>
@@ -6008,7 +6031,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>693</v>
       </c>
@@ -6025,7 +6048,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>694</v>
       </c>
@@ -6042,7 +6065,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>697</v>
       </c>
@@ -6059,7 +6082,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>699</v>
       </c>
@@ -6076,7 +6099,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>711</v>
       </c>
@@ -6093,7 +6116,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>712</v>
       </c>
@@ -6110,7 +6133,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>713</v>
       </c>
@@ -6127,7 +6150,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>714</v>
       </c>
@@ -6144,7 +6167,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>715</v>
       </c>
@@ -6161,7 +6184,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>716</v>
       </c>
@@ -6178,7 +6201,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>717</v>
       </c>
@@ -6195,7 +6218,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>718</v>
       </c>
@@ -6212,7 +6235,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>719</v>
       </c>
@@ -6229,7 +6252,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>720</v>
       </c>
@@ -6246,7 +6269,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>721</v>
       </c>
@@ -6263,7 +6286,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>722</v>
       </c>
@@ -6280,7 +6303,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>723</v>
       </c>
@@ -6297,7 +6320,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>724</v>
       </c>
@@ -6314,7 +6337,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>725</v>
       </c>
@@ -6331,7 +6354,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>726</v>
       </c>
@@ -6348,7 +6371,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>727</v>
       </c>
@@ -6365,7 +6388,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>728</v>
       </c>
@@ -6382,7 +6405,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>729</v>
       </c>
@@ -6399,7 +6422,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>730</v>
       </c>
@@ -6416,7 +6439,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>731</v>
       </c>
@@ -6433,7 +6456,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>732</v>
       </c>
@@ -6450,7 +6473,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>733</v>
       </c>
@@ -6467,7 +6490,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>734</v>
       </c>
@@ -6484,7 +6507,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>735</v>
       </c>
@@ -6501,7 +6524,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>736</v>
       </c>
@@ -6518,7 +6541,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>737</v>
       </c>
@@ -6535,7 +6558,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>738</v>
       </c>
@@ -6552,7 +6575,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>739</v>
       </c>
@@ -6569,7 +6592,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>741</v>
       </c>
@@ -6586,7 +6609,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>742</v>
       </c>
@@ -6603,7 +6626,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>743</v>
       </c>
@@ -6620,7 +6643,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>744</v>
       </c>
@@ -6637,7 +6660,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>745</v>
       </c>
@@ -6654,7 +6677,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>747</v>
       </c>
@@ -6671,7 +6694,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>748</v>
       </c>
@@ -6688,7 +6711,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>751</v>
       </c>
@@ -6705,7 +6728,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>752</v>
       </c>
@@ -6722,7 +6745,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>781</v>
       </c>
@@ -6739,7 +6762,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>782</v>
       </c>
@@ -6756,7 +6779,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>783</v>
       </c>
@@ -6773,7 +6796,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>784</v>
       </c>
@@ -6790,7 +6813,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>785</v>
       </c>
@@ -6807,7 +6830,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>786</v>
       </c>
@@ -6824,7 +6847,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>788</v>
       </c>
@@ -6841,7 +6864,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>789</v>
       </c>
@@ -6858,7 +6881,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>790</v>
       </c>
@@ -6875,7 +6898,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>791</v>
       </c>
@@ -6892,7 +6915,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>792</v>
       </c>
@@ -6909,7 +6932,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>793</v>
       </c>
@@ -6926,7 +6949,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>794</v>
       </c>
@@ -6943,7 +6966,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>795</v>
       </c>
@@ -6960,7 +6983,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>796</v>
       </c>
@@ -6977,7 +7000,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>797</v>
       </c>
@@ -6994,7 +7017,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>799</v>
       </c>
@@ -7011,7 +7034,7 @@
         <v>20190227</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>811</v>
       </c>
@@ -7028,7 +7051,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>812</v>
       </c>
@@ -7045,7 +7068,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>816</v>
       </c>
@@ -7062,7 +7085,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>821</v>
       </c>
@@ -7079,7 +7102,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>822</v>
       </c>
@@ -7096,7 +7119,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>823</v>
       </c>
@@ -7113,7 +7136,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>824</v>
       </c>
@@ -7130,7 +7153,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>825</v>
       </c>
@@ -7147,7 +7170,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>881</v>
       </c>
@@ -7164,7 +7187,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>882</v>
       </c>
@@ -7181,7 +7204,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>883</v>
       </c>
@@ -7198,7 +7221,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>884</v>
       </c>
@@ -7215,7 +7238,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>885</v>
       </c>
@@ -7232,7 +7255,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>886</v>
       </c>
@@ -7249,7 +7272,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>889</v>
       </c>
@@ -7266,7 +7289,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>891</v>
       </c>
@@ -7283,7 +7306,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>892</v>
       </c>
@@ -7300,7 +7323,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>894</v>
       </c>
@@ -7317,7 +7340,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>895</v>
       </c>
@@ -7334,7 +7357,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>896</v>
       </c>
@@ -7351,7 +7374,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>897</v>
       </c>
@@ -7368,7 +7391,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>900</v>
       </c>
@@ -7388,7 +7411,7 @@
         <v>20200225</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>695</v>
       </c>
@@ -7425,17 +7448,17 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>213</v>
       </c>
@@ -7452,7 +7475,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -7469,7 +7492,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>200</v>
       </c>
@@ -7486,7 +7509,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>300</v>
       </c>
@@ -7503,7 +7526,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>400</v>
       </c>
@@ -7520,7 +7543,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>500</v>
       </c>
@@ -7537,7 +7560,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>900</v>
       </c>
@@ -7554,7 +7577,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>950</v>
       </c>
@@ -7571,7 +7594,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>960</v>
       </c>
@@ -7588,7 +7611,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>970</v>
       </c>
@@ -7605,7 +7628,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>980</v>
       </c>
@@ -7622,7 +7645,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>990</v>
       </c>
@@ -7639,7 +7662,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>310</v>
       </c>
@@ -7656,7 +7679,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>240</v>
       </c>
@@ -7673,7 +7696,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>940</v>
       </c>
@@ -7690,7 +7713,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>410</v>
       </c>
@@ -7707,7 +7730,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>998</v>
       </c>
@@ -7724,7 +7747,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>110</v>
       </c>
@@ -7757,22 +7780,22 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D387"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B14" sqref="B14"/>
       <selection pane="bottomLeft" activeCell="B387" sqref="B387"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>222</v>
       </c>
@@ -7786,7 +7809,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -7800,7 +7823,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -7814,7 +7837,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>100</v>
       </c>
@@ -7828,7 +7851,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -7842,7 +7865,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>100</v>
       </c>
@@ -7856,7 +7879,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>100</v>
       </c>
@@ -7870,7 +7893,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>100</v>
       </c>
@@ -7884,7 +7907,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>100</v>
       </c>
@@ -7898,7 +7921,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>100</v>
       </c>
@@ -7912,7 +7935,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>100</v>
       </c>
@@ -7926,7 +7949,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>100</v>
       </c>
@@ -7940,7 +7963,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>100</v>
       </c>
@@ -7954,7 +7977,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>100</v>
       </c>
@@ -7968,7 +7991,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>100</v>
       </c>
@@ -7982,7 +8005,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>200</v>
       </c>
@@ -7996,7 +8019,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>200</v>
       </c>
@@ -8010,7 +8033,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>200</v>
       </c>
@@ -8024,7 +8047,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>200</v>
       </c>
@@ -8038,7 +8061,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>500</v>
       </c>
@@ -8052,7 +8075,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>500</v>
       </c>
@@ -8066,7 +8089,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>500</v>
       </c>
@@ -8080,7 +8103,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>500</v>
       </c>
@@ -8094,7 +8117,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>500</v>
       </c>
@@ -8108,7 +8131,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>500</v>
       </c>
@@ -8122,7 +8145,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>500</v>
       </c>
@@ -8136,7 +8159,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>500</v>
       </c>
@@ -8150,7 +8173,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>500</v>
       </c>
@@ -8164,7 +8187,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>500</v>
       </c>
@@ -8178,7 +8201,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>500</v>
       </c>
@@ -8192,7 +8215,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>500</v>
       </c>
@@ -8206,7 +8229,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>900</v>
       </c>
@@ -8220,7 +8243,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>900</v>
       </c>
@@ -8234,7 +8257,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>900</v>
       </c>
@@ -8248,7 +8271,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>900</v>
       </c>
@@ -8262,7 +8285,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>900</v>
       </c>
@@ -8276,7 +8299,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>900</v>
       </c>
@@ -8290,7 +8313,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>900</v>
       </c>
@@ -8304,7 +8327,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>900</v>
       </c>
@@ -8318,7 +8341,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>900</v>
       </c>
@@ -8332,7 +8355,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>900</v>
       </c>
@@ -8346,7 +8369,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>900</v>
       </c>
@@ -8360,7 +8383,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>900</v>
       </c>
@@ -8374,7 +8397,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>900</v>
       </c>
@@ -8388,7 +8411,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>900</v>
       </c>
@@ -8402,7 +8425,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>900</v>
       </c>
@@ -8416,7 +8439,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>900</v>
       </c>
@@ -8430,7 +8453,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>900</v>
       </c>
@@ -8444,7 +8467,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>900</v>
       </c>
@@ -8458,7 +8481,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>900</v>
       </c>
@@ -8472,7 +8495,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>900</v>
       </c>
@@ -8486,7 +8509,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>900</v>
       </c>
@@ -8500,7 +8523,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>900</v>
       </c>
@@ -8514,7 +8537,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>900</v>
       </c>
@@ -8528,7 +8551,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>900</v>
       </c>
@@ -8542,7 +8565,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>900</v>
       </c>
@@ -8556,7 +8579,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>900</v>
       </c>
@@ -8570,7 +8593,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>900</v>
       </c>
@@ -8584,7 +8607,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>900</v>
       </c>
@@ -8598,7 +8621,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>900</v>
       </c>
@@ -8612,7 +8635,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>900</v>
       </c>
@@ -8626,7 +8649,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>900</v>
       </c>
@@ -8640,7 +8663,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>900</v>
       </c>
@@ -8654,7 +8677,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>900</v>
       </c>
@@ -8668,7 +8691,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>900</v>
       </c>
@@ -8682,7 +8705,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>900</v>
       </c>
@@ -8696,7 +8719,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>900</v>
       </c>
@@ -8710,7 +8733,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>900</v>
       </c>
@@ -8724,7 +8747,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>900</v>
       </c>
@@ -8738,7 +8761,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>900</v>
       </c>
@@ -8752,7 +8775,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>900</v>
       </c>
@@ -8766,7 +8789,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>300</v>
       </c>
@@ -8780,7 +8803,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>300</v>
       </c>
@@ -8794,7 +8817,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>300</v>
       </c>
@@ -8808,7 +8831,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>300</v>
       </c>
@@ -8822,7 +8845,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>300</v>
       </c>
@@ -8836,7 +8859,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>300</v>
       </c>
@@ -8850,7 +8873,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>300</v>
       </c>
@@ -8864,7 +8887,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>300</v>
       </c>
@@ -8878,7 +8901,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>300</v>
       </c>
@@ -8892,7 +8915,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>950</v>
       </c>
@@ -8906,7 +8929,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>950</v>
       </c>
@@ -8920,7 +8943,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>950</v>
       </c>
@@ -8934,7 +8957,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>950</v>
       </c>
@@ -8948,7 +8971,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>950</v>
       </c>
@@ -8962,7 +8985,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>950</v>
       </c>
@@ -8976,7 +8999,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>400</v>
       </c>
@@ -8990,7 +9013,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>400</v>
       </c>
@@ -9004,7 +9027,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>400</v>
       </c>
@@ -9018,7 +9041,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>400</v>
       </c>
@@ -9032,7 +9055,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>400</v>
       </c>
@@ -9046,7 +9069,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>400</v>
       </c>
@@ -9060,7 +9083,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>400</v>
       </c>
@@ -9074,7 +9097,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>400</v>
       </c>
@@ -9088,7 +9111,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>400</v>
       </c>
@@ -9102,7 +9125,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>400</v>
       </c>
@@ -9116,7 +9139,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>400</v>
       </c>
@@ -9130,7 +9153,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>400</v>
       </c>
@@ -9144,7 +9167,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>400</v>
       </c>
@@ -9158,7 +9181,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>400</v>
       </c>
@@ -9172,7 +9195,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>400</v>
       </c>
@@ -9186,7 +9209,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>400</v>
       </c>
@@ -9200,7 +9223,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>400</v>
       </c>
@@ -9214,7 +9237,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>400</v>
       </c>
@@ -9228,7 +9251,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>400</v>
       </c>
@@ -9242,7 +9265,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>400</v>
       </c>
@@ -9256,7 +9279,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>400</v>
       </c>
@@ -9270,7 +9293,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>400</v>
       </c>
@@ -9284,7 +9307,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>400</v>
       </c>
@@ -9298,7 +9321,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>300</v>
       </c>
@@ -9312,7 +9335,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>960</v>
       </c>
@@ -9326,7 +9349,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>960</v>
       </c>
@@ -9340,7 +9363,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>960</v>
       </c>
@@ -9354,7 +9377,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>960</v>
       </c>
@@ -9368,7 +9391,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>960</v>
       </c>
@@ -9382,7 +9405,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>960</v>
       </c>
@@ -9396,7 +9419,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>960</v>
       </c>
@@ -9410,7 +9433,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>960</v>
       </c>
@@ -9424,7 +9447,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>960</v>
       </c>
@@ -9438,7 +9461,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>960</v>
       </c>
@@ -9452,7 +9475,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>960</v>
       </c>
@@ -9466,7 +9489,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>100</v>
       </c>
@@ -9480,7 +9503,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>970</v>
       </c>
@@ -9494,7 +9517,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>970</v>
       </c>
@@ -9508,7 +9531,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>970</v>
       </c>
@@ -9522,7 +9545,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>970</v>
       </c>
@@ -9536,7 +9559,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>970</v>
       </c>
@@ -9550,7 +9573,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>970</v>
       </c>
@@ -9564,7 +9587,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>970</v>
       </c>
@@ -9578,7 +9601,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>970</v>
       </c>
@@ -9592,7 +9615,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>970</v>
       </c>
@@ -9606,7 +9629,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>970</v>
       </c>
@@ -9620,7 +9643,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>970</v>
       </c>
@@ -9634,7 +9657,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>970</v>
       </c>
@@ -9648,7 +9671,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>970</v>
       </c>
@@ -9662,7 +9685,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>970</v>
       </c>
@@ -9676,7 +9699,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>970</v>
       </c>
@@ -9690,7 +9713,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>100</v>
       </c>
@@ -9704,7 +9727,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>100</v>
       </c>
@@ -9718,7 +9741,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>100</v>
       </c>
@@ -9732,7 +9755,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>100</v>
       </c>
@@ -9746,7 +9769,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>100</v>
       </c>
@@ -9760,7 +9783,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>100</v>
       </c>
@@ -9774,7 +9797,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>100</v>
       </c>
@@ -9788,7 +9811,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>100</v>
       </c>
@@ -9802,7 +9825,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>100</v>
       </c>
@@ -9816,7 +9839,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>100</v>
       </c>
@@ -9830,7 +9853,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>100</v>
       </c>
@@ -9844,7 +9867,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>980</v>
       </c>
@@ -9858,7 +9881,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>980</v>
       </c>
@@ -9872,7 +9895,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>980</v>
       </c>
@@ -9886,7 +9909,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>980</v>
       </c>
@@ -9900,7 +9923,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>980</v>
       </c>
@@ -9914,7 +9937,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>980</v>
       </c>
@@ -9928,7 +9951,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>980</v>
       </c>
@@ -9942,7 +9965,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>980</v>
       </c>
@@ -9956,7 +9979,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>980</v>
       </c>
@@ -9970,7 +9993,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>980</v>
       </c>
@@ -9984,7 +10007,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>980</v>
       </c>
@@ -9998,7 +10021,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>980</v>
       </c>
@@ -10012,7 +10035,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>980</v>
       </c>
@@ -10026,7 +10049,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>980</v>
       </c>
@@ -10040,7 +10063,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>980</v>
       </c>
@@ -10054,7 +10077,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>980</v>
       </c>
@@ -10068,7 +10091,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>980</v>
       </c>
@@ -10082,7 +10105,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>980</v>
       </c>
@@ -10096,7 +10119,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>980</v>
       </c>
@@ -10110,7 +10133,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>980</v>
       </c>
@@ -10124,7 +10147,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>980</v>
       </c>
@@ -10138,7 +10161,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>980</v>
       </c>
@@ -10152,7 +10175,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>980</v>
       </c>
@@ -10166,7 +10189,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>980</v>
       </c>
@@ -10180,7 +10203,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>980</v>
       </c>
@@ -10194,7 +10217,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>960</v>
       </c>
@@ -10208,7 +10231,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>960</v>
       </c>
@@ -10222,7 +10245,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>960</v>
       </c>
@@ -10236,7 +10259,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>960</v>
       </c>
@@ -10250,7 +10273,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>960</v>
       </c>
@@ -10264,7 +10287,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>960</v>
       </c>
@@ -10278,7 +10301,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>100</v>
       </c>
@@ -10292,7 +10315,7 @@
         <v>20200228</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>990</v>
       </c>
@@ -10306,7 +10329,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>990</v>
       </c>
@@ -10320,7 +10343,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>990</v>
       </c>
@@ -10334,7 +10357,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>990</v>
       </c>
@@ -10348,7 +10371,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>990</v>
       </c>
@@ -10362,7 +10385,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>990</v>
       </c>
@@ -10376,7 +10399,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>990</v>
       </c>
@@ -10390,7 +10413,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>990</v>
       </c>
@@ -10404,7 +10427,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>990</v>
       </c>
@@ -10418,7 +10441,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>990</v>
       </c>
@@ -10432,7 +10455,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>990</v>
       </c>
@@ -10446,7 +10469,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>990</v>
       </c>
@@ -10460,7 +10483,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>990</v>
       </c>
@@ -10474,7 +10497,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>990</v>
       </c>
@@ -10488,7 +10511,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>990</v>
       </c>
@@ -10502,7 +10525,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>990</v>
       </c>
@@ -10516,7 +10539,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>990</v>
       </c>
@@ -10530,7 +10553,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>990</v>
       </c>
@@ -10544,7 +10567,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>990</v>
       </c>
@@ -10558,7 +10581,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>990</v>
       </c>
@@ -10572,7 +10595,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>990</v>
       </c>
@@ -10586,7 +10609,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>990</v>
       </c>
@@ -10600,7 +10623,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>990</v>
       </c>
@@ -10614,7 +10637,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>990</v>
       </c>
@@ -10628,7 +10651,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>990</v>
       </c>
@@ -10642,7 +10665,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>990</v>
       </c>
@@ -10656,7 +10679,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>990</v>
       </c>
@@ -10670,7 +10693,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>960</v>
       </c>
@@ -10684,7 +10707,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>960</v>
       </c>
@@ -10698,7 +10721,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>310</v>
       </c>
@@ -10712,7 +10735,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>310</v>
       </c>
@@ -10726,7 +10749,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>310</v>
       </c>
@@ -10740,7 +10763,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>310</v>
       </c>
@@ -10754,7 +10777,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>310</v>
       </c>
@@ -10768,7 +10791,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>310</v>
       </c>
@@ -10782,7 +10805,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>310</v>
       </c>
@@ -10796,7 +10819,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>310</v>
       </c>
@@ -10810,7 +10833,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>310</v>
       </c>
@@ -10824,7 +10847,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>310</v>
       </c>
@@ -10838,7 +10861,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>310</v>
       </c>
@@ -10852,7 +10875,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>310</v>
       </c>
@@ -10866,7 +10889,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>310</v>
       </c>
@@ -10880,7 +10903,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>310</v>
       </c>
@@ -10894,7 +10917,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>310</v>
       </c>
@@ -10908,7 +10931,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>310</v>
       </c>
@@ -10922,7 +10945,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>310</v>
       </c>
@@ -10936,7 +10959,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>310</v>
       </c>
@@ -10950,7 +10973,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>310</v>
       </c>
@@ -10964,7 +10987,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>310</v>
       </c>
@@ -10978,7 +11001,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>310</v>
       </c>
@@ -10992,7 +11015,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>310</v>
       </c>
@@ -11006,7 +11029,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>310</v>
       </c>
@@ -11020,7 +11043,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>310</v>
       </c>
@@ -11034,7 +11057,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>310</v>
       </c>
@@ -11048,7 +11071,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>310</v>
       </c>
@@ -11062,7 +11085,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>310</v>
       </c>
@@ -11076,7 +11099,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>310</v>
       </c>
@@ -11090,7 +11113,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>310</v>
       </c>
@@ -11104,7 +11127,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>310</v>
       </c>
@@ -11118,7 +11141,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>310</v>
       </c>
@@ -11132,7 +11155,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>310</v>
       </c>
@@ -11146,7 +11169,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>310</v>
       </c>
@@ -11160,7 +11183,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>310</v>
       </c>
@@ -11174,7 +11197,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>310</v>
       </c>
@@ -11188,7 +11211,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>310</v>
       </c>
@@ -11202,7 +11225,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>310</v>
       </c>
@@ -11216,7 +11239,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>310</v>
       </c>
@@ -11230,7 +11253,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>310</v>
       </c>
@@ -11244,7 +11267,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>310</v>
       </c>
@@ -11258,7 +11281,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>310</v>
       </c>
@@ -11272,7 +11295,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>310</v>
       </c>
@@ -11286,7 +11309,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>310</v>
       </c>
@@ -11300,7 +11323,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>310</v>
       </c>
@@ -11314,7 +11337,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>310</v>
       </c>
@@ -11328,7 +11351,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>310</v>
       </c>
@@ -11342,7 +11365,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>310</v>
       </c>
@@ -11356,7 +11379,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>310</v>
       </c>
@@ -11370,7 +11393,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>310</v>
       </c>
@@ -11384,7 +11407,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>310</v>
       </c>
@@ -11398,7 +11421,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>310</v>
       </c>
@@ -11412,7 +11435,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>310</v>
       </c>
@@ -11426,7 +11449,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>310</v>
       </c>
@@ -11440,7 +11463,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>310</v>
       </c>
@@ -11454,7 +11477,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>310</v>
       </c>
@@ -11468,7 +11491,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>310</v>
       </c>
@@ -11482,7 +11505,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>310</v>
       </c>
@@ -11496,7 +11519,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>310</v>
       </c>
@@ -11510,7 +11533,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>310</v>
       </c>
@@ -11524,7 +11547,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>310</v>
       </c>
@@ -11538,7 +11561,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>310</v>
       </c>
@@ -11552,7 +11575,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>310</v>
       </c>
@@ -11566,7 +11589,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>240</v>
       </c>
@@ -11580,7 +11603,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>240</v>
       </c>
@@ -11594,7 +11617,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>240</v>
       </c>
@@ -11608,7 +11631,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>240</v>
       </c>
@@ -11622,7 +11645,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>240</v>
       </c>
@@ -11636,7 +11659,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>940</v>
       </c>
@@ -11650,7 +11673,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>940</v>
       </c>
@@ -11664,7 +11687,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>940</v>
       </c>
@@ -11678,7 +11701,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>940</v>
       </c>
@@ -11692,7 +11715,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>940</v>
       </c>
@@ -11706,7 +11729,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>410</v>
       </c>
@@ -11720,7 +11743,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>410</v>
       </c>
@@ -11734,7 +11757,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>410</v>
       </c>
@@ -11748,7 +11771,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>410</v>
       </c>
@@ -11762,7 +11785,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>410</v>
       </c>
@@ -11776,7 +11799,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>410</v>
       </c>
@@ -11790,7 +11813,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>410</v>
       </c>
@@ -11804,7 +11827,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>410</v>
       </c>
@@ -11818,7 +11841,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>999</v>
       </c>
@@ -11832,7 +11855,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>999</v>
       </c>
@@ -11846,7 +11869,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>999</v>
       </c>
@@ -11860,7 +11883,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>999</v>
       </c>
@@ -11874,7 +11897,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>999</v>
       </c>
@@ -11888,7 +11911,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>999</v>
       </c>
@@ -11902,7 +11925,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>999</v>
       </c>
@@ -11916,7 +11939,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>999</v>
       </c>
@@ -11930,7 +11953,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>999</v>
       </c>
@@ -11944,7 +11967,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>999</v>
       </c>
@@ -11958,7 +11981,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>999</v>
       </c>
@@ -11972,7 +11995,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>999</v>
       </c>
@@ -11986,7 +12009,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>999</v>
       </c>
@@ -12000,7 +12023,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>999</v>
       </c>
@@ -12014,7 +12037,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>999</v>
       </c>
@@ -12028,7 +12051,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>999</v>
       </c>
@@ -12042,7 +12065,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>999</v>
       </c>
@@ -12056,7 +12079,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>999</v>
       </c>
@@ -12070,7 +12093,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>999</v>
       </c>
@@ -12084,7 +12107,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>999</v>
       </c>
@@ -12098,7 +12121,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>999</v>
       </c>
@@ -12112,7 +12135,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>999</v>
       </c>
@@ -12126,7 +12149,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>999</v>
       </c>
@@ -12140,7 +12163,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>999</v>
       </c>
@@ -12154,7 +12177,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>999</v>
       </c>
@@ -12168,7 +12191,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>999</v>
       </c>
@@ -12182,7 +12205,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>999</v>
       </c>
@@ -12196,7 +12219,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>999</v>
       </c>
@@ -12210,7 +12233,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>999</v>
       </c>
@@ -12224,7 +12247,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>999</v>
       </c>
@@ -12238,7 +12261,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>999</v>
       </c>
@@ -12252,7 +12275,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>999</v>
       </c>
@@ -12266,7 +12289,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>999</v>
       </c>
@@ -12280,7 +12303,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>999</v>
       </c>
@@ -12294,7 +12317,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>999</v>
       </c>
@@ -12308,7 +12331,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>999</v>
       </c>
@@ -12322,7 +12345,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>999</v>
       </c>
@@ -12336,7 +12359,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>999</v>
       </c>
@@ -12350,7 +12373,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>999</v>
       </c>
@@ -12364,7 +12387,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>999</v>
       </c>
@@ -12378,7 +12401,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>999</v>
       </c>
@@ -12392,7 +12415,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>999</v>
       </c>
@@ -12406,7 +12429,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>999</v>
       </c>
@@ -12420,7 +12443,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>999</v>
       </c>
@@ -12434,7 +12457,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>999</v>
       </c>
@@ -12448,7 +12471,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>999</v>
       </c>
@@ -12462,7 +12485,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>999</v>
       </c>
@@ -12476,7 +12499,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>999</v>
       </c>
@@ -12490,7 +12513,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>999</v>
       </c>
@@ -12504,7 +12527,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>999</v>
       </c>
@@ -12518,7 +12541,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>999</v>
       </c>
@@ -12532,7 +12555,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>999</v>
       </c>
@@ -12546,7 +12569,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>999</v>
       </c>
@@ -12560,7 +12583,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>999</v>
       </c>
@@ -12574,7 +12597,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>999</v>
       </c>
@@ -12588,7 +12611,7 @@
         <v>20190527</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>400</v>
       </c>
@@ -12602,7 +12625,7 @@
         <v>20190702</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>900</v>
       </c>
@@ -12616,7 +12639,7 @@
         <v>20190702</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>998</v>
       </c>
@@ -12630,7 +12653,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>998</v>
       </c>
@@ -12644,7 +12667,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>998</v>
       </c>
@@ -12658,7 +12681,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>998</v>
       </c>
@@ -12672,7 +12695,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>998</v>
       </c>
@@ -12686,7 +12709,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>998</v>
       </c>
@@ -12700,7 +12723,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>998</v>
       </c>
@@ -12714,7 +12737,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>998</v>
       </c>
@@ -12728,7 +12751,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>998</v>
       </c>
@@ -12742,7 +12765,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>998</v>
       </c>
@@ -12756,7 +12779,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>998</v>
       </c>
@@ -12770,7 +12793,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>998</v>
       </c>
@@ -12784,7 +12807,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>998</v>
       </c>
@@ -12798,7 +12821,7 @@
         <v>20190809</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>110</v>
       </c>
@@ -12812,7 +12835,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>110</v>
       </c>
@@ -12826,7 +12849,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>110</v>
       </c>
@@ -12840,7 +12863,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>110</v>
       </c>
@@ -12854,7 +12877,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>110</v>
       </c>
@@ -12868,7 +12891,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>110</v>
       </c>
@@ -12882,7 +12905,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>110</v>
       </c>
@@ -12896,7 +12919,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>110</v>
       </c>
@@ -12910,7 +12933,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>110</v>
       </c>
@@ -12924,7 +12947,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>110</v>
       </c>
@@ -12938,7 +12961,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>110</v>
       </c>
@@ -12952,7 +12975,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>110</v>
       </c>
@@ -12966,7 +12989,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>110</v>
       </c>
@@ -12980,7 +13003,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>110</v>
       </c>
@@ -12994,7 +13017,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>110</v>
       </c>
@@ -13008,7 +13031,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>110</v>
       </c>
@@ -13022,7 +13045,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>110</v>
       </c>
@@ -13036,7 +13059,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>110</v>
       </c>
@@ -13050,7 +13073,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>110</v>
       </c>
@@ -13064,7 +13087,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>110</v>
       </c>
@@ -13078,7 +13101,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>110</v>
       </c>
@@ -13092,7 +13115,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>110</v>
       </c>
@@ -13106,7 +13129,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>110</v>
       </c>
@@ -13120,7 +13143,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>110</v>
       </c>
@@ -13134,7 +13157,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>110</v>
       </c>
@@ -13148,7 +13171,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>110</v>
       </c>
@@ -13162,7 +13185,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>110</v>
       </c>
@@ -13176,7 +13199,7 @@
         <v>20190228</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>110</v>
       </c>
@@ -13202,21 +13225,21 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:D267"/>
+  <dimension ref="A1:D293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>224</v>
       </c>
@@ -13230,7 +13253,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -13244,7 +13267,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -13258,7 +13281,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>200</v>
       </c>
@@ -13272,7 +13295,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>200</v>
       </c>
@@ -13286,7 +13309,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>200</v>
       </c>
@@ -13300,7 +13323,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>200</v>
       </c>
@@ -13314,7 +13337,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>200</v>
       </c>
@@ -13328,7 +13351,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>200</v>
       </c>
@@ -13342,7 +13365,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>200</v>
       </c>
@@ -13356,7 +13379,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>200</v>
       </c>
@@ -13370,7 +13393,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>200</v>
       </c>
@@ -13384,7 +13407,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>200</v>
       </c>
@@ -13398,7 +13421,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>200</v>
       </c>
@@ -13412,7 +13435,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>200</v>
       </c>
@@ -13426,7 +13449,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>200</v>
       </c>
@@ -13440,7 +13463,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>200</v>
       </c>
@@ -13454,7 +13477,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>200</v>
       </c>
@@ -13468,7 +13491,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>200</v>
       </c>
@@ -13482,7 +13505,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>200</v>
       </c>
@@ -13496,7 +13519,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>200</v>
       </c>
@@ -13510,7 +13533,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>200</v>
       </c>
@@ -13524,7 +13547,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>200</v>
       </c>
@@ -13538,7 +13561,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>300</v>
       </c>
@@ -13552,7 +13575,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>300</v>
       </c>
@@ -13566,7 +13589,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>300</v>
       </c>
@@ -13580,7 +13603,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>300</v>
       </c>
@@ -13594,7 +13617,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>300</v>
       </c>
@@ -13608,7 +13631,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>300</v>
       </c>
@@ -13622,7 +13645,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>300</v>
       </c>
@@ -13636,7 +13659,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>300</v>
       </c>
@@ -13650,7 +13673,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>300</v>
       </c>
@@ -13664,7 +13687,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>300</v>
       </c>
@@ -13678,7 +13701,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>300</v>
       </c>
@@ -13692,7 +13715,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>300</v>
       </c>
@@ -13706,7 +13729,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>300</v>
       </c>
@@ -13720,7 +13743,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>300</v>
       </c>
@@ -13734,7 +13757,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>300</v>
       </c>
@@ -13748,7 +13771,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>300</v>
       </c>
@@ -13762,7 +13785,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>300</v>
       </c>
@@ -13776,7 +13799,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>300</v>
       </c>
@@ -13790,7 +13813,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>300</v>
       </c>
@@ -13804,7 +13827,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>600</v>
       </c>
@@ -13818,7 +13841,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>600</v>
       </c>
@@ -13832,7 +13855,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>300</v>
       </c>
@@ -13846,7 +13869,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>300</v>
       </c>
@@ -13860,7 +13883,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>600</v>
       </c>
@@ -13874,7 +13897,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>600</v>
       </c>
@@ -13888,7 +13911,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>300</v>
       </c>
@@ -13902,7 +13925,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>600</v>
       </c>
@@ -13916,7 +13939,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>400</v>
       </c>
@@ -13930,7 +13953,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>400</v>
       </c>
@@ -13944,7 +13967,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>400</v>
       </c>
@@ -13958,7 +13981,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>400</v>
       </c>
@@ -13972,7 +13995,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>400</v>
       </c>
@@ -13986,7 +14009,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>400</v>
       </c>
@@ -14000,7 +14023,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>400</v>
       </c>
@@ -14014,7 +14037,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>400</v>
       </c>
@@ -14028,7 +14051,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>400</v>
       </c>
@@ -14042,7 +14065,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>400</v>
       </c>
@@ -14056,7 +14079,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>400</v>
       </c>
@@ -14070,7 +14093,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>400</v>
       </c>
@@ -14084,7 +14107,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>400</v>
       </c>
@@ -14098,7 +14121,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>400</v>
       </c>
@@ -14112,7 +14135,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>400</v>
       </c>
@@ -14126,7 +14149,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>400</v>
       </c>
@@ -14140,7 +14163,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>400</v>
       </c>
@@ -14154,7 +14177,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>400</v>
       </c>
@@ -14168,7 +14191,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>400</v>
       </c>
@@ -14182,7 +14205,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>400</v>
       </c>
@@ -14196,7 +14219,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>400</v>
       </c>
@@ -14210,7 +14233,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>400</v>
       </c>
@@ -14224,7 +14247,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>400</v>
       </c>
@@ -14238,7 +14261,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>400</v>
       </c>
@@ -14252,7 +14275,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>400</v>
       </c>
@@ -14266,7 +14289,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>400</v>
       </c>
@@ -14280,7 +14303,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>400</v>
       </c>
@@ -14294,7 +14317,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>400</v>
       </c>
@@ -14308,7 +14331,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>400</v>
       </c>
@@ -14322,7 +14345,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>400</v>
       </c>
@@ -14336,7 +14359,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>400</v>
       </c>
@@ -14350,7 +14373,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>400</v>
       </c>
@@ -14364,7 +14387,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>500</v>
       </c>
@@ -14378,7 +14401,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>500</v>
       </c>
@@ -14392,7 +14415,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>500</v>
       </c>
@@ -14406,7 +14429,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>500</v>
       </c>
@@ -14420,7 +14443,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>500</v>
       </c>
@@ -14434,7 +14457,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>500</v>
       </c>
@@ -14448,7 +14471,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>500</v>
       </c>
@@ -14462,7 +14485,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>500</v>
       </c>
@@ -14476,7 +14499,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>500</v>
       </c>
@@ -14490,7 +14513,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>500</v>
       </c>
@@ -14504,7 +14527,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>500</v>
       </c>
@@ -14518,7 +14541,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>500</v>
       </c>
@@ -14532,7 +14555,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>500</v>
       </c>
@@ -14546,7 +14569,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>600</v>
       </c>
@@ -14560,7 +14583,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>600</v>
       </c>
@@ -14574,7 +14597,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>600</v>
       </c>
@@ -14588,7 +14611,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>600</v>
       </c>
@@ -14602,7 +14625,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>600</v>
       </c>
@@ -14616,7 +14639,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>600</v>
       </c>
@@ -14630,7 +14653,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>600</v>
       </c>
@@ -14644,7 +14667,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>600</v>
       </c>
@@ -14658,7 +14681,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>600</v>
       </c>
@@ -14672,7 +14695,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>600</v>
       </c>
@@ -14686,7 +14709,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>600</v>
       </c>
@@ -14700,7 +14723,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>600</v>
       </c>
@@ -14714,7 +14737,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>600</v>
       </c>
@@ -14728,7 +14751,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>600</v>
       </c>
@@ -14742,7 +14765,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>600</v>
       </c>
@@ -14756,7 +14779,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>600</v>
       </c>
@@ -14770,7 +14793,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>600</v>
       </c>
@@ -14784,7 +14807,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>600</v>
       </c>
@@ -14798,7 +14821,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>600</v>
       </c>
@@ -14812,7 +14835,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>600</v>
       </c>
@@ -14826,7 +14849,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>600</v>
       </c>
@@ -14840,7 +14863,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>600</v>
       </c>
@@ -14854,7 +14877,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>600</v>
       </c>
@@ -14868,7 +14891,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>600</v>
       </c>
@@ -14882,7 +14905,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>700</v>
       </c>
@@ -14896,7 +14919,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>700</v>
       </c>
@@ -14910,7 +14933,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>700</v>
       </c>
@@ -14924,7 +14947,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>700</v>
       </c>
@@ -14938,7 +14961,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>700</v>
       </c>
@@ -14952,7 +14975,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>700</v>
       </c>
@@ -14966,7 +14989,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>700</v>
       </c>
@@ -14980,7 +15003,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>700</v>
       </c>
@@ -14994,7 +15017,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>700</v>
       </c>
@@ -15008,7 +15031,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>700</v>
       </c>
@@ -15022,7 +15045,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>700</v>
       </c>
@@ -15036,7 +15059,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>700</v>
       </c>
@@ -15050,7 +15073,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>700</v>
       </c>
@@ -15064,7 +15087,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>700</v>
       </c>
@@ -15078,7 +15101,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>700</v>
       </c>
@@ -15092,7 +15115,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>700</v>
       </c>
@@ -15106,7 +15129,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>700</v>
       </c>
@@ -15120,7 +15143,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>700</v>
       </c>
@@ -15134,7 +15157,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>700</v>
       </c>
@@ -15148,7 +15171,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>700</v>
       </c>
@@ -15162,7 +15185,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>700</v>
       </c>
@@ -15176,7 +15199,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>700</v>
       </c>
@@ -15190,7 +15213,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>700</v>
       </c>
@@ -15204,7 +15227,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>700</v>
       </c>
@@ -15218,7 +15241,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>700</v>
       </c>
@@ -15232,7 +15255,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>700</v>
       </c>
@@ -15246,7 +15269,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>700</v>
       </c>
@@ -15260,7 +15283,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>700</v>
       </c>
@@ -15274,7 +15297,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>700</v>
       </c>
@@ -15288,7 +15311,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>700</v>
       </c>
@@ -15302,7 +15325,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>700</v>
       </c>
@@ -15316,7 +15339,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>700</v>
       </c>
@@ -15330,7 +15353,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>700</v>
       </c>
@@ -15344,7 +15367,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>700</v>
       </c>
@@ -15358,7 +15381,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>700</v>
       </c>
@@ -15372,7 +15395,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>700</v>
       </c>
@@ -15386,7 +15409,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>700</v>
       </c>
@@ -15400,7 +15423,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>700</v>
       </c>
@@ -15414,7 +15437,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>700</v>
       </c>
@@ -15428,7 +15451,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>700</v>
       </c>
@@ -15442,7 +15465,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>700</v>
       </c>
@@ -15456,7 +15479,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>700</v>
       </c>
@@ -15470,7 +15493,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>700</v>
       </c>
@@ -15484,7 +15507,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>700</v>
       </c>
@@ -15498,7 +15521,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>700</v>
       </c>
@@ -15512,7 +15535,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>700</v>
       </c>
@@ -15526,7 +15549,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>700</v>
       </c>
@@ -15540,7 +15563,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>700</v>
       </c>
@@ -15554,7 +15577,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>700</v>
       </c>
@@ -15568,7 +15591,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>700</v>
       </c>
@@ -15582,7 +15605,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>700</v>
       </c>
@@ -15596,7 +15619,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>600</v>
       </c>
@@ -15610,7 +15633,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>800</v>
       </c>
@@ -15624,7 +15647,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>800</v>
       </c>
@@ -15638,7 +15661,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>800</v>
       </c>
@@ -15652,7 +15675,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>800</v>
       </c>
@@ -15666,7 +15689,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>800</v>
       </c>
@@ -15680,7 +15703,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>800</v>
       </c>
@@ -15694,7 +15717,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>800</v>
       </c>
@@ -15708,7 +15731,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>800</v>
       </c>
@@ -15722,7 +15745,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>800</v>
       </c>
@@ -15736,7 +15759,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>800</v>
       </c>
@@ -15750,7 +15773,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>800</v>
       </c>
@@ -15764,7 +15787,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>800</v>
       </c>
@@ -15778,7 +15801,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>800</v>
       </c>
@@ -15792,7 +15815,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>800</v>
       </c>
@@ -15806,7 +15829,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>800</v>
       </c>
@@ -15820,7 +15843,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>600</v>
       </c>
@@ -15834,7 +15857,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>200</v>
       </c>
@@ -15848,7 +15871,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>700</v>
       </c>
@@ -15862,7 +15885,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>100</v>
       </c>
@@ -15876,7 +15899,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>300</v>
       </c>
@@ -15890,7 +15913,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>200</v>
       </c>
@@ -15904,7 +15927,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>500</v>
       </c>
@@ -15918,7 +15941,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>600</v>
       </c>
@@ -15932,7 +15955,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>800</v>
       </c>
@@ -15946,7 +15969,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>800</v>
       </c>
@@ -15960,7 +15983,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>800</v>
       </c>
@@ -15974,7 +15997,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>800</v>
       </c>
@@ -15988,7 +16011,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>800</v>
       </c>
@@ -16002,7 +16025,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>200</v>
       </c>
@@ -16016,7 +16039,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -16030,7 +16053,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>200</v>
       </c>
@@ -16044,7 +16067,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>700</v>
       </c>
@@ -16058,7 +16081,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>700</v>
       </c>
@@ -16072,7 +16095,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>100</v>
       </c>
@@ -16086,7 +16109,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>200</v>
       </c>
@@ -16100,7 +16123,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>200</v>
       </c>
@@ -16114,7 +16137,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>400</v>
       </c>
@@ -16128,7 +16151,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>800</v>
       </c>
@@ -16142,7 +16165,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>200</v>
       </c>
@@ -16156,7 +16179,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>300</v>
       </c>
@@ -16170,7 +16193,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>300</v>
       </c>
@@ -16184,7 +16207,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>700</v>
       </c>
@@ -16198,7 +16221,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>900</v>
       </c>
@@ -16212,7 +16235,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>900</v>
       </c>
@@ -16226,7 +16249,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>900</v>
       </c>
@@ -16240,7 +16263,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>900</v>
       </c>
@@ -16254,7 +16277,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>900</v>
       </c>
@@ -16268,7 +16291,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>900</v>
       </c>
@@ -16282,7 +16305,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>900</v>
       </c>
@@ -16296,7 +16319,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>900</v>
       </c>
@@ -16310,7 +16333,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>900</v>
       </c>
@@ -16324,7 +16347,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>900</v>
       </c>
@@ -16338,7 +16361,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>900</v>
       </c>
@@ -16352,7 +16375,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>900</v>
       </c>
@@ -16366,7 +16389,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>900</v>
       </c>
@@ -16380,7 +16403,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>900</v>
       </c>
@@ -16394,7 +16417,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>900</v>
       </c>
@@ -16408,7 +16431,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>900</v>
       </c>
@@ -16422,7 +16445,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>900</v>
       </c>
@@ -16436,7 +16459,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>900</v>
       </c>
@@ -16450,7 +16473,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>900</v>
       </c>
@@ -16464,7 +16487,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>900</v>
       </c>
@@ -16478,7 +16501,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>900</v>
       </c>
@@ -16492,7 +16515,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>900</v>
       </c>
@@ -16506,7 +16529,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>900</v>
       </c>
@@ -16520,7 +16543,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>900</v>
       </c>
@@ -16534,7 +16557,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>900</v>
       </c>
@@ -16548,7 +16571,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>900</v>
       </c>
@@ -16562,7 +16585,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>900</v>
       </c>
@@ -16576,7 +16599,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>900</v>
       </c>
@@ -16590,7 +16613,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>900</v>
       </c>
@@ -16604,7 +16627,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>900</v>
       </c>
@@ -16618,7 +16641,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>900</v>
       </c>
@@ -16632,7 +16655,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>900</v>
       </c>
@@ -16646,7 +16669,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>900</v>
       </c>
@@ -16660,7 +16683,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>900</v>
       </c>
@@ -16674,7 +16697,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>900</v>
       </c>
@@ -16688,7 +16711,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>900</v>
       </c>
@@ -16702,7 +16725,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>900</v>
       </c>
@@ -16716,7 +16739,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>900</v>
       </c>
@@ -16730,7 +16753,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>900</v>
       </c>
@@ -16744,7 +16767,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>900</v>
       </c>
@@ -16758,7 +16781,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>900</v>
       </c>
@@ -16772,7 +16795,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>900</v>
       </c>
@@ -16786,7 +16809,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>900</v>
       </c>
@@ -16800,7 +16823,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>900</v>
       </c>
@@ -16814,7 +16837,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>900</v>
       </c>
@@ -16828,7 +16851,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>900</v>
       </c>
@@ -16842,7 +16865,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>900</v>
       </c>
@@ -16856,7 +16879,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>900</v>
       </c>
@@ -16870,7 +16893,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>900</v>
       </c>
@@ -16884,7 +16907,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>900</v>
       </c>
@@ -16898,7 +16921,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>900</v>
       </c>
@@ -16912,7 +16935,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>900</v>
       </c>
@@ -16926,7 +16949,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>900</v>
       </c>
@@ -16940,7 +16963,7 @@
         <v>20190101</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>600</v>
       </c>
@@ -16954,7 +16977,372 @@
         <v>20190702</v>
       </c>
     </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="2">
+        <v>910</v>
+      </c>
+      <c r="B268" s="2">
+        <v>241</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D268" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="2">
+        <v>910</v>
+      </c>
+      <c r="B269" s="2">
+        <v>242</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D269" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="2">
+        <v>910</v>
+      </c>
+      <c r="B270" s="2">
+        <v>243</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D270" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="2">
+        <v>910</v>
+      </c>
+      <c r="B271" s="2">
+        <v>244</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D271" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="2">
+        <v>910</v>
+      </c>
+      <c r="B272" s="2">
+        <v>245</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D272" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="2">
+        <v>910</v>
+      </c>
+      <c r="B273" s="2">
+        <v>251</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D273" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="2">
+        <v>910</v>
+      </c>
+      <c r="B274" s="2">
+        <v>252</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D274" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="2">
+        <v>910</v>
+      </c>
+      <c r="B275" s="2">
+        <v>253</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D275" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="2">
+        <v>910</v>
+      </c>
+      <c r="B276" s="2">
+        <v>312</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D276" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="2">
+        <v>910</v>
+      </c>
+      <c r="B277" s="2">
+        <v>313</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D277" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="2">
+        <v>910</v>
+      </c>
+      <c r="B278" s="2">
+        <v>314</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D278" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="2">
+        <v>910</v>
+      </c>
+      <c r="B279" s="2">
+        <v>315</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D279" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="2">
+        <v>910</v>
+      </c>
+      <c r="B280" s="2">
+        <v>316</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D280" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="2">
+        <v>910</v>
+      </c>
+      <c r="B281" s="2">
+        <v>317</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D281" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="2">
+        <v>910</v>
+      </c>
+      <c r="B282" s="2">
+        <v>318</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D282" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="2">
+        <v>910</v>
+      </c>
+      <c r="B283" s="2">
+        <v>321</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D283" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="2">
+        <v>910</v>
+      </c>
+      <c r="B284" s="2">
+        <v>322</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D284" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="2">
+        <v>910</v>
+      </c>
+      <c r="B285" s="2">
+        <v>323</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D285" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="2">
+        <v>910</v>
+      </c>
+      <c r="B286" s="2">
+        <v>325</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D286" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="2">
+        <v>910</v>
+      </c>
+      <c r="B287" s="2">
+        <v>330</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D287" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="2">
+        <v>910</v>
+      </c>
+      <c r="B288" s="2">
+        <v>331</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D288" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="2">
+        <v>910</v>
+      </c>
+      <c r="B289" s="2">
+        <v>334</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D289" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="2">
+        <v>910</v>
+      </c>
+      <c r="B290" s="2">
+        <v>399</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D290" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="2">
+        <v>910</v>
+      </c>
+      <c r="B291" s="2">
+        <v>246</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D291" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="2">
+        <v>910</v>
+      </c>
+      <c r="B292" s="2">
+        <v>247</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D292" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="2">
+        <v>910</v>
+      </c>
+      <c r="B293" s="2">
+        <v>234</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D293" s="2">
+        <v>20201028</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D267" xr:uid="{E035DBAF-74E6-458F-98B4-9A7263F84585}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/metadata/geography.xlsx
+++ b/metadata/geography.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viwong\Desktop\tradestat_formal\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70D201B-F129-47BC-AF55-98D732D3D23C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77732DF-8FAC-4122-A661-9073861201DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="700" windowWidth="18080" windowHeight="9380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="300" windowWidth="15770" windowHeight="9210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="area" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="areacnty" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">areacnty!$A$1:$D$267</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">country!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">areacnty!$A$1:$D$293</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">country!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">regcnty!$A$1:$D$387</definedName>
     <definedName name="area" localSheetId="1">country!$A$1:$C$9</definedName>
     <definedName name="area" localSheetId="2">region!$A$1:$C$9</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="504">
   <si>
     <t>AREACODE</t>
   </si>
@@ -3099,6 +3099,27 @@
   </si>
   <si>
     <t>歐洲新興市場</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>COUNTRY_NAME</t>
+  </si>
+  <si>
+    <t>CHINESE MAINLAND (MAINLAND CHINA)</t>
+  </si>
+  <si>
+    <t>MONTENEGRO</t>
+  </si>
+  <si>
+    <t>SERBIA</t>
+  </si>
+  <si>
+    <t>SOUTH SUDAN</t>
+  </si>
+  <si>
+    <t>U S A</t>
   </si>
 </sst>
 </file>
@@ -3529,7 +3550,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3746,8 +3767,8 @@
   <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7429,6 +7450,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{C5B7D374-21B4-457D-A68A-95AC303FF169}"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7444,8 +7466,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7605,10 +7627,10 @@
         <v>486</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>220</v>
+        <v>497</v>
       </c>
       <c r="E9" s="3">
-        <v>20190101</v>
+        <v>20201201</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
@@ -7622,10 +7644,10 @@
         <v>487</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>220</v>
+        <v>497</v>
       </c>
       <c r="E10" s="3">
-        <v>20190101</v>
+        <v>20201201</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
@@ -7639,10 +7661,10 @@
         <v>488</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>220</v>
+        <v>497</v>
       </c>
       <c r="E11" s="3">
-        <v>20190101</v>
+        <v>20201201</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
@@ -7656,10 +7678,10 @@
         <v>479</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>220</v>
+        <v>497</v>
       </c>
       <c r="E12" s="3">
-        <v>20190101</v>
+        <v>20201201</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
@@ -7673,10 +7695,10 @@
         <v>477</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>220</v>
+        <v>497</v>
       </c>
       <c r="E13" s="3">
-        <v>20190101</v>
+        <v>20201209</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
@@ -7778,12 +7800,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:D387"/>
+  <dimension ref="A1:E387"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B14" sqref="B14"/>
-      <selection pane="bottomLeft" activeCell="B387" sqref="B387"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7792,10 +7814,11 @@
     <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="2"/>
+    <col min="5" max="5" width="35.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>222</v>
       </c>
@@ -7808,8 +7831,11 @@
       <c r="D1" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -7822,8 +7848,11 @@
       <c r="D2" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -7836,8 +7865,11 @@
       <c r="D3" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>100</v>
       </c>
@@ -7850,8 +7882,11 @@
       <c r="D4" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -7864,8 +7899,11 @@
       <c r="D5" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>100</v>
       </c>
@@ -7878,8 +7916,11 @@
       <c r="D6" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>100</v>
       </c>
@@ -7892,8 +7933,11 @@
       <c r="D7" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>100</v>
       </c>
@@ -7906,8 +7950,11 @@
       <c r="D8" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>100</v>
       </c>
@@ -7920,8 +7967,11 @@
       <c r="D9" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>100</v>
       </c>
@@ -7934,8 +7984,11 @@
       <c r="D10" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>100</v>
       </c>
@@ -7948,8 +8001,11 @@
       <c r="D11" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>100</v>
       </c>
@@ -7962,8 +8018,11 @@
       <c r="D12" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>100</v>
       </c>
@@ -7976,8 +8035,11 @@
       <c r="D13" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>100</v>
       </c>
@@ -7990,8 +8052,11 @@
       <c r="D14" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>100</v>
       </c>
@@ -8004,8 +8069,11 @@
       <c r="D15" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>200</v>
       </c>
@@ -8018,8 +8086,11 @@
       <c r="D16" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>200</v>
       </c>
@@ -8032,8 +8103,11 @@
       <c r="D17" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>200</v>
       </c>
@@ -8046,8 +8120,11 @@
       <c r="D18" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>200</v>
       </c>
@@ -8060,8 +8137,11 @@
       <c r="D19" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>500</v>
       </c>
@@ -8074,8 +8154,11 @@
       <c r="D20" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>500</v>
       </c>
@@ -8088,8 +8171,11 @@
       <c r="D21" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>500</v>
       </c>
@@ -8102,8 +8188,11 @@
       <c r="D22" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>500</v>
       </c>
@@ -8116,8 +8205,11 @@
       <c r="D23" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>500</v>
       </c>
@@ -8130,8 +8222,11 @@
       <c r="D24" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>500</v>
       </c>
@@ -8144,8 +8239,11 @@
       <c r="D25" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>500</v>
       </c>
@@ -8158,8 +8256,11 @@
       <c r="D26" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>500</v>
       </c>
@@ -8172,8 +8273,11 @@
       <c r="D27" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>500</v>
       </c>
@@ -8186,8 +8290,11 @@
       <c r="D28" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>500</v>
       </c>
@@ -8200,8 +8307,11 @@
       <c r="D29" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>500</v>
       </c>
@@ -8214,8 +8324,11 @@
       <c r="D30" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>500</v>
       </c>
@@ -8228,8 +8341,11 @@
       <c r="D31" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>900</v>
       </c>
@@ -8242,8 +8358,11 @@
       <c r="D32" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>900</v>
       </c>
@@ -8256,8 +8375,11 @@
       <c r="D33" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>900</v>
       </c>
@@ -8270,8 +8392,11 @@
       <c r="D34" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>900</v>
       </c>
@@ -8284,8 +8409,11 @@
       <c r="D35" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>900</v>
       </c>
@@ -8298,8 +8426,11 @@
       <c r="D36" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>900</v>
       </c>
@@ -8312,8 +8443,11 @@
       <c r="D37" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>900</v>
       </c>
@@ -8326,8 +8460,11 @@
       <c r="D38" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>900</v>
       </c>
@@ -8340,8 +8477,11 @@
       <c r="D39" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>900</v>
       </c>
@@ -8354,8 +8494,11 @@
       <c r="D40" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>900</v>
       </c>
@@ -8368,8 +8511,11 @@
       <c r="D41" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>900</v>
       </c>
@@ -8382,8 +8528,11 @@
       <c r="D42" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>900</v>
       </c>
@@ -8396,8 +8545,11 @@
       <c r="D43" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>900</v>
       </c>
@@ -8410,8 +8562,11 @@
       <c r="D44" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>900</v>
       </c>
@@ -8424,8 +8579,11 @@
       <c r="D45" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>900</v>
       </c>
@@ -8438,8 +8596,11 @@
       <c r="D46" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>900</v>
       </c>
@@ -8452,8 +8613,11 @@
       <c r="D47" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>900</v>
       </c>
@@ -8466,8 +8630,11 @@
       <c r="D48" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>900</v>
       </c>
@@ -8480,8 +8647,11 @@
       <c r="D49" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>900</v>
       </c>
@@ -8494,8 +8664,11 @@
       <c r="D50" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>900</v>
       </c>
@@ -8508,8 +8681,11 @@
       <c r="D51" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>900</v>
       </c>
@@ -8522,8 +8698,11 @@
       <c r="D52" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>900</v>
       </c>
@@ -8536,8 +8715,11 @@
       <c r="D53" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>900</v>
       </c>
@@ -8550,8 +8732,11 @@
       <c r="D54" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>900</v>
       </c>
@@ -8564,8 +8749,11 @@
       <c r="D55" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>900</v>
       </c>
@@ -8578,8 +8766,11 @@
       <c r="D56" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>900</v>
       </c>
@@ -8592,8 +8783,11 @@
       <c r="D57" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>900</v>
       </c>
@@ -8606,8 +8800,11 @@
       <c r="D58" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>900</v>
       </c>
@@ -8620,8 +8817,11 @@
       <c r="D59" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>900</v>
       </c>
@@ -8634,8 +8834,11 @@
       <c r="D60" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>900</v>
       </c>
@@ -8648,8 +8851,11 @@
       <c r="D61" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>900</v>
       </c>
@@ -8662,8 +8868,11 @@
       <c r="D62" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>900</v>
       </c>
@@ -8676,8 +8885,11 @@
       <c r="D63" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>900</v>
       </c>
@@ -8690,8 +8902,11 @@
       <c r="D64" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>900</v>
       </c>
@@ -8704,8 +8919,11 @@
       <c r="D65" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>900</v>
       </c>
@@ -8718,8 +8936,11 @@
       <c r="D66" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>900</v>
       </c>
@@ -8732,8 +8953,11 @@
       <c r="D67" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>900</v>
       </c>
@@ -8746,8 +8970,11 @@
       <c r="D68" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>900</v>
       </c>
@@ -8760,8 +8987,11 @@
       <c r="D69" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>900</v>
       </c>
@@ -8774,8 +9004,11 @@
       <c r="D70" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>900</v>
       </c>
@@ -8788,8 +9021,11 @@
       <c r="D71" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>300</v>
       </c>
@@ -8802,8 +9038,11 @@
       <c r="D72" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>300</v>
       </c>
@@ -8816,8 +9055,11 @@
       <c r="D73" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>300</v>
       </c>
@@ -8830,8 +9072,11 @@
       <c r="D74" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>300</v>
       </c>
@@ -8844,8 +9089,11 @@
       <c r="D75" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>300</v>
       </c>
@@ -8858,8 +9106,11 @@
       <c r="D76" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>300</v>
       </c>
@@ -8872,8 +9123,11 @@
       <c r="D77" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>300</v>
       </c>
@@ -8886,8 +9140,11 @@
       <c r="D78" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>300</v>
       </c>
@@ -8900,8 +9157,11 @@
       <c r="D79" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>300</v>
       </c>
@@ -8914,8 +9174,11 @@
       <c r="D80" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>950</v>
       </c>
@@ -8928,8 +9191,11 @@
       <c r="D81" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>950</v>
       </c>
@@ -8942,8 +9208,11 @@
       <c r="D82" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>950</v>
       </c>
@@ -8956,8 +9225,11 @@
       <c r="D83" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>950</v>
       </c>
@@ -8970,8 +9242,11 @@
       <c r="D84" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>950</v>
       </c>
@@ -8984,8 +9259,11 @@
       <c r="D85" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>950</v>
       </c>
@@ -8998,8 +9276,11 @@
       <c r="D86" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>400</v>
       </c>
@@ -9012,8 +9293,11 @@
       <c r="D87" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>400</v>
       </c>
@@ -9026,8 +9310,11 @@
       <c r="D88" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>400</v>
       </c>
@@ -9040,8 +9327,11 @@
       <c r="D89" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>400</v>
       </c>
@@ -9054,8 +9344,11 @@
       <c r="D90" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>400</v>
       </c>
@@ -9068,8 +9361,11 @@
       <c r="D91" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>400</v>
       </c>
@@ -9082,8 +9378,11 @@
       <c r="D92" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>400</v>
       </c>
@@ -9096,8 +9395,11 @@
       <c r="D93" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>400</v>
       </c>
@@ -9110,8 +9412,11 @@
       <c r="D94" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>400</v>
       </c>
@@ -9124,8 +9429,11 @@
       <c r="D95" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>400</v>
       </c>
@@ -9138,8 +9446,11 @@
       <c r="D96" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>400</v>
       </c>
@@ -9152,8 +9463,11 @@
       <c r="D97" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>400</v>
       </c>
@@ -9166,8 +9480,11 @@
       <c r="D98" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>400</v>
       </c>
@@ -9180,8 +9497,11 @@
       <c r="D99" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>400</v>
       </c>
@@ -9194,8 +9514,11 @@
       <c r="D100" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>400</v>
       </c>
@@ -9208,8 +9531,11 @@
       <c r="D101" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>400</v>
       </c>
@@ -9222,8 +9548,11 @@
       <c r="D102" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>400</v>
       </c>
@@ -9236,8 +9565,11 @@
       <c r="D103" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>400</v>
       </c>
@@ -9250,8 +9582,11 @@
       <c r="D104" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>400</v>
       </c>
@@ -9264,8 +9599,11 @@
       <c r="D105" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>400</v>
       </c>
@@ -9278,8 +9616,11 @@
       <c r="D106" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>400</v>
       </c>
@@ -9292,8 +9633,11 @@
       <c r="D107" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>400</v>
       </c>
@@ -9306,8 +9650,11 @@
       <c r="D108" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>400</v>
       </c>
@@ -9320,8 +9667,11 @@
       <c r="D109" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>300</v>
       </c>
@@ -9334,8 +9684,11 @@
       <c r="D110" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>960</v>
       </c>
@@ -9348,8 +9701,11 @@
       <c r="D111" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>960</v>
       </c>
@@ -9362,8 +9718,11 @@
       <c r="D112" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>960</v>
       </c>
@@ -9376,8 +9735,11 @@
       <c r="D113" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>960</v>
       </c>
@@ -9390,8 +9752,11 @@
       <c r="D114" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>960</v>
       </c>
@@ -9404,8 +9769,11 @@
       <c r="D115" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>960</v>
       </c>
@@ -9418,8 +9786,11 @@
       <c r="D116" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>960</v>
       </c>
@@ -9432,8 +9803,11 @@
       <c r="D117" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>960</v>
       </c>
@@ -9446,8 +9820,11 @@
       <c r="D118" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>960</v>
       </c>
@@ -9460,8 +9837,11 @@
       <c r="D119" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>960</v>
       </c>
@@ -9474,8 +9854,11 @@
       <c r="D120" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>960</v>
       </c>
@@ -9488,8 +9871,11 @@
       <c r="D121" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>100</v>
       </c>
@@ -9502,8 +9888,11 @@
       <c r="D122" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>970</v>
       </c>
@@ -9516,8 +9905,11 @@
       <c r="D123" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>970</v>
       </c>
@@ -9530,8 +9922,11 @@
       <c r="D124" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>970</v>
       </c>
@@ -9544,8 +9939,11 @@
       <c r="D125" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>970</v>
       </c>
@@ -9558,8 +9956,11 @@
       <c r="D126" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>970</v>
       </c>
@@ -9572,8 +9973,11 @@
       <c r="D127" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>970</v>
       </c>
@@ -9586,8 +9990,11 @@
       <c r="D128" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>970</v>
       </c>
@@ -9600,8 +10007,11 @@
       <c r="D129" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>970</v>
       </c>
@@ -9614,8 +10024,11 @@
       <c r="D130" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>970</v>
       </c>
@@ -9628,8 +10041,11 @@
       <c r="D131" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>970</v>
       </c>
@@ -9642,8 +10058,11 @@
       <c r="D132" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>970</v>
       </c>
@@ -9656,8 +10075,11 @@
       <c r="D133" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>970</v>
       </c>
@@ -9670,8 +10092,11 @@
       <c r="D134" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>970</v>
       </c>
@@ -9684,8 +10109,11 @@
       <c r="D135" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>970</v>
       </c>
@@ -9698,8 +10126,11 @@
       <c r="D136" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>970</v>
       </c>
@@ -9712,8 +10143,11 @@
       <c r="D137" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>100</v>
       </c>
@@ -9726,8 +10160,11 @@
       <c r="D138" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>100</v>
       </c>
@@ -9740,8 +10177,11 @@
       <c r="D139" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>100</v>
       </c>
@@ -9754,8 +10194,11 @@
       <c r="D140" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>100</v>
       </c>
@@ -9768,8 +10211,11 @@
       <c r="D141" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>100</v>
       </c>
@@ -9782,8 +10228,11 @@
       <c r="D142" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>100</v>
       </c>
@@ -9796,8 +10245,11 @@
       <c r="D143" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>100</v>
       </c>
@@ -9810,8 +10262,11 @@
       <c r="D144" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>100</v>
       </c>
@@ -9824,8 +10279,11 @@
       <c r="D145" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>100</v>
       </c>
@@ -9838,8 +10296,11 @@
       <c r="D146" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>100</v>
       </c>
@@ -9852,8 +10313,11 @@
       <c r="D147" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>100</v>
       </c>
@@ -9866,8 +10330,11 @@
       <c r="D148" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>980</v>
       </c>
@@ -9880,8 +10347,11 @@
       <c r="D149" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>980</v>
       </c>
@@ -9894,8 +10364,11 @@
       <c r="D150" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>980</v>
       </c>
@@ -9908,8 +10381,11 @@
       <c r="D151" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>980</v>
       </c>
@@ -9922,8 +10398,11 @@
       <c r="D152" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>980</v>
       </c>
@@ -9936,8 +10415,11 @@
       <c r="D153" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>980</v>
       </c>
@@ -9950,8 +10432,11 @@
       <c r="D154" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>980</v>
       </c>
@@ -9964,8 +10449,11 @@
       <c r="D155" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>980</v>
       </c>
@@ -9978,8 +10466,11 @@
       <c r="D156" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>980</v>
       </c>
@@ -9992,8 +10483,11 @@
       <c r="D157" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>980</v>
       </c>
@@ -10006,8 +10500,11 @@
       <c r="D158" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>980</v>
       </c>
@@ -10020,8 +10517,11 @@
       <c r="D159" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>980</v>
       </c>
@@ -10034,8 +10534,11 @@
       <c r="D160" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>980</v>
       </c>
@@ -10048,8 +10551,11 @@
       <c r="D161" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>980</v>
       </c>
@@ -10062,8 +10568,11 @@
       <c r="D162" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>980</v>
       </c>
@@ -10076,8 +10585,11 @@
       <c r="D163" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>980</v>
       </c>
@@ -10090,8 +10602,11 @@
       <c r="D164" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>980</v>
       </c>
@@ -10104,8 +10619,11 @@
       <c r="D165" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>980</v>
       </c>
@@ -10118,8 +10636,11 @@
       <c r="D166" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>980</v>
       </c>
@@ -10132,8 +10653,11 @@
       <c r="D167" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>980</v>
       </c>
@@ -10146,8 +10670,11 @@
       <c r="D168" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>980</v>
       </c>
@@ -10160,8 +10687,11 @@
       <c r="D169" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>980</v>
       </c>
@@ -10174,8 +10704,11 @@
       <c r="D170" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>980</v>
       </c>
@@ -10188,8 +10721,11 @@
       <c r="D171" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>980</v>
       </c>
@@ -10202,8 +10738,11 @@
       <c r="D172" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>980</v>
       </c>
@@ -10216,8 +10755,11 @@
       <c r="D173" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>960</v>
       </c>
@@ -10230,8 +10772,11 @@
       <c r="D174" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>960</v>
       </c>
@@ -10244,8 +10789,11 @@
       <c r="D175" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>960</v>
       </c>
@@ -10258,8 +10806,11 @@
       <c r="D176" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>960</v>
       </c>
@@ -10272,8 +10823,11 @@
       <c r="D177" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>960</v>
       </c>
@@ -10286,8 +10840,11 @@
       <c r="D178" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>960</v>
       </c>
@@ -10300,8 +10857,11 @@
       <c r="D179" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>100</v>
       </c>
@@ -10314,8 +10874,11 @@
       <c r="D180" s="3">
         <v>20200228</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>990</v>
       </c>
@@ -10328,8 +10891,11 @@
       <c r="D181" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>990</v>
       </c>
@@ -10342,8 +10908,11 @@
       <c r="D182" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>990</v>
       </c>
@@ -10356,8 +10925,11 @@
       <c r="D183" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>990</v>
       </c>
@@ -10370,8 +10942,11 @@
       <c r="D184" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>990</v>
       </c>
@@ -10384,8 +10959,11 @@
       <c r="D185" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>990</v>
       </c>
@@ -10398,8 +10976,11 @@
       <c r="D186" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>990</v>
       </c>
@@ -10412,8 +10993,11 @@
       <c r="D187" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>990</v>
       </c>
@@ -10426,8 +11010,11 @@
       <c r="D188" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>990</v>
       </c>
@@ -10440,8 +11027,11 @@
       <c r="D189" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>990</v>
       </c>
@@ -10454,8 +11044,11 @@
       <c r="D190" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>990</v>
       </c>
@@ -10468,8 +11061,11 @@
       <c r="D191" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>990</v>
       </c>
@@ -10482,8 +11078,11 @@
       <c r="D192" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>990</v>
       </c>
@@ -10496,8 +11095,11 @@
       <c r="D193" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>990</v>
       </c>
@@ -10510,8 +11112,11 @@
       <c r="D194" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>990</v>
       </c>
@@ -10524,8 +11129,11 @@
       <c r="D195" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>990</v>
       </c>
@@ -10538,8 +11146,11 @@
       <c r="D196" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>990</v>
       </c>
@@ -10552,8 +11163,11 @@
       <c r="D197" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>990</v>
       </c>
@@ -10566,8 +11180,11 @@
       <c r="D198" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>990</v>
       </c>
@@ -10580,8 +11197,11 @@
       <c r="D199" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>990</v>
       </c>
@@ -10594,8 +11214,11 @@
       <c r="D200" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>990</v>
       </c>
@@ -10608,8 +11231,11 @@
       <c r="D201" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>990</v>
       </c>
@@ -10622,8 +11248,11 @@
       <c r="D202" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>990</v>
       </c>
@@ -10636,8 +11265,11 @@
       <c r="D203" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>990</v>
       </c>
@@ -10650,8 +11282,11 @@
       <c r="D204" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>990</v>
       </c>
@@ -10664,8 +11299,11 @@
       <c r="D205" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>990</v>
       </c>
@@ -10678,8 +11316,11 @@
       <c r="D206" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>990</v>
       </c>
@@ -10692,8 +11333,11 @@
       <c r="D207" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>960</v>
       </c>
@@ -10706,8 +11350,11 @@
       <c r="D208" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>960</v>
       </c>
@@ -10720,8 +11367,11 @@
       <c r="D209" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>310</v>
       </c>
@@ -10734,8 +11384,11 @@
       <c r="D210" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>310</v>
       </c>
@@ -10748,8 +11401,11 @@
       <c r="D211" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>310</v>
       </c>
@@ -10762,8 +11418,11 @@
       <c r="D212" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>310</v>
       </c>
@@ -10776,8 +11435,11 @@
       <c r="D213" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>310</v>
       </c>
@@ -10790,8 +11452,11 @@
       <c r="D214" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>310</v>
       </c>
@@ -10804,8 +11469,11 @@
       <c r="D215" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>310</v>
       </c>
@@ -10818,8 +11486,11 @@
       <c r="D216" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>310</v>
       </c>
@@ -10832,8 +11503,11 @@
       <c r="D217" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>310</v>
       </c>
@@ -10846,8 +11520,11 @@
       <c r="D218" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>310</v>
       </c>
@@ -10860,8 +11537,11 @@
       <c r="D219" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>310</v>
       </c>
@@ -10874,8 +11554,11 @@
       <c r="D220" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>310</v>
       </c>
@@ -10888,8 +11571,11 @@
       <c r="D221" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>310</v>
       </c>
@@ -10902,8 +11588,11 @@
       <c r="D222" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>310</v>
       </c>
@@ -10916,8 +11605,11 @@
       <c r="D223" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>310</v>
       </c>
@@ -10930,8 +11622,11 @@
       <c r="D224" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>310</v>
       </c>
@@ -10944,8 +11639,11 @@
       <c r="D225" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>310</v>
       </c>
@@ -10958,8 +11656,11 @@
       <c r="D226" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>310</v>
       </c>
@@ -10972,8 +11673,11 @@
       <c r="D227" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>310</v>
       </c>
@@ -10986,8 +11690,11 @@
       <c r="D228" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>310</v>
       </c>
@@ -11000,8 +11707,11 @@
       <c r="D229" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>310</v>
       </c>
@@ -11014,8 +11724,11 @@
       <c r="D230" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>310</v>
       </c>
@@ -11028,8 +11741,11 @@
       <c r="D231" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>310</v>
       </c>
@@ -11042,8 +11758,11 @@
       <c r="D232" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>310</v>
       </c>
@@ -11056,8 +11775,11 @@
       <c r="D233" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>310</v>
       </c>
@@ -11070,8 +11792,11 @@
       <c r="D234" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>310</v>
       </c>
@@ -11084,8 +11809,11 @@
       <c r="D235" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>310</v>
       </c>
@@ -11098,8 +11826,11 @@
       <c r="D236" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>310</v>
       </c>
@@ -11112,8 +11843,11 @@
       <c r="D237" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>310</v>
       </c>
@@ -11126,8 +11860,11 @@
       <c r="D238" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>310</v>
       </c>
@@ -11140,8 +11877,11 @@
       <c r="D239" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>310</v>
       </c>
@@ -11154,8 +11894,11 @@
       <c r="D240" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>310</v>
       </c>
@@ -11168,8 +11911,11 @@
       <c r="D241" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>310</v>
       </c>
@@ -11182,8 +11928,11 @@
       <c r="D242" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>310</v>
       </c>
@@ -11196,8 +11945,11 @@
       <c r="D243" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>310</v>
       </c>
@@ -11210,8 +11962,11 @@
       <c r="D244" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>310</v>
       </c>
@@ -11224,8 +11979,11 @@
       <c r="D245" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>310</v>
       </c>
@@ -11238,8 +11996,11 @@
       <c r="D246" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>310</v>
       </c>
@@ -11252,8 +12013,11 @@
       <c r="D247" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>310</v>
       </c>
@@ -11266,8 +12030,11 @@
       <c r="D248" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>310</v>
       </c>
@@ -11280,8 +12047,11 @@
       <c r="D249" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>310</v>
       </c>
@@ -11294,8 +12064,11 @@
       <c r="D250" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>310</v>
       </c>
@@ -11308,8 +12081,11 @@
       <c r="D251" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>310</v>
       </c>
@@ -11322,8 +12098,11 @@
       <c r="D252" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>310</v>
       </c>
@@ -11336,8 +12115,11 @@
       <c r="D253" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>310</v>
       </c>
@@ -11350,8 +12132,11 @@
       <c r="D254" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>310</v>
       </c>
@@ -11364,8 +12149,11 @@
       <c r="D255" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>310</v>
       </c>
@@ -11378,8 +12166,11 @@
       <c r="D256" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>310</v>
       </c>
@@ -11392,8 +12183,11 @@
       <c r="D257" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>310</v>
       </c>
@@ -11406,8 +12200,11 @@
       <c r="D258" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>310</v>
       </c>
@@ -11420,8 +12217,11 @@
       <c r="D259" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>310</v>
       </c>
@@ -11434,8 +12234,11 @@
       <c r="D260" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>310</v>
       </c>
@@ -11448,8 +12251,11 @@
       <c r="D261" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>310</v>
       </c>
@@ -11462,8 +12268,11 @@
       <c r="D262" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>310</v>
       </c>
@@ -11476,8 +12285,11 @@
       <c r="D263" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>310</v>
       </c>
@@ -11490,8 +12302,11 @@
       <c r="D264" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>310</v>
       </c>
@@ -11504,8 +12319,11 @@
       <c r="D265" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>310</v>
       </c>
@@ -11518,8 +12336,11 @@
       <c r="D266" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>310</v>
       </c>
@@ -11532,8 +12353,11 @@
       <c r="D267" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>310</v>
       </c>
@@ -11546,8 +12370,11 @@
       <c r="D268" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>310</v>
       </c>
@@ -11560,8 +12387,11 @@
       <c r="D269" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>310</v>
       </c>
@@ -11574,8 +12404,11 @@
       <c r="D270" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>310</v>
       </c>
@@ -11588,8 +12421,11 @@
       <c r="D271" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>240</v>
       </c>
@@ -11602,8 +12438,11 @@
       <c r="D272" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>240</v>
       </c>
@@ -11616,8 +12455,11 @@
       <c r="D273" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>240</v>
       </c>
@@ -11630,8 +12472,11 @@
       <c r="D274" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>240</v>
       </c>
@@ -11644,8 +12489,11 @@
       <c r="D275" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>240</v>
       </c>
@@ -11658,8 +12506,11 @@
       <c r="D276" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>940</v>
       </c>
@@ -11672,8 +12523,11 @@
       <c r="D277" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>940</v>
       </c>
@@ -11686,8 +12540,11 @@
       <c r="D278" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>940</v>
       </c>
@@ -11700,8 +12557,11 @@
       <c r="D279" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>940</v>
       </c>
@@ -11714,8 +12574,11 @@
       <c r="D280" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>940</v>
       </c>
@@ -11728,8 +12591,11 @@
       <c r="D281" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>410</v>
       </c>
@@ -11742,8 +12608,11 @@
       <c r="D282" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>410</v>
       </c>
@@ -11756,8 +12625,11 @@
       <c r="D283" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>410</v>
       </c>
@@ -11770,8 +12642,11 @@
       <c r="D284" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>410</v>
       </c>
@@ -11784,8 +12659,11 @@
       <c r="D285" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>410</v>
       </c>
@@ -11798,8 +12676,11 @@
       <c r="D286" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>410</v>
       </c>
@@ -11812,8 +12693,11 @@
       <c r="D287" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>410</v>
       </c>
@@ -11826,8 +12710,11 @@
       <c r="D288" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>410</v>
       </c>
@@ -11840,8 +12727,11 @@
       <c r="D289" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>999</v>
       </c>
@@ -11854,8 +12744,11 @@
       <c r="D290" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>999</v>
       </c>
@@ -11868,8 +12761,11 @@
       <c r="D291" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>999</v>
       </c>
@@ -11882,8 +12778,11 @@
       <c r="D292" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>999</v>
       </c>
@@ -11896,8 +12795,11 @@
       <c r="D293" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>999</v>
       </c>
@@ -11910,8 +12812,11 @@
       <c r="D294" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>999</v>
       </c>
@@ -11924,8 +12829,11 @@
       <c r="D295" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E295" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>999</v>
       </c>
@@ -11938,8 +12846,11 @@
       <c r="D296" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>999</v>
       </c>
@@ -11952,8 +12863,11 @@
       <c r="D297" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>999</v>
       </c>
@@ -11966,8 +12880,11 @@
       <c r="D298" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E298" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>999</v>
       </c>
@@ -11980,8 +12897,11 @@
       <c r="D299" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>999</v>
       </c>
@@ -11994,8 +12914,11 @@
       <c r="D300" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E300" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>999</v>
       </c>
@@ -12008,8 +12931,11 @@
       <c r="D301" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E301" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>999</v>
       </c>
@@ -12022,8 +12948,11 @@
       <c r="D302" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>999</v>
       </c>
@@ -12036,8 +12965,11 @@
       <c r="D303" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E303" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>999</v>
       </c>
@@ -12050,8 +12982,11 @@
       <c r="D304" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>999</v>
       </c>
@@ -12064,8 +12999,11 @@
       <c r="D305" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E305" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>999</v>
       </c>
@@ -12078,8 +13016,11 @@
       <c r="D306" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E306" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>999</v>
       </c>
@@ -12092,8 +13033,11 @@
       <c r="D307" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E307" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>999</v>
       </c>
@@ -12106,8 +13050,11 @@
       <c r="D308" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E308" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>999</v>
       </c>
@@ -12120,8 +13067,11 @@
       <c r="D309" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E309" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>999</v>
       </c>
@@ -12134,8 +13084,11 @@
       <c r="D310" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>999</v>
       </c>
@@ -12148,8 +13101,11 @@
       <c r="D311" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E311" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>999</v>
       </c>
@@ -12162,8 +13118,11 @@
       <c r="D312" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>999</v>
       </c>
@@ -12176,8 +13135,11 @@
       <c r="D313" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E313" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>999</v>
       </c>
@@ -12190,8 +13152,11 @@
       <c r="D314" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E314" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>999</v>
       </c>
@@ -12204,8 +13169,11 @@
       <c r="D315" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>999</v>
       </c>
@@ -12218,8 +13186,11 @@
       <c r="D316" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>999</v>
       </c>
@@ -12232,8 +13203,11 @@
       <c r="D317" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>999</v>
       </c>
@@ -12246,8 +13220,11 @@
       <c r="D318" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>999</v>
       </c>
@@ -12260,8 +13237,11 @@
       <c r="D319" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>999</v>
       </c>
@@ -12274,8 +13254,11 @@
       <c r="D320" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>999</v>
       </c>
@@ -12288,8 +13271,11 @@
       <c r="D321" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E321" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>999</v>
       </c>
@@ -12302,8 +13288,11 @@
       <c r="D322" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E322" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>999</v>
       </c>
@@ -12316,8 +13305,11 @@
       <c r="D323" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E323" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>999</v>
       </c>
@@ -12330,8 +13322,11 @@
       <c r="D324" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E324" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>999</v>
       </c>
@@ -12344,8 +13339,11 @@
       <c r="D325" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>999</v>
       </c>
@@ -12358,8 +13356,11 @@
       <c r="D326" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E326" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>999</v>
       </c>
@@ -12372,8 +13373,11 @@
       <c r="D327" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>999</v>
       </c>
@@ -12386,8 +13390,11 @@
       <c r="D328" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>999</v>
       </c>
@@ -12400,8 +13407,11 @@
       <c r="D329" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>999</v>
       </c>
@@ -12414,8 +13424,11 @@
       <c r="D330" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E330" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>999</v>
       </c>
@@ -12428,8 +13441,11 @@
       <c r="D331" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E331" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>999</v>
       </c>
@@ -12442,8 +13458,11 @@
       <c r="D332" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E332" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>999</v>
       </c>
@@ -12456,8 +13475,11 @@
       <c r="D333" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E333" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>999</v>
       </c>
@@ -12470,8 +13492,11 @@
       <c r="D334" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E334" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>999</v>
       </c>
@@ -12484,8 +13509,11 @@
       <c r="D335" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E335" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>999</v>
       </c>
@@ -12498,8 +13526,11 @@
       <c r="D336" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E336" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>999</v>
       </c>
@@ -12512,8 +13543,11 @@
       <c r="D337" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E337" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>999</v>
       </c>
@@ -12526,8 +13560,11 @@
       <c r="D338" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E338" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>999</v>
       </c>
@@ -12540,8 +13577,11 @@
       <c r="D339" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E339" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>999</v>
       </c>
@@ -12554,8 +13594,11 @@
       <c r="D340" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E340" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>999</v>
       </c>
@@ -12568,8 +13611,11 @@
       <c r="D341" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E341" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>999</v>
       </c>
@@ -12582,8 +13628,11 @@
       <c r="D342" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E342" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>999</v>
       </c>
@@ -12596,8 +13645,11 @@
       <c r="D343" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E343" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>999</v>
       </c>
@@ -12610,8 +13662,11 @@
       <c r="D344" s="2">
         <v>20190527</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E344" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>400</v>
       </c>
@@ -12624,8 +13679,11 @@
       <c r="D345" s="2">
         <v>20190702</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E345" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>900</v>
       </c>
@@ -12638,8 +13696,11 @@
       <c r="D346" s="2">
         <v>20190702</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E346" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>998</v>
       </c>
@@ -12652,8 +13713,11 @@
       <c r="D347" s="2">
         <v>20190809</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E347" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>998</v>
       </c>
@@ -12666,8 +13730,11 @@
       <c r="D348" s="2">
         <v>20190809</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E348" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>998</v>
       </c>
@@ -12680,8 +13747,11 @@
       <c r="D349" s="2">
         <v>20190809</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E349" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>998</v>
       </c>
@@ -12694,8 +13764,11 @@
       <c r="D350" s="2">
         <v>20190809</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E350" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>998</v>
       </c>
@@ -12708,8 +13781,11 @@
       <c r="D351" s="2">
         <v>20190809</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E351" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>998</v>
       </c>
@@ -12722,8 +13798,11 @@
       <c r="D352" s="2">
         <v>20190809</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E352" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>998</v>
       </c>
@@ -12736,8 +13815,11 @@
       <c r="D353" s="2">
         <v>20190809</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E353" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>998</v>
       </c>
@@ -12750,8 +13832,11 @@
       <c r="D354" s="2">
         <v>20190809</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E354" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>998</v>
       </c>
@@ -12764,8 +13849,11 @@
       <c r="D355" s="2">
         <v>20190809</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E355" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>998</v>
       </c>
@@ -12778,8 +13866,11 @@
       <c r="D356" s="2">
         <v>20190809</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E356" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>998</v>
       </c>
@@ -12792,8 +13883,11 @@
       <c r="D357" s="2">
         <v>20190809</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E357" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>998</v>
       </c>
@@ -12806,8 +13900,11 @@
       <c r="D358" s="2">
         <v>20190809</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E358" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>998</v>
       </c>
@@ -12820,8 +13917,11 @@
       <c r="D359" s="2">
         <v>20190809</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E359" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>110</v>
       </c>
@@ -12834,8 +13934,11 @@
       <c r="D360" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E360" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>110</v>
       </c>
@@ -12848,8 +13951,11 @@
       <c r="D361" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E361" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>110</v>
       </c>
@@ -12862,8 +13968,11 @@
       <c r="D362" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E362" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>110</v>
       </c>
@@ -12876,8 +13985,11 @@
       <c r="D363" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E363" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>110</v>
       </c>
@@ -12890,8 +14002,11 @@
       <c r="D364" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E364" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>110</v>
       </c>
@@ -12904,8 +14019,11 @@
       <c r="D365" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E365" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>110</v>
       </c>
@@ -12918,8 +14036,11 @@
       <c r="D366" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E366" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>110</v>
       </c>
@@ -12932,8 +14053,11 @@
       <c r="D367" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E367" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>110</v>
       </c>
@@ -12946,8 +14070,11 @@
       <c r="D368" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E368" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>110</v>
       </c>
@@ -12960,8 +14087,11 @@
       <c r="D369" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E369" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>110</v>
       </c>
@@ -12974,8 +14104,11 @@
       <c r="D370" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E370" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>110</v>
       </c>
@@ -12988,8 +14121,11 @@
       <c r="D371" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E371" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>110</v>
       </c>
@@ -13002,8 +14138,11 @@
       <c r="D372" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E372" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>110</v>
       </c>
@@ -13016,8 +14155,11 @@
       <c r="D373" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E373" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>110</v>
       </c>
@@ -13030,8 +14172,11 @@
       <c r="D374" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E374" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>110</v>
       </c>
@@ -13044,8 +14189,11 @@
       <c r="D375" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E375" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>110</v>
       </c>
@@ -13058,8 +14206,11 @@
       <c r="D376" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E376" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>110</v>
       </c>
@@ -13072,8 +14223,11 @@
       <c r="D377" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E377" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>110</v>
       </c>
@@ -13086,8 +14240,11 @@
       <c r="D378" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E378" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>110</v>
       </c>
@@ -13100,8 +14257,11 @@
       <c r="D379" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E379" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>110</v>
       </c>
@@ -13114,8 +14274,11 @@
       <c r="D380" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E380" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>110</v>
       </c>
@@ -13128,8 +14291,11 @@
       <c r="D381" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E381" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>110</v>
       </c>
@@ -13142,8 +14308,11 @@
       <c r="D382" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E382" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>110</v>
       </c>
@@ -13156,8 +14325,11 @@
       <c r="D383" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E383" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>110</v>
       </c>
@@ -13170,8 +14342,11 @@
       <c r="D384" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E384" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>110</v>
       </c>
@@ -13184,8 +14359,11 @@
       <c r="D385" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E385" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>110</v>
       </c>
@@ -13198,8 +14376,11 @@
       <c r="D386" s="2">
         <v>20190228</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E386" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>110</v>
       </c>
@@ -13212,9 +14393,11 @@
       <c r="D387" s="2">
         <v>20190228</v>
       </c>
+      <c r="E387" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D387" xr:uid="{1637F345-A63A-4E86-A6D8-33073B59E337}"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -13225,10 +14408,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:D293"/>
+  <dimension ref="A1:E293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13236,10 +14419,11 @@
     <col min="1" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="2"/>
+    <col min="5" max="5" width="35.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>224</v>
       </c>
@@ -13252,8 +14436,11 @@
       <c r="D1" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -13266,8 +14453,11 @@
       <c r="D2" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -13280,8 +14470,11 @@
       <c r="D3" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>200</v>
       </c>
@@ -13294,8 +14487,11 @@
       <c r="D4" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>200</v>
       </c>
@@ -13308,8 +14504,11 @@
       <c r="D5" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>200</v>
       </c>
@@ -13322,8 +14521,11 @@
       <c r="D6" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>200</v>
       </c>
@@ -13336,8 +14538,11 @@
       <c r="D7" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>200</v>
       </c>
@@ -13350,8 +14555,11 @@
       <c r="D8" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>200</v>
       </c>
@@ -13364,8 +14572,11 @@
       <c r="D9" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>200</v>
       </c>
@@ -13378,8 +14589,11 @@
       <c r="D10" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>200</v>
       </c>
@@ -13392,8 +14606,11 @@
       <c r="D11" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>200</v>
       </c>
@@ -13406,8 +14623,11 @@
       <c r="D12" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>200</v>
       </c>
@@ -13420,8 +14640,11 @@
       <c r="D13" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>200</v>
       </c>
@@ -13434,8 +14657,11 @@
       <c r="D14" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>200</v>
       </c>
@@ -13448,8 +14674,11 @@
       <c r="D15" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>200</v>
       </c>
@@ -13462,8 +14691,11 @@
       <c r="D16" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>200</v>
       </c>
@@ -13476,8 +14708,11 @@
       <c r="D17" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>200</v>
       </c>
@@ -13490,8 +14725,11 @@
       <c r="D18" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>200</v>
       </c>
@@ -13504,8 +14742,11 @@
       <c r="D19" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>200</v>
       </c>
@@ -13518,8 +14759,11 @@
       <c r="D20" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>200</v>
       </c>
@@ -13532,8 +14776,11 @@
       <c r="D21" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>200</v>
       </c>
@@ -13546,8 +14793,11 @@
       <c r="D22" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>200</v>
       </c>
@@ -13560,8 +14810,11 @@
       <c r="D23" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>300</v>
       </c>
@@ -13574,8 +14827,11 @@
       <c r="D24" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>300</v>
       </c>
@@ -13588,8 +14844,11 @@
       <c r="D25" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>300</v>
       </c>
@@ -13602,8 +14861,11 @@
       <c r="D26" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>300</v>
       </c>
@@ -13616,8 +14878,11 @@
       <c r="D27" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>300</v>
       </c>
@@ -13630,8 +14895,11 @@
       <c r="D28" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>300</v>
       </c>
@@ -13644,8 +14912,11 @@
       <c r="D29" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>300</v>
       </c>
@@ -13658,8 +14929,11 @@
       <c r="D30" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>300</v>
       </c>
@@ -13672,8 +14946,11 @@
       <c r="D31" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>300</v>
       </c>
@@ -13686,8 +14963,11 @@
       <c r="D32" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>300</v>
       </c>
@@ -13700,8 +14980,11 @@
       <c r="D33" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>300</v>
       </c>
@@ -13714,8 +14997,11 @@
       <c r="D34" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>300</v>
       </c>
@@ -13728,8 +15014,11 @@
       <c r="D35" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>300</v>
       </c>
@@ -13742,8 +15031,11 @@
       <c r="D36" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>300</v>
       </c>
@@ -13756,8 +15048,11 @@
       <c r="D37" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>300</v>
       </c>
@@ -13770,8 +15065,11 @@
       <c r="D38" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>300</v>
       </c>
@@ -13784,8 +15082,11 @@
       <c r="D39" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>300</v>
       </c>
@@ -13798,8 +15099,11 @@
       <c r="D40" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>300</v>
       </c>
@@ -13812,8 +15116,11 @@
       <c r="D41" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>300</v>
       </c>
@@ -13826,8 +15133,11 @@
       <c r="D42" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>600</v>
       </c>
@@ -13840,8 +15150,11 @@
       <c r="D43" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>600</v>
       </c>
@@ -13854,8 +15167,11 @@
       <c r="D44" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>300</v>
       </c>
@@ -13868,8 +15184,11 @@
       <c r="D45" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>300</v>
       </c>
@@ -13882,8 +15201,11 @@
       <c r="D46" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>600</v>
       </c>
@@ -13896,8 +15218,11 @@
       <c r="D47" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>600</v>
       </c>
@@ -13910,8 +15235,11 @@
       <c r="D48" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>300</v>
       </c>
@@ -13924,8 +15252,11 @@
       <c r="D49" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>600</v>
       </c>
@@ -13938,8 +15269,11 @@
       <c r="D50" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>400</v>
       </c>
@@ -13952,8 +15286,11 @@
       <c r="D51" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>400</v>
       </c>
@@ -13966,8 +15303,11 @@
       <c r="D52" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>400</v>
       </c>
@@ -13980,8 +15320,11 @@
       <c r="D53" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>400</v>
       </c>
@@ -13994,8 +15337,11 @@
       <c r="D54" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>400</v>
       </c>
@@ -14008,8 +15354,11 @@
       <c r="D55" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>400</v>
       </c>
@@ -14022,8 +15371,11 @@
       <c r="D56" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>400</v>
       </c>
@@ -14036,8 +15388,11 @@
       <c r="D57" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>400</v>
       </c>
@@ -14050,8 +15405,11 @@
       <c r="D58" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>400</v>
       </c>
@@ -14064,8 +15422,11 @@
       <c r="D59" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>400</v>
       </c>
@@ -14078,8 +15439,11 @@
       <c r="D60" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>400</v>
       </c>
@@ -14092,8 +15456,11 @@
       <c r="D61" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>400</v>
       </c>
@@ -14106,8 +15473,11 @@
       <c r="D62" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>400</v>
       </c>
@@ -14120,8 +15490,11 @@
       <c r="D63" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>400</v>
       </c>
@@ -14134,8 +15507,11 @@
       <c r="D64" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>400</v>
       </c>
@@ -14148,8 +15524,11 @@
       <c r="D65" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>400</v>
       </c>
@@ -14162,8 +15541,11 @@
       <c r="D66" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>400</v>
       </c>
@@ -14176,8 +15558,11 @@
       <c r="D67" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>400</v>
       </c>
@@ -14190,8 +15575,11 @@
       <c r="D68" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>400</v>
       </c>
@@ -14204,8 +15592,11 @@
       <c r="D69" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>400</v>
       </c>
@@ -14218,8 +15609,11 @@
       <c r="D70" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>400</v>
       </c>
@@ -14232,8 +15626,11 @@
       <c r="D71" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>400</v>
       </c>
@@ -14246,8 +15643,11 @@
       <c r="D72" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>400</v>
       </c>
@@ -14260,8 +15660,11 @@
       <c r="D73" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>400</v>
       </c>
@@ -14274,8 +15677,11 @@
       <c r="D74" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>400</v>
       </c>
@@ -14288,8 +15694,11 @@
       <c r="D75" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>400</v>
       </c>
@@ -14302,8 +15711,11 @@
       <c r="D76" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>400</v>
       </c>
@@ -14316,8 +15728,11 @@
       <c r="D77" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>400</v>
       </c>
@@ -14330,8 +15745,11 @@
       <c r="D78" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>400</v>
       </c>
@@ -14344,8 +15762,11 @@
       <c r="D79" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>400</v>
       </c>
@@ -14358,8 +15779,11 @@
       <c r="D80" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>400</v>
       </c>
@@ -14372,8 +15796,11 @@
       <c r="D81" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>400</v>
       </c>
@@ -14386,8 +15813,11 @@
       <c r="D82" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>500</v>
       </c>
@@ -14400,8 +15830,11 @@
       <c r="D83" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>500</v>
       </c>
@@ -14414,8 +15847,11 @@
       <c r="D84" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>500</v>
       </c>
@@ -14428,8 +15864,11 @@
       <c r="D85" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>500</v>
       </c>
@@ -14442,8 +15881,11 @@
       <c r="D86" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>500</v>
       </c>
@@ -14456,8 +15898,11 @@
       <c r="D87" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>500</v>
       </c>
@@ -14470,8 +15915,11 @@
       <c r="D88" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>500</v>
       </c>
@@ -14484,8 +15932,11 @@
       <c r="D89" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>500</v>
       </c>
@@ -14498,8 +15949,11 @@
       <c r="D90" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>500</v>
       </c>
@@ -14512,8 +15966,11 @@
       <c r="D91" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>500</v>
       </c>
@@ -14526,8 +15983,11 @@
       <c r="D92" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>500</v>
       </c>
@@ -14540,8 +16000,11 @@
       <c r="D93" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>500</v>
       </c>
@@ -14554,8 +16017,11 @@
       <c r="D94" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>500</v>
       </c>
@@ -14568,8 +16034,11 @@
       <c r="D95" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>600</v>
       </c>
@@ -14582,8 +16051,11 @@
       <c r="D96" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>600</v>
       </c>
@@ -14596,8 +16068,11 @@
       <c r="D97" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>600</v>
       </c>
@@ -14610,8 +16085,11 @@
       <c r="D98" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>600</v>
       </c>
@@ -14624,8 +16102,11 @@
       <c r="D99" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>600</v>
       </c>
@@ -14638,8 +16119,11 @@
       <c r="D100" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>600</v>
       </c>
@@ -14652,8 +16136,11 @@
       <c r="D101" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>600</v>
       </c>
@@ -14666,8 +16153,11 @@
       <c r="D102" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>600</v>
       </c>
@@ -14680,8 +16170,11 @@
       <c r="D103" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>600</v>
       </c>
@@ -14694,8 +16187,11 @@
       <c r="D104" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>600</v>
       </c>
@@ -14708,8 +16204,11 @@
       <c r="D105" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>600</v>
       </c>
@@ -14722,8 +16221,11 @@
       <c r="D106" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>600</v>
       </c>
@@ -14736,8 +16238,11 @@
       <c r="D107" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>600</v>
       </c>
@@ -14750,8 +16255,11 @@
       <c r="D108" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>600</v>
       </c>
@@ -14764,8 +16272,11 @@
       <c r="D109" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>600</v>
       </c>
@@ -14778,8 +16289,11 @@
       <c r="D110" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>600</v>
       </c>
@@ -14792,8 +16306,11 @@
       <c r="D111" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>600</v>
       </c>
@@ -14806,8 +16323,11 @@
       <c r="D112" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>600</v>
       </c>
@@ -14820,8 +16340,11 @@
       <c r="D113" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>600</v>
       </c>
@@ -14834,8 +16357,11 @@
       <c r="D114" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>600</v>
       </c>
@@ -14848,8 +16374,11 @@
       <c r="D115" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>600</v>
       </c>
@@ -14862,8 +16391,11 @@
       <c r="D116" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>600</v>
       </c>
@@ -14876,8 +16408,11 @@
       <c r="D117" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>600</v>
       </c>
@@ -14890,8 +16425,11 @@
       <c r="D118" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>600</v>
       </c>
@@ -14904,8 +16442,11 @@
       <c r="D119" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>700</v>
       </c>
@@ -14918,8 +16459,11 @@
       <c r="D120" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>700</v>
       </c>
@@ -14932,8 +16476,11 @@
       <c r="D121" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>700</v>
       </c>
@@ -14946,8 +16493,11 @@
       <c r="D122" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>700</v>
       </c>
@@ -14960,8 +16510,11 @@
       <c r="D123" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>700</v>
       </c>
@@ -14974,8 +16527,11 @@
       <c r="D124" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>700</v>
       </c>
@@ -14988,8 +16544,11 @@
       <c r="D125" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>700</v>
       </c>
@@ -15002,8 +16561,11 @@
       <c r="D126" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>700</v>
       </c>
@@ -15016,8 +16578,11 @@
       <c r="D127" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>700</v>
       </c>
@@ -15030,8 +16595,11 @@
       <c r="D128" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>700</v>
       </c>
@@ -15044,8 +16612,11 @@
       <c r="D129" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>700</v>
       </c>
@@ -15058,8 +16629,11 @@
       <c r="D130" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>700</v>
       </c>
@@ -15072,8 +16646,11 @@
       <c r="D131" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>700</v>
       </c>
@@ -15086,8 +16663,11 @@
       <c r="D132" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>700</v>
       </c>
@@ -15100,8 +16680,11 @@
       <c r="D133" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>700</v>
       </c>
@@ -15114,8 +16697,11 @@
       <c r="D134" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>700</v>
       </c>
@@ -15128,8 +16714,11 @@
       <c r="D135" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>700</v>
       </c>
@@ -15142,8 +16731,11 @@
       <c r="D136" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>700</v>
       </c>
@@ -15156,8 +16748,11 @@
       <c r="D137" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>700</v>
       </c>
@@ -15170,8 +16765,11 @@
       <c r="D138" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>700</v>
       </c>
@@ -15184,8 +16782,11 @@
       <c r="D139" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>700</v>
       </c>
@@ -15198,8 +16799,11 @@
       <c r="D140" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>700</v>
       </c>
@@ -15212,8 +16816,11 @@
       <c r="D141" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>700</v>
       </c>
@@ -15226,8 +16833,11 @@
       <c r="D142" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>700</v>
       </c>
@@ -15240,8 +16850,11 @@
       <c r="D143" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>700</v>
       </c>
@@ -15254,8 +16867,11 @@
       <c r="D144" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>700</v>
       </c>
@@ -15268,8 +16884,11 @@
       <c r="D145" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>700</v>
       </c>
@@ -15282,8 +16901,11 @@
       <c r="D146" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>700</v>
       </c>
@@ -15296,8 +16918,11 @@
       <c r="D147" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>700</v>
       </c>
@@ -15310,8 +16935,11 @@
       <c r="D148" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>700</v>
       </c>
@@ -15324,8 +16952,11 @@
       <c r="D149" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>700</v>
       </c>
@@ -15338,8 +16969,11 @@
       <c r="D150" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>700</v>
       </c>
@@ -15352,8 +16986,11 @@
       <c r="D151" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>700</v>
       </c>
@@ -15366,8 +17003,11 @@
       <c r="D152" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>700</v>
       </c>
@@ -15380,8 +17020,11 @@
       <c r="D153" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>700</v>
       </c>
@@ -15394,8 +17037,11 @@
       <c r="D154" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>700</v>
       </c>
@@ -15408,8 +17054,11 @@
       <c r="D155" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>700</v>
       </c>
@@ -15422,8 +17071,11 @@
       <c r="D156" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>700</v>
       </c>
@@ -15436,8 +17088,11 @@
       <c r="D157" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>700</v>
       </c>
@@ -15450,8 +17105,11 @@
       <c r="D158" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>700</v>
       </c>
@@ -15464,8 +17122,11 @@
       <c r="D159" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>700</v>
       </c>
@@ -15478,8 +17139,11 @@
       <c r="D160" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>700</v>
       </c>
@@ -15492,8 +17156,11 @@
       <c r="D161" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>700</v>
       </c>
@@ -15506,8 +17173,11 @@
       <c r="D162" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>700</v>
       </c>
@@ -15520,8 +17190,11 @@
       <c r="D163" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>700</v>
       </c>
@@ -15534,8 +17207,11 @@
       <c r="D164" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>700</v>
       </c>
@@ -15548,8 +17224,11 @@
       <c r="D165" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>700</v>
       </c>
@@ -15562,8 +17241,11 @@
       <c r="D166" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>700</v>
       </c>
@@ -15576,8 +17258,11 @@
       <c r="D167" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>700</v>
       </c>
@@ -15590,8 +17275,11 @@
       <c r="D168" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>700</v>
       </c>
@@ -15604,8 +17292,11 @@
       <c r="D169" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>700</v>
       </c>
@@ -15618,8 +17309,11 @@
       <c r="D170" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>600</v>
       </c>
@@ -15632,8 +17326,11 @@
       <c r="D171" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>800</v>
       </c>
@@ -15646,8 +17343,11 @@
       <c r="D172" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>800</v>
       </c>
@@ -15660,8 +17360,11 @@
       <c r="D173" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>800</v>
       </c>
@@ -15674,8 +17377,11 @@
       <c r="D174" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>800</v>
       </c>
@@ -15688,8 +17394,11 @@
       <c r="D175" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>800</v>
       </c>
@@ -15702,8 +17411,11 @@
       <c r="D176" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>800</v>
       </c>
@@ -15716,8 +17428,11 @@
       <c r="D177" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>800</v>
       </c>
@@ -15730,8 +17445,11 @@
       <c r="D178" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>800</v>
       </c>
@@ -15744,8 +17462,11 @@
       <c r="D179" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>800</v>
       </c>
@@ -15758,8 +17479,11 @@
       <c r="D180" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>800</v>
       </c>
@@ -15772,8 +17496,11 @@
       <c r="D181" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>800</v>
       </c>
@@ -15786,8 +17513,11 @@
       <c r="D182" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>800</v>
       </c>
@@ -15800,8 +17530,11 @@
       <c r="D183" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>800</v>
       </c>
@@ -15814,8 +17547,11 @@
       <c r="D184" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>800</v>
       </c>
@@ -15828,8 +17564,11 @@
       <c r="D185" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>800</v>
       </c>
@@ -15842,8 +17581,11 @@
       <c r="D186" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>600</v>
       </c>
@@ -15856,8 +17598,11 @@
       <c r="D187" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>200</v>
       </c>
@@ -15870,8 +17615,11 @@
       <c r="D188" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>700</v>
       </c>
@@ -15884,8 +17632,11 @@
       <c r="D189" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>100</v>
       </c>
@@ -15898,8 +17649,11 @@
       <c r="D190" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>300</v>
       </c>
@@ -15912,8 +17666,11 @@
       <c r="D191" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>200</v>
       </c>
@@ -15926,8 +17683,11 @@
       <c r="D192" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>500</v>
       </c>
@@ -15940,8 +17700,11 @@
       <c r="D193" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>600</v>
       </c>
@@ -15954,8 +17717,11 @@
       <c r="D194" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>800</v>
       </c>
@@ -15968,8 +17734,11 @@
       <c r="D195" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>800</v>
       </c>
@@ -15982,8 +17751,11 @@
       <c r="D196" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>800</v>
       </c>
@@ -15996,8 +17768,11 @@
       <c r="D197" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>800</v>
       </c>
@@ -16010,8 +17785,11 @@
       <c r="D198" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>800</v>
       </c>
@@ -16024,8 +17802,11 @@
       <c r="D199" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>200</v>
       </c>
@@ -16038,8 +17819,11 @@
       <c r="D200" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -16052,8 +17836,11 @@
       <c r="D201" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>200</v>
       </c>
@@ -16066,8 +17853,11 @@
       <c r="D202" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>700</v>
       </c>
@@ -16080,8 +17870,11 @@
       <c r="D203" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>700</v>
       </c>
@@ -16094,8 +17887,11 @@
       <c r="D204" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>100</v>
       </c>
@@ -16108,8 +17904,11 @@
       <c r="D205" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>200</v>
       </c>
@@ -16122,8 +17921,11 @@
       <c r="D206" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>200</v>
       </c>
@@ -16136,8 +17938,11 @@
       <c r="D207" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>400</v>
       </c>
@@ -16150,8 +17955,11 @@
       <c r="D208" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>800</v>
       </c>
@@ -16164,8 +17972,11 @@
       <c r="D209" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>200</v>
       </c>
@@ -16178,8 +17989,11 @@
       <c r="D210" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>300</v>
       </c>
@@ -16192,8 +18006,11 @@
       <c r="D211" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>300</v>
       </c>
@@ -16206,8 +18023,11 @@
       <c r="D212" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>700</v>
       </c>
@@ -16220,8 +18040,11 @@
       <c r="D213" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>900</v>
       </c>
@@ -16234,8 +18057,11 @@
       <c r="D214" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>900</v>
       </c>
@@ -16248,8 +18074,11 @@
       <c r="D215" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>900</v>
       </c>
@@ -16262,8 +18091,11 @@
       <c r="D216" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>900</v>
       </c>
@@ -16276,8 +18108,11 @@
       <c r="D217" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>900</v>
       </c>
@@ -16290,8 +18125,11 @@
       <c r="D218" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>900</v>
       </c>
@@ -16304,8 +18142,11 @@
       <c r="D219" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>900</v>
       </c>
@@ -16318,8 +18159,11 @@
       <c r="D220" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>900</v>
       </c>
@@ -16332,8 +18176,11 @@
       <c r="D221" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>900</v>
       </c>
@@ -16346,8 +18193,11 @@
       <c r="D222" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>900</v>
       </c>
@@ -16360,8 +18210,11 @@
       <c r="D223" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>900</v>
       </c>
@@ -16374,8 +18227,11 @@
       <c r="D224" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>900</v>
       </c>
@@ -16388,8 +18244,11 @@
       <c r="D225" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>900</v>
       </c>
@@ -16402,8 +18261,11 @@
       <c r="D226" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>900</v>
       </c>
@@ -16416,8 +18278,11 @@
       <c r="D227" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>900</v>
       </c>
@@ -16430,8 +18295,11 @@
       <c r="D228" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>900</v>
       </c>
@@ -16444,8 +18312,11 @@
       <c r="D229" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>900</v>
       </c>
@@ -16458,8 +18329,11 @@
       <c r="D230" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>900</v>
       </c>
@@ -16472,8 +18346,11 @@
       <c r="D231" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>900</v>
       </c>
@@ -16486,8 +18363,11 @@
       <c r="D232" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>900</v>
       </c>
@@ -16500,8 +18380,11 @@
       <c r="D233" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>900</v>
       </c>
@@ -16514,8 +18397,11 @@
       <c r="D234" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>900</v>
       </c>
@@ -16528,8 +18414,11 @@
       <c r="D235" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>900</v>
       </c>
@@ -16542,8 +18431,11 @@
       <c r="D236" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>900</v>
       </c>
@@ -16556,8 +18448,11 @@
       <c r="D237" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>900</v>
       </c>
@@ -16570,8 +18465,11 @@
       <c r="D238" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>900</v>
       </c>
@@ -16584,8 +18482,11 @@
       <c r="D239" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>900</v>
       </c>
@@ -16598,8 +18499,11 @@
       <c r="D240" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>900</v>
       </c>
@@ -16612,8 +18516,11 @@
       <c r="D241" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>900</v>
       </c>
@@ -16626,8 +18533,11 @@
       <c r="D242" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>900</v>
       </c>
@@ -16640,8 +18550,11 @@
       <c r="D243" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>900</v>
       </c>
@@ -16654,8 +18567,11 @@
       <c r="D244" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>900</v>
       </c>
@@ -16668,8 +18584,11 @@
       <c r="D245" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>900</v>
       </c>
@@ -16682,8 +18601,11 @@
       <c r="D246" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>900</v>
       </c>
@@ -16696,8 +18618,11 @@
       <c r="D247" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>900</v>
       </c>
@@ -16710,8 +18635,11 @@
       <c r="D248" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>900</v>
       </c>
@@ -16724,8 +18652,11 @@
       <c r="D249" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>900</v>
       </c>
@@ -16738,8 +18669,11 @@
       <c r="D250" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>900</v>
       </c>
@@ -16752,8 +18686,11 @@
       <c r="D251" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>900</v>
       </c>
@@ -16766,8 +18703,11 @@
       <c r="D252" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>900</v>
       </c>
@@ -16780,8 +18720,11 @@
       <c r="D253" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>900</v>
       </c>
@@ -16794,8 +18737,11 @@
       <c r="D254" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>900</v>
       </c>
@@ -16808,8 +18754,11 @@
       <c r="D255" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>900</v>
       </c>
@@ -16822,8 +18771,11 @@
       <c r="D256" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>900</v>
       </c>
@@ -16836,8 +18788,11 @@
       <c r="D257" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>900</v>
       </c>
@@ -16850,8 +18805,11 @@
       <c r="D258" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>900</v>
       </c>
@@ -16864,8 +18822,11 @@
       <c r="D259" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>900</v>
       </c>
@@ -16878,8 +18839,11 @@
       <c r="D260" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>900</v>
       </c>
@@ -16892,8 +18856,11 @@
       <c r="D261" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>900</v>
       </c>
@@ -16906,8 +18873,11 @@
       <c r="D262" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>900</v>
       </c>
@@ -16920,8 +18890,11 @@
       <c r="D263" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>900</v>
       </c>
@@ -16934,8 +18907,11 @@
       <c r="D264" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>900</v>
       </c>
@@ -16948,8 +18924,11 @@
       <c r="D265" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>900</v>
       </c>
@@ -16962,8 +18941,11 @@
       <c r="D266" s="3">
         <v>20190101</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>600</v>
       </c>
@@ -16976,13 +18958,16 @@
       <c r="D267" s="2">
         <v>20190702</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>910</v>
       </c>
       <c r="B268" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>475</v>
@@ -16990,13 +18975,16 @@
       <c r="D268" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>910</v>
       </c>
       <c r="B269" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>475</v>
@@ -17004,13 +18992,16 @@
       <c r="D269" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>910</v>
       </c>
       <c r="B270" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>475</v>
@@ -17018,13 +19009,16 @@
       <c r="D270" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>910</v>
       </c>
       <c r="B271" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>475</v>
@@ -17032,13 +19026,16 @@
       <c r="D271" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>910</v>
       </c>
       <c r="B272" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>475</v>
@@ -17046,13 +19043,16 @@
       <c r="D272" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>910</v>
       </c>
       <c r="B273" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>475</v>
@@ -17060,13 +19060,16 @@
       <c r="D273" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>910</v>
       </c>
       <c r="B274" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>475</v>
@@ -17074,13 +19077,16 @@
       <c r="D274" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>910</v>
       </c>
       <c r="B275" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>475</v>
@@ -17088,13 +19094,16 @@
       <c r="D275" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>910</v>
       </c>
       <c r="B276" s="2">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>475</v>
@@ -17102,13 +19111,16 @@
       <c r="D276" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>910</v>
       </c>
       <c r="B277" s="2">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>475</v>
@@ -17116,13 +19128,16 @@
       <c r="D277" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>910</v>
       </c>
       <c r="B278" s="2">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>475</v>
@@ -17130,13 +19145,16 @@
       <c r="D278" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>910</v>
       </c>
       <c r="B279" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>475</v>
@@ -17144,13 +19162,16 @@
       <c r="D279" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>910</v>
       </c>
       <c r="B280" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>475</v>
@@ -17158,13 +19179,16 @@
       <c r="D280" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>910</v>
       </c>
       <c r="B281" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>475</v>
@@ -17172,13 +19196,16 @@
       <c r="D281" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>910</v>
       </c>
       <c r="B282" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>475</v>
@@ -17186,13 +19213,16 @@
       <c r="D282" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>910</v>
       </c>
       <c r="B283" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>475</v>
@@ -17200,13 +19230,16 @@
       <c r="D283" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>910</v>
       </c>
       <c r="B284" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>475</v>
@@ -17214,13 +19247,16 @@
       <c r="D284" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>910</v>
       </c>
       <c r="B285" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>475</v>
@@ -17228,13 +19264,16 @@
       <c r="D285" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>910</v>
       </c>
       <c r="B286" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>475</v>
@@ -17242,13 +19281,16 @@
       <c r="D286" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>910</v>
       </c>
       <c r="B287" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>475</v>
@@ -17256,13 +19298,16 @@
       <c r="D287" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>910</v>
       </c>
       <c r="B288" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>475</v>
@@ -17270,13 +19315,16 @@
       <c r="D288" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>910</v>
       </c>
       <c r="B289" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>475</v>
@@ -17284,13 +19332,16 @@
       <c r="D289" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>910</v>
       </c>
       <c r="B290" s="2">
-        <v>399</v>
+        <v>330</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>475</v>
@@ -17298,13 +19349,16 @@
       <c r="D290" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>910</v>
       </c>
       <c r="B291" s="2">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>475</v>
@@ -17312,13 +19366,16 @@
       <c r="D291" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>910</v>
       </c>
       <c r="B292" s="2">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>475</v>
@@ -17326,13 +19383,16 @@
       <c r="D292" s="2">
         <v>20201028</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>910</v>
       </c>
       <c r="B293" s="2">
-        <v>234</v>
+        <v>399</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>475</v>
@@ -17340,9 +19400,11 @@
       <c r="D293" s="2">
         <v>20201028</v>
       </c>
+      <c r="E293" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D267" xr:uid="{E035DBAF-74E6-458F-98B4-9A7263F84585}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
